--- a/Hot_Tests.xlsx
+++ b/Hot_Tests.xlsx
@@ -5,38 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihaowang/PycharmProjects/Takachar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihaowang/PycharmProjects/Takachar/Takachar-GPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E20E9F-C014-6C47-A2CB-E0BA2931A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CC39B-35C1-0C4A-9802-4FEAEAD70650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{5C816ED1-04CA-7A4E-AE53-9CB60CD69DC2}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Hot Test</t>
   </si>
@@ -56,6 +40,9 @@
 The other significant issue was with burning chips reaching the bottom of the reactor. We would periodically speed up the auger to move the burning material up the reactor, but it was not enough to prevent flames from reaching the hopper. It seems like the higher angle compounds the problem of the rectangular body allowing a path for burning chips to fall down the reactor and ignite chips below the hopper. 
 Output 
 Input feedrate was about 37.4 kg/h.  </t>
+  </si>
+  <si>
+    <t>Example Hot Test: 1</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 62- 4/1/22  
@@ -87,7 +74,837 @@
  </t>
   </si>
   <si>
-    <t>Smoke or Not</t>
+    <t>Smoke / No Smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 63- 4/2/22  
+Note: Chimney damper was on throughout the entire test. This explains the excessive smoke leakage.  
+Personnel: Seong Ho and Kevin 
+Objective: 
+Replicate yesterday’s test with rice husks, but with the primary air position restored two notches up (B10 and B12). The cross section remains rectangular. We wanted to see, if raw rice husks were to be conveyed further up the reactor body, would that cause more torque to the drive? 
+Experimental Settings: 
+Initially some 70% charred wood chips were filled in (about ½ bucket) followed by close to a full bucket of PG&amp;E wood chips, to start the fire.  
+Only rice husks were tested (coconut shells were not). Auger was initially 6, increasing to 8. Primary blowers 4000-&gt;3000. Secondary 5000-&gt;4000. See datalog for details.  
+Results: 
+Motor wasn’t working very hard, except for a few sporadic peaks:  
+Despite the initial difficulty lighting (we forgot to put lighter fluid), eventually the reaction got going very hot. It looks like over time, the reactor crack has widened, and today an angry flame was often coming out of the cracks due to positive pressure, much more so than yesterday. We had to plug up the cracks with impromptu insulation material, but the flame still persisted, eventually melting part of the aluminum insulation casing below. At the end of the reaction, when the two primary blowers were reduced to below 2000-2500 (with secondary at 1300), or when the single secondary blower was reduced to 4000-5000 (with both primaries at 1300), the crack region transitioned from positive pressure to negative pressure.  
+Furthermore, glowing embers emerged from the cracks and rolled down the outer face of the aluminum insulating material, to enter the base of the hopper through another crack there, possibly pre-igniting the biomass there and causing the hopper to smoke (which tends not to happen otherwise when the primary air position is so high). While this is happening, there is a noted reduction in the ember/ash emerging from the top of the chimney. This, by the way, would have been a good ember reduction and recirculating reactor design 
+At the end, the entire length of the reactor seemed to be on fire (you can see flame in cracks even above the chimney zone). We dialed back and shut down, after playing with the primary/secondary RPM to determine where the positive pressure transition is (Codesys T = 10.15-10.17).  
+Output 
+The char output was of mixed quality, despite the high heat and flame throughout. Hypothesis: Moving the primary blowers up two notches deprive most of the rice husks a vigorous reaction had the primary blowers been further down. We would have loved to test in the intermediate positions (B7 and B9), except that the NPT caps at these positions are currently stuck and cannot be opened.  
+Yield 
+Input feedrate is about 50.7 kg/h. We were consuming about one full bucket or 7.5 kg of rice husks every 10 minutes or so.  
+Output rate is hard to estimate, given that steady state was not really achieved. The lower bound gives around 10.9 kg/h, with a yield of 21%. The upper bound gives 28.5 kg/h, with a yield of 56%. The average of the two gives a yield of 39%, though this is not really the scientific way to do it.  
+Other Observations 
+Stirring was needed throughout. At the very end, we did see charring zones inside the hopper at the same level or even above the auger flights. Air was probably being pushed out of the hopper as well due to positive pressure.  
+Next Steps 
+Redo this test after replacing the rectangular profile with a circular one, to see if the motor is working any harder as a result.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 64 - 4/4/22  
+Personnel: Austin and Kevin 
+Objective: 
+To repeat Hot Test #63 but with the rectangular cross section replaced with a circular cross section. The hypothesis is that given the much tighter auger fit with the circular cross section, we might replicate Indian MiniTorr’s observation that the auger/motor is having issues conveying raw rice husks past the rectangular -&gt; circular transition.  
+Setting: 
+Motor RPM began at 6, then we increased to 10. When we noticed motor was struggling, we lowered it to 6.  
+Results: 
+After about an hour of running, the motor started struggling. Reducing the RPM didn’t help. Eventually when we opened the cover, we found the rectangular-to-circular transition jam-packed with raw biomass. This seems to conclusively demonstrate that the Indian MiniTorr jamming is likely caused by the tight clearance between the reactor inner wall and the flights of the auger.  
+Here’s the motor torque/current data to corroborate: 
+Other Observations 
+Input feedrate was around 29 kg/h.  
+Initially we had smoke leaking from the hopper and the cracks which was unusual for a primary blower position so high up the reactor. A closer examination revealed that the damper of the chimney was on (also for the previous hot test)!! After the damper was removed, the smoke from hopper and cracks disappeared. Ash out of the chimney was severe but came in episodes.  
+Later on the motor got stuck repeatedly, Austin noticed that the motor driver wires got hot (not sure if it’s due to overcurrent or a poorly connected junction). As he attempted to fix this, the PLC went haywire – all blowers went high and the motor stopped working. We had to power-cycle through the PLC. When we regained control, the motor was still periodically stuck.  
+Here’s the thermocouple history: 
+Here’s the combustor temperature history: 
+Next Steps 
+Repeat the same test but with primary blower at a much lower position. If the reaction and volumetric reduction can start earlier in the reactor, this could prevent the jamming at the rectangular-circular transition.  
+Also start searching for some rice straws to repeat the same experiment as today.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 65 - 4/5/22  
+Personnel: Austin and John 
+Objective: 
+To repeat Hot Test #64 but with the primary blower at the lowest possible position (right at the rectangular-circular transition, at B4 and B6). Our hypothesis is that if the hot zone starts earlier, perhaps the volumetric reduction in the raw biomass will mean that there will no longer be a compression at the rectangular-circular transition. If this is true, then we should observe a more smooth running.  
+Results 
+The test ran more smoothly, achieving what seems like a steady state. When we opened the NPT ports at the lower sections, it didn’t look like that the reaction was extending downwards too much, but nonetheless the rice husks were not as tight as yesterday. This could be a potential solution for the Indian MiniTorr, in that instead of making a rectangular / larger cross section, simply cut primary air inlets closer to the L-junction.  
+Other Observations 
+Input feedrate was 10.3 kg/h.  
+Char looks well (~100%) charred, perhaps a touch overcharred (ashy). This is perhaps because the effective reaction length is too long, with the primary air so low.  
+John’s Observations 
+For today’s hot test, our primary fuel was rice hulls but we started with a half bucket of wood chips to help our lighting process as they are easier to light. Our goal for this test was to see how the hot test would go if we moved our primary blowers to a much lower position on the reactor body, placing them in S8 position for reactor configuration B. We were trying this because in the hot test the day before, Austin said that the test went poorly because there was a lot of jamming happening and he said it was because rice hulls were getting too packed in and compressed in the area where the reactor body goes from a larger square shape to a smaller circular shape right after the hopper area. 
+So our hot test actually went really well, we experienced no jamming at all which could be due to the new blower position as it promotes fire growth at a bit of a lower level in the hopper and helps move around more rice hulls which should decrease the amount being compressed at the square to circle transition section. Reactor was able to reach a steady-state towards the end but I (John) had to leave for school around that time so we couldn’t let it keep going throughout its steady state portion. There was very little, if any, visible smoke throughout the entire test which was really good. We had periods of heavier ash as well as very little to almost no ash so overall the ash was probably around our average. We leaned heavily into using the viewing port and used that to really manage where we wanted to see the fire at so that lead us to have a few times where we stopped the auger for a time because we wanted to see the fire a bit lower in the reactor body to try and help with the rice hull compression and this lead to a lower than usual flow rate but if we were able to run the hot test for longer, I think the flow rate would have picked up as the fire was running really well near steady state and we didn’t have to stop the auger anymore. 
+Next Steps 
+First priority is to get chopped rice straws (or any other straws) to repeat the same experiments. 
+Also if we could unlock the stuck NPT ports at the middle positions (B7 and B9), we could repeat the test and see if we could find a happy medium. One thing to watch for specifically in the hot test -- in addition to the performance of the motor with the primary air at the newly unlocked B7/B9 position -- is the extent of charring at the end. When the primary air was way down, charring seemed pretty homogeneous. When the primary air was way up, we noticed very uneven charring (though that experiment was complicated with the fact that I forgot to open the chimney damper). At an intermediate location, let's keep an eye on the charring to see if it more closely resembles the former or the latter. 
+Thermocouple history: 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 66 - 4/7/22  
+Personnel: Austin and Timothy 
+Objective: 
+Having unlocked the stuck NPT ports at positions B7 and B9 (middle positions), we plan on repeating the test and see if we could find a happy medium between the previous two tests. One thing to watch for specifically in the hot test -- in addition to the performance of the motor with the primary air at the newly unlocked B7/B9 position -- is the extent of charring at the end. When the primary air was way down, charring seemed pretty homogeneous. When the primary air was way up, we noticed very uneven charring (though that experiment was complicated with the fact that I forgot to open the chimney damper). At an intermediate location, let's keep an eye on the charring to see if it more closely resembles the former or the latter. 
+Results: 
+We conducted two tests, both of which eventually died.  
+Initially, after lighting with wood chips, the reactor ran hot. However, smoke started emerging from the cracks near the rectangular-circular transition. In order to avoid excessive smoke, we turned on and/or increased the auger. This caused the reaction to taper off and die. Initially primary 4000, secondary 3000, despite attempting to relight once. 
+Then we redid the test, initially with the same primary/secondary RPMs but then reduced the primary. Again the reaction seemed to taper off. Also the rectangular-circular transition became jam-packed.  
+Interpretation: 
+Based on the previous three tests, here is a hypothesized mental picture of what’s happening.  
+In test #64 (highest primary blower position), the reaction was way up in the reactor. At the bottom, the cold rice husks just got stuck very cleanly without emitting any smoke. 
+In test #65 (lowest primary blower position), the reaction was already happening in the rectangular-circular transition. The volumetric reduction allowed the reaction to continue and to have a negative draw of air. The reaction proceeded and the auger did not pack. 
+Test #66 is an awkward medium between the two tests. The primary air was close enough to the rectangular-circular transition to initiate some reaction (hence the smoke), but not sufficient to volumetrically reduce the rice husks, which still ended up getting stuck.  
+There seems to be a vicious downward spiral: when the reaction is insufficient, the rice husks in the rectangular-circular transition are not volumetrically reduced, and become jam-packed. The packed rice husks become harder to light / react, thereby cooling the reaction further, etc.  
+Next Steps: 
+We want to repeat test #66 with the leaks plugged up. One limiting factor today operationally was that the smoke from the cracks limited our ability to up the primary blower RPM (it was 5000 in test #65 and less than 4000 today). 
+It would also be worthwhile repeating test #65. Even though the reaction seemed to be going well, this was over a limited time period when John was here. Had we run the reaction longer, we wonder if the reaction might have met the same fate as #64 or #66. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 67 - 4/15/22 
+Personnel: Austin and Gabriella 
+Objective: Run the first hot test with hay in the round body, and compare that with the hay hot test in India. 
+Results:  
+The hay did char, but due to flow issues the feeding rate was extremely slow. Only ~3kg of hay was able to be fed into the machine. The result was only 0.9 kg of char collected, and a substantial amount were woodchips. The charred hay had a tendency to clump up, the clump was charred all the way through upon investigation. The test was not able to run longer due to the hay catching fire in the hopper, only 3 buckets of hay were able to be dumped.  
+Interpretation: 
+The hay did not flow very well and had to be manually pushed down into the system by Austin. If he had not done this the Hay would not have moved. There was audible groaning heard from the auger struggling to move the mass. The hay’s tendency to stick together must be fixed.   
+Next: Possibly chopping the hay in future tests, and moving blower location to ease motion. 
+Gabriella’s Observations: 
+The hot test had a slow start-up the first ignition did not take, a relight had to be done. One Bucket of PG&amp;E wood chips was used to start the ignition. The second attempt was successful and the flame was able to take.  1st dump occurred at 13:45 pm. Shortly after this groaning from the auger occurred indicating struggle to move the hay. Thermocouple 6 fell out and a [different] thermocouple would readings would spike up to really high readings then fall back again. The spikes occurred about 4 times. 
+During the entire test there was a flow problem with Austin having to physically push the hay into the system. The hay was so light and fluffy this was causing issues for the auger. One part of the test, there was ~ 2 minutes of knocking from the auger. After the 3rd dump was made, thick white smoke was coming out of the hopper, the speed was increased in hopes to decrease this. For a while the smoke did lessen, but ultimately the smoke returned and a flame shot out of the hopper. At this point in time the test was stopped and the remaining biomass was pushed through. 
+The hay sticks to itself even after being charred some of the hay came out in a ball shaped mass. We were not able to put a lot of hay in therefore not a lot of hay came out.  The fluffiness of the hay is a big problem, Austin shared an idea of chopping the hay or moving blowers at a different location may help with this problem. With the amount of air between the hay smothering the flame and containing it strictly to inside the system may be difficult.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 68- 4/20/22 
+Personnel: Austin and Gabriella 
+We started with just straws, not wood chips. We tried lighting it once and ran the auger a bit. Seemed like the flame was going out, reactor got cold. Never really heated up significantly. Then we tried relighting it once. Added a bunch of wood chips to side port and relit again. It was getting going and warming up on the wood chips for a while. Then it seemed to start cooling down. Kept auger stationary to keep things heating up. Then started getting smoke from chimmey and hopper at the same time. Then hopper went up in flames. We put water on it. Rice straw level was really low in the hopper.  
+Chopped rice straws still had fluffiness and was not flowable. It got up the reactor but needed jamming to make it flow. Fiber length around 2’’ on average.  
+Big hopper test – Filled big hopper and lifted this up. The content sagged a bit but did not flow out.  
+We could run through the mulcher again to get smaller size.  
+We jammed stuff down and sometimes it would push things back up (compress-decompress). Though it didn’t seem like anything was jamming the auger. Rice straw was so light, it was very compressible compared to everything else.  
+Next Step: We only ran the auger for 10 minutes. We should heat up more with wood chips for 30+ minutes before introducing rice straws.  
+Gabriella’s Observation 
+Experiment: To see if ignition could be sustainable just using the hay. To run a hot test with hay that has been mulched. 
+ 	The question came up if the hay from the rice plant was going to be as hard to combust as the rice hull. Upon doing a small experiment the hay easily caught fire and sustained it. When this test was ran today using just hay to start the combustion process it was not as successful 3 ignitions had to occur, the last one was with wood chips and paper. The flame was able to survive, unfortunately when the auger started to move 2 minutes later there was a fire in the hopper. The flame was put out with water. 
+The big problem of the day is the hay does not flow very well. It acts cohesively wanting to stick together. Getting the hay to move up the system before the lighting started took a long time with Austin having to manually push it in. There were groans from the auger struggling to move the biomass occasionally, before and after lighting. A test was done using the big hopper, filling it ¼ of the way and lifting the hopper to see if the hay would fall out the bottom. Upon lifting the hopper this did not happen.  
+ 	This is the second hot test that I have done with hay. The first one the hay had not been mulched, the second one it had been. Each test ended with the hay in the hopper catching fire. From observation the lack of ability for the hay to flow very well may be leading to this. By the time the hay is combusting it does not move through the system faster than the flame runs through the biomass.  
+ 	Possible options that may be able to fix this is having teeth on the auger to grab the hay. Though this is not ideal in creating the need for redesign. Figuring out why the hay is sticking to itself, if statically maybe something to break this as a dryer sheet does for clothes. If it is due to cohesion then maybe preheating the hay to break up this attraction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 69- 4/21/22 
+Personnel: Austin and John 
+We started with wood chips, took a long time to light (maybe due to wet weather, or due to leftover straw doused with water yesterday in there; wet straw could also have clogged up the air inlet ports). It seemed the flame we could see through the side ports weren’t getting enough air. We ramped up eventually to 7000 rpm just trying to get through a possibly clogged port. Then we added a second bucket and relit. Then it was going quite well – good flame established, running at continuous at 6 RPM. Then we started putting in straw, a couple of handfuls at a time and poking into the auger. Seemed to be going reasonably well, keeping the straw level right at the top of the auger (not hopper), then slowly adding more and more. We only added most of the bucket (first bucket). Then a tiny whiff smoke came out of the hopper.  
+Then the whole hopper caught fire (with primary 7000, secondary 3000) after 10 minutes of switching to straw. We also doused with water while continuing the auger at 6-&gt;10 RPM while idling the air. We were still having a lot of smoke coming out of the chimney and every crack of the machine. We then removed the hopper and just capped off the elbow.  
+We had tons of smoke out of the chimney after dousing with water.  
+With straw, getting one little ember meant everything came up in flames. No ember and no ash out of the chimney.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 70- 4/22/22 
+Personnel: Austin and Gabriella 
+Moved the primary blowers to the topmost position. When properly flowing, primary 3000, secondary 2500, auger 6. For lighting, primary was 4000. Later we had some chimney smoke and reduced primary to 3000.  
+Started with wood chips (PG&amp;E), two buckets. Got things moving very hot. Started feeding in straws. It was less than 30 minutes before straw jammed completely.  
+We took off flat section and took a look inside. Unlike rice hulls, wasn’t packed pre-constriction. Corners of rectangular sections were empty – space. Above the constriction in the round section, wasn’t totally packed. The jam was between the round body and the auger. A lot of rice straws got wedged in there. We didn’t in through NPT ports.  
+When the blowers are lower positioned, we need to run the RPM higher b/c the air flow is blocked by biomass. I.e. We might need to run at a higher RPM to get the same delivered volumetric flow.  
+No hopper fire or smoke. We did have ash and ember from chimney. Some smoke came out of the cracks where the damper goes at the base of the chimney; otherwise not really.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 71 - 4/25/22 
+Personnel: Austin and Gabriella 
+Hypothesis: In the previous two tests with rice straws and circular cross section -  
+With the primary air at the bottommost location, hopper fire happened. 
+With the primary air at the topmost location, biomass was stuck. 
+We wanted to see which of these two extremes would occur when the primary air is at the middle location.  
+Results: 
+Started with PG&amp;E wood chips (2 buckets).  
+Primary 1300, secondary 2500 or 3500 (?). We set the primary low just to prevent the smoke from coming out of the hopper. Increasing primary beyond 1300 resulted in more smoke from the hopper.  
+We didn’t have any jamming. Ran smoothly the whole time. There was definitely shear resistence but didn’t trip the breaker. Though probably came close.  
+Smoke from the chimney off and on. Cyclical. Changing blower speed didn’t help. Seems like it may have synchronized the timing of the auger RPM but inconclusive. No webcam to record the smoke.  
+Also smoke from the hopper. Also came and went cyclically.  
+Input feed rate around 11 kg/h.  
+Didn’t achieve steady state today. Went up, the temperature went down on its own volition without us changing blower RPM.  
+Gabriella’s Observation 
+Testing: Today’s test involved mulched hay going through the system with the primary blowers at the B8 and B9 locations.  
+ Conclusion: Today was the first day that we were able to successfully char hay, a total of 6.7 kg of char there was woodchips from the fire ignition and hay. The hopper did not catch on fire though various times throughout the test did start to smoke. The auger as the test went further along started to continuously struggle.  
+ The weather today at the Richmond Center was sunny and clear, but a cold wind consistently blew through the entire hot test. The starting of the fire took a lot of work. The auger had to be ran and blowers adjusted. We had a white smoke consistently coming out of the chimney in thick plumes. One part of this process the smoke would consistently change colors going from white, to black, to yellow, to white again. Upon looking inside, the system the flame looked strong and like nothing was wrong even though the temperature readings and smoke indicated the flame was not doing well.  
+We fed the hay in the system having to have Austin manually push the hay in. The other tactic that was used in feeding the hay was to not dump the entire trash can full of hay at one time. Do a little at a time moving hay around to plug holes and make sure it was going into the system. As the time ran the ager would get jammed, during this time the smoke would increase mostly in the hopper. 
+The system would behave very cyclically. Consistent groaning from the auger getting jammed that would increase and decrease in volume. The smoke mostly would increase with the volume of the stuck auger, but not always. There seemed to be a pattern for a while to only change with when the hopper would smoke vs. the chimney, how thick the smoke was, and the auger struggling. Blowers would be changed auger speed, and this did not always work to create change but sometimes it would. As exciting as getting the system to produce char was, I am curious to see if this test it replicable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 72 - 4/26/22 
+Personnel: Austin and John 
+Hypothesis: We replaced the circular cross section with the rectangular cross section in the reactor, while keeping the primary air at the same location (top, or B10/B12). We wanted to observe any differences once the auger-inner wall constrictions are relaxed. Our hypothesis is that by relaxing the auger-inner wall constrictions, unlike the circular cross section previously, the hay would not get stuck. 
+Settings: Primary at 1500, secondary at 2500. 
+Outcome: We didn’t have any significant conveyance issues. We got little shudders and signs of friction here and there. Breaker never blew. Coming out of the chimney generally pretty clean – not a lot of smoke or ash. BUT we were getting a lot of smoke coming out of the cracks and intermittently, smoke from the hopper as well. Very smoky inside the reactor. Pretty substantial flames coming out of the two cracks below and above the chimney connector piece. Damper was removed, though it was acting like the damper was there. 
+I’m curious to take a peek inside the chimney and just ensure that it’s not blocked by something. (See below for findings) 
+The next day, when we opened the char container (which was still attached to the reactor’s elephant snout), we noticed that most rice straws were charred, with maybe 5% incomplete charring.  
+We also noted that there are “furry formations” stuck on the inner wall of the oil drum. This seems to suggest that the rice straw char was very light and tends to be aerated easily. 
+Our thinking then became that the mesh at the top of the chimney might also have been similarly clogged by these “furry formations”. We therefore took the chimney down to examine. There were definitely some rice straw char lodged between the mesh wires. However, they fell out easily, and there were not many clogged mesh wires. This may have been that the clogged char was disturbed during the chimney removal. However, we noted that in the chimney elbow, there was an accumulation of fine char dust right at the secondary blower outlets. Might these have been the clogged char that fell down or recirculated back into a dead zone?  
+We also noted that both secondary blowers were very clogged by mostly uncharred straw (and some charred straws). This may have affected the P-Q profile of the blowers. 
+Primary blowers were also clogged but to a much less extent.  
+When we opened the side NPT ports (S8) it was filled with char dust, more so on the IFM side than the opposite side.  
+Next Step: Given our hypothesis that the clogged chimney mesh caused the hopper smoke, we will remove the chimney mesh and conduct the same hot test.  
+Thermocouple history: 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 73 - 4/27/22 
+Personnel: Austin and Kevin 
+Hypothesis: Given our hypothesis that the clogged chimney mesh caused the hopper smoke, we removed the chimney mesh and conducted the same hot test. Primary blowers were at the same topmost (B10/B12) positions. Reactor profile was rectangular. 
+Settings: Primary 2500 Secondary 2000 Auger 10 
+Outcome:  
+We started with 1.5 bucketfuls of eucalyptus wood chips (chipped onsite at RFS during vegetation management operations).  
+We saw wood chips in the flame zone through the cracks of the chimney base, filled almost to the top – this was not seen before in previous tests. We wonder whether this is due to the fact that we were packing the wood chips more tightly manually? 
+Starting with wood chips and the blowers high (4000/2000) the flames were established quicly. After starting the auger at 6rpm, straw was fed in by the handful. We got some small fires in the hopper, and increased the auger to 10 to try to move the fire up into the reactor. Running the auger at 10 reduced the hopper fires to a manageable level. Just the occasional small fire that could be put out with a tiny bit of water. The straw had to be pushed directly into the auger almost continuously to keep it full, and to prevent hopper fires. 
+How much are things flowing versus just burning up? 
+Average feed rate about 27 kg/h 
+When we opened the char outlet at the end of the experiment, there was no smoke. Straws look pretty evenly charred.  
+Next Steps: After this test we have a pretty good idea of how straw works in the current reactor. Next we would like to install the mega chimney and test it with rice hulls to see if it can reduce the ash/charred particles coming out of the chimney. 
+Thermocouple history: 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 74 - 5/4/22 
+Personnel: Austin and Gabriella  
+Hypothesis: To see if moving primary blowers to the middle position with the round body can create a happy medium of flow vs, smoke. 
+Settings: Primary 2000 Secondary 3000 auger 6 
+Outcome: Though char was achieved, there were many obstacles. Eucalyptus wood chips were used as fuel to start the ignition process. This created a lot of smoke, mostly coming out of the top and bottom hopper with small amounts of the chimney. Once the second dump of rice hulls the system seemed to be running well with occasional smoking from the bottom of the hopper. The auger speed increased to 8 rpm. ~10 minutes after this white smoke started coming from the chimney. It was noticed that there was a jam in the lower 1/3 of the reactor. It is thought that the jam is from the increased speed of the auger the biomass was not charring enough to have a reduced volume, thus jamming. The breaker flipped the auger was stopped and the test discontinued. No ash was visible from the chimney during the entire test. 
+Notable observations:  
+- Woodchips: Though Austin was continually pushing wood chips in the hopper it is hypothesized that the wood chips are not getting compact enough. Since the wood chips are in long strands they are not flowing as easily or compacting. The spread-out nature of the wood chips is creating air pockets and sparse area coverage. This was leading to the fire not to be hot enough due to lack of fuel and allowing the smoke to have easy passage ways to escape from. The eucalyptus may need to be mulched before use again. 
+- Smoke: During the ignition process with the eucalyptus as a fuel source interesting observations were made. There were times where the smoke from the hopper was white, but the smoke out of the chimney was a greenish brown to black color. Secondaries were increased to solve the problem it did lessen the smoke but did not stop it. As rice hulls were added to the reactor this smoke. from the chimney eventually stopped.  
+- Thermocouple error: When placing in the new thermocouple it was stuck in too high and the auger flattened it. This did cause the auger to struggle. The thermocouple was adjusted, and no longer was the cause for the auger to struggle.   
+Thermocouple history: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 75 - 5/5/22 
+Personnel: Austin and John 
+Hypothesis: The larger chimney should reduce ash and ember flow with woodchips as it did with rice hulls. 
+Settings: Primary 4000&gt;2500&gt;3000 Secondary 3000 auger 6 Angle 45 Round body 
+Outcome:  
+Overall, the hypothesis was confirmed. Through various stages of operation, including times where many burning embers could be seen flowing inside the reactor, no large particulates were seen coming from the chimney.  
+Outside of the ash situation however, the hot test did not run particularly smoothly. The day was pretty windy and we had a very hard time controlling smoke. We had the blowers in the middle position (B7, B9) which did not provide enough volumetric reduction in the square to round transition area to prevent jamming. We were also stuck between wanting to raise the primaries to get more reaction in that transition zone, and wanting to keep them lower to prevent smoke from pouring out of the hopper. It also seemed like we couldn’t quite get the reaction hot enough to stop smoke coming from the chimney, and one of our neighbors did come over to complain. We were using a mix of the various wood chips we had on hand, primarily the PG&amp;E chips. They all required pretty constant agitation to keep them flowing through the hopper. 
+Next steps: It might be worth investing some time in getting the ProFire working again to prevent future complaints.  
+Thermocouple history: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 76 - 5/20/22 
+Personnel: Austin, Gabriella, Eymon, Cerise 
+Hypothesis: Sustaining the primary blower speeds at 2000 rpm and the secondary blower speeds at 3500 rpm would still create optimal amounts of char. 
+Settings: Primary 2000 rpm, Secondary 3500 rpm, Auger 6 rpm 
+Outcome: 
+Overall, we were not able to achieve a steady state with this hot test as the reactor slowly became full, reducing air flow and cooling the reactor down. The rice hulls were getting stuck in the reactor body, leading to the flame being higher up in the reactor body than usually seen and causing smoke to emit from the reactor body and the bottom of the chimney, as well as the hopper. Eventually, the auger stopped due to the amount of biomass added, and we had to reverse the auger in order to unjam the reactor. The hypothesis was not confirmed, as we were not able to achieve optimal amounts of char when the blower speeds were held at 2000 rpm (primary) and 3500 rpm (secondary) for an extended period of time, as only about 50% of the rice hulls were charred. 
+Notable observations: 
+Smoke: Lots of light gray smoke was emitted from the hopper, the reactor body, and at the bottom of the chimney where it meets the reactor body. At times, large clouds of white smoke would emit from the top of the chimney. 
+Flames were higher up in the reactor body than usual, possibly due to the amount of biomass added. 
+Temperature: Reactor body and thermocouple 4 slowly cooled down over time, producing less optimal char.  
+Next steps: 
+Some next steps to take would be to do a test with variable lower speeds (increase primaries to see if we can continue to operate even when the reactor body is full), or do the reaction at a lower angle. 
+Thermocouple history: 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 77 - 5/23/22 
+Personnel: Eymon, Austin, Gabriella, Cerise, Kevin 
+Hypothesis: Using rice straws to replicate the smoke coming out of the chimney the India team is experiencing. 
+Settings: Primary at 4000 rpm, secondary at 3000 rpm. Auger at 10 rpm. 
+Outcome: Not able to replicate the chimney smoke the India team was experiencing due to the difference in design in the prototype at RFS. The test was stopped because the hopper caught fire, most likely due to ember falling down to the hopper section. Smoke, and some ashes were coming out from the chimney. Smoke was also escaping from the cracks. 
+Notable observations: 
+No hopper, instead rice straws were manually fed in.  
+Was not able to replicate India’s chimney smoke partly because of the new square section. 
+Next Steps: Replicate a similar design to India’s prototype in order to produce the chimney smoke they are experiencing. Identify the reason for the chimney smoke, and possible solutions. 
+Thermocouple history: 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 78 - 5/26/22 
+Personnel: Austin and Gabriella 
+Hypothesis: To run a hot test using rice straw with the reactor in a 30° configuration, while using the straw to ignite. 
+Settings: The weather today was partly cloudy, very windy, a chill wind. Primary 3000, Secondary 4000, Auger 10 rpm. Reactor at 30°, reactor exit black bag. Large chimney  
+Outcome: ~2kg of charr was achieved, however steady state was not. We are not 100% certain that this charr was not from a previous test. There was a hopper fire that resulted in the test ending. Ash Particles were visible coming from the top of the chimney in spurts, not consistently throughout the whole test. A substantial amount of smoke coming from the top of the chimney that was yellowish in color. 
+Notable Observations:  
+There was lots of yellowish smoke coming out of the chimney and when it was not coming from the chimney, coming out of the cracks of the reactor. 
+Ash particles were visible coming from the top using the large chimney. 
+The auger was jamming and flipping the breaker switch.  
+Hopper caught fire. 
+Due to the large amount of smoke from the chimney Austin used the propane blower to burn through the side port. This greatly reduced the amount of smoke coming through the chimey.  
+Next Steps: The next test will start off with an established fire using wood chips. Though the straw is very flammable it may be burning so quickly that an establishment of heat is not as sustainable as wood chips. 
+Thermocouple history: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 79 - 5/31/22 
+Personnel: Austin, Gabriella, Eymon, Cerise, Charu (Austin was playing supervisory role) 
+Hypothesis: To run a hot test using rice straw with the reactor in a 30° configuration, while using the woodchips to ignite. 
+Settings: Primary 3000, Secondary 2000, Auger 10 rpm. Reactor at 30°, reactor exit black bag. Large chimney  
+Outcome: ~0.9kg of charr was achieved, however steady state was not and most of the char was from the woodchips, although there was a good amount of straw char as well. Test had to be stopped due to continuing hopper fires as rice straw was not being packed tight enough or fast enough, leading to oxygen flowing into the hopper and igniting the flame in the hopper. Minimal ash and smoke was observed coming from the chimney. 
+Pushing biomass down vertically rather than up 
+We attempted a second hot test (a continuation of the prior test while the temperature was hot), but the second attempt was not being put quickly enough. Fire inside the hopper 
+Notable Observations:  
+Reactor maintained a decently high temp (around 240 F), but we were not able to sustain the test. 
+Hopper caught fire twice 
+Low amounts of smoke and ash coming from chimney. 
+The char looks well done: 
+Next Steps: The next test with rice straw we will make sure to continuously pack the rice straw in order to prevent oxygen from entering and starting hopper fires. 
+Thermocouple history: 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 80 - 6/1/22 
+Personnel: Austin, Gabriella, Eymon, Cerise, Charu (Austin was playing supervisory role) 
+Hypothesis: To run a hot test using rice straw with the reactor in a 30° configuration, while using the woodchips to ignite. Investigate if aggressively feeding the hopper will help prevent hopper fire 
+Settings: Primary 4000, Secondary 2000, Auger 10 rpm. Reactor at 30°, reactor exit black bag. Large chimney  
+Outcome: It appears that aggressively feeding (stuffing each individual flight as much as possible) may have caused the auger to jam on occasions. This forced us to run the auger in the reverse direction to unjam it. Hopper fires also appeared, maybe due to the occasion stopping of the auger. The reactor body also made lots of knocking/screeching noises. 
+Notable Observations:  
+Auger jammed and stopped 3 times, forcing us to run it in the reverse direction 
+Hopper caught on fire 
+Knocking/screeching noises coming from reactor body 
+Could not reach steady state 
+Next Steps: 
+Investigate the body of the reactor, and identify what may be causing the noises/jamming. Figure out a way to better feed the rice straws without causing jamming. Possible cutting the rice straws. Check motor amperage to see what was occurring before it dropped. If it does not peak before it drops, the problem may be with the braker.  
+Thermocouple history: 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 81- 6/6/22 
+Personnel: Austin, Gabriella, Eymon, Cerise, Charu, Elliot, Shadi(Austin was playing supervisory role) 
+Hypothesis: To run test with mulched rice straw to prevent auger jamming and hopper fires. Ensure straw is fed aggressively into the hopper and packed.  
+Settings: Primary 3000, Secondary 2000, Auger 10 rpm. Reactor at 30°, reactor exit black bag. Large chimney  
+Outcome: It appears that aggressively feeding (stuffing each individual flight as much as possible) may have caused the auger to jam on occasions, even with the mulched straw. This forced us to run the auger in the reverse direction to unjam it. Hopper fires also appeared, maybe due to the occasion stopping of the auger. The reactor body also made lots of knocking/screeching noises. Since the auger braker was constantly tripping, and electrical issue was investigated. 
+Notable Observations:  
+Auger jammed and stopped 3 times, forcing us to run it in the reverse direction 
+Hopper caught on fire 
+Knocking/screeching noises coming from reactor body 
+Could not reach steady state 
+Electrical issue is investigated 
+Next Steps: 
+Replace the braker to ensure that it is not the problem. Try feeding the mulch in at a faster rate. Take machine apart to investigate a mechanical issue.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 82 – 06/07/22 
+Personnel: Austin, Gabriella, Eymon, Cerise, Charu, Elliot, Shadi(Austin was playing supervisory role) 
+Hypothesis: To run a test with rice hulls to compare its performance against rice straw. Wanted to reduce auger jams.  
+Settings: Primary 3000, Secondary 2000, Auger 10 rpm. Reactor at 30°, reactor exit black bag. Large chimney  
+Outcome: Buildup of rice hull char within the reactor caused the temperature to gradually decrease over time. No notable problems with jamming, but occasionally the auger stopped turning and needed to be restarted.  
+Notable Observations:  
+Knocking/screeching noises coming from reactor body 
+Potentially reached a steady state but the temperature was much too cold 
+Electrical issue is investigated (similar to previous hot test) 
+Next Steps: 
+Replace the braker to ensure that it is not the problem (with respect to jamming). Potentially run blowers at faster rates to maintain high temperatures.  
+Thermocouple history: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 83 – 06/13/22 
+Personnel: Gabriella, Eymon, Charu, Shadi 
+Hypothesis: Whether Rice Hulls will smoothly go through reactor or start to build up 
+Settings: Primary 4000, Secondary 2000, Auger 6 rpm. Reactor at 30°, reactor exit black bag. Large chimney.  
+Outcome:  Was not successful. Lots of buildup in the reactor body from the rice hulls. No jamming just lots of buildup and smoke towards the end.  
+Notable Observations:  
+The motor kept spinning while the auger was stopped for about 5 seconds 
+Auger trips in beginning using woodchips 
+Some ash coming out of chimney 
+ No significant smoke after the rice hulls went down 
+Rice hulls building up very high in reactor 
+Smoke coming out of cracks 
+Mixed char, first barrel around 16 kg, second barrel around 12 kg 
+Next Steps: 
+Use fewer woodchips at a time or push woodchips through the combustion chamber instead of pushing them through the reactor. Investigate what could be causing possible jamming while rice hulls are being fed into the reactor.  
+	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 84 – 07/08/22 
+People: Austin, Elliot, Shadi, Yiyang, Bernard 
+Hypothesis: This is the first test with the new auger. Wanted to see how this auger would perform.  
+Settings: Primary 4000, Secondary 3000, auger 6, Reactor at 30°, reactor exit black bag. Large chimney.  
+Outcome:  Was not successful. Lots of buildup in the reactor body from the rice hulls. There was an incredible amount of white and yellow smoke that bled through all the cracks in the reactor hull, including the hopper. This could potentially be due to the fact that the rice hulls were blocking the chimney due to its accumulation.  
+Notable Observations:  
+The breaker and auger only stopped once. Overall, was very smooth.  
+White and yellow smoke exited through the cracks in the reactor. This was the main reason for stopping the hot test.  
+The rice hulls built up in the center of the reactor, causing incredible buildup.  
+The new auger, with its increased flight size, moved much faster than previous augers. However, the increased speed of the auger potentially increased the buildup of the rice hulls within the reactor.  The faster auger is met by the slower auger, causing a buildup.  
+Next Steps: 
+We could potentially find a way to block off the chimney to keep biomass moving through the reactor without buildup. We could potentially switch the augers – having the slow pitch auger at the bottom and the fast pitch auger at the top. To reduce the smoke, emitting from the cracks in the reactor, we will need to line it.  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 85 – 07/12/22 
+People: Charu, Austin, Gabriella, Eymon 
+Hypothesis: Test new auger with woodchips to try to decrease jamming 
+Settings: Primary 2000, Secondary 3000, auger 6, Reactor at 30º, reactor exit black bag. Large chimney. 
+Feedstock: Wood chips, leafy, fibrous eucalyptus pile (probably). Gabriella and Eymon were shoving the chips into the reactor manually.  
+Outcome: Overall not successful. There were not enough woodchips for amount of air being pushed into machine. The high temperatures made it so the fire was extremely hot but not burning up much material. 
+Notable Observations: 
+Thermocouple 5 and 6 were switched (need to transpose when creating data) 
+Fire was extremely hot, a lot of air but not a lot of fuel 
+Lack of woodchips may have been due to bridging in auger and lack of flow 
+Auger jams less, though friction between reactor walls and auger parts persists 
+Next Steps: 
+Try to figure out how to increase flowability of woodchips so there is more fuel for the amount of air being pushed into the machine. Blowers were already low, so solutions could include speeding up the auger or using smaller/less fibrous woodchips.  
+Is the new auger affecting the amount of air getting from hopper to the combustion zone? We ended shutting it down b/c the fire descended to the hopper underneath.  
+Kevin’s recommendation – If the same person (e.g. Austin) had been shoving biomass, have the same person shove to see if human is a factor here. If Austin can’t be there, then work on other things, such as having the same (Gabriella/Eymon) people shove but increase the auger speed for wood chips.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 86 – 07/13/22 
+People: Gabriella, Elliot, Bernard, Eyman 
+Hypothesis: Test new auger with woodchips. Use the same settings as Hot Test #85 but with faster auger speed to reduce jamming.  
+Settings: Primary 2000, Secondary 4000, auger 10, Reactor at 30º, reactor exit black bag. Large chimney. 
+Feedstock: Wood chips, leafy, fibrous eucalyptus pile (probably). Gabriella and Eymon were shoving the chips into the reactor manually.  
+Outcome: The hot test was a failure. The auger was unable to run without jamming and stopping on its own.   
+Notable Observations: 
+The auger ceased to run 7 times during the course of the hot test. Each time we would remove some of the biomass from the hopper and run the auger backwards to eliminate the jam.  
+The auger flights, specifically on the left side, were packed incredibly tight – Gabriella was unable to stuff more woodchips into this area and we suspect this is a potential contributor for the jams.  
+Yellow smoke was emitting from all the cracks in the reactor.  
+Reactor fire was quite hot, but had difficulty being maintained during some portions of the hot test.  
+Practically no biochar was collected at the end of the hot test. What was collected was ash.  Final weight: 6.85 kg 
+The auger is significantly warped – the gap between the new auger and the welded piece on the top auger is about 3 inches? The gap is significant. Perhaps auger warping happens quicker than we thought?  
+Next Steps: 
+Fixing the gap between the auger flights seems to be the most important next step. We could also potentially test a difference biomass to see how detrimental this gap is. It is surprising how much warping is caused over a very short period of time.  
+Picture Observations From Gabriella 
+    			Video  of the Jam 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 87 – 07/15/22 
+People: Austin, Shadi, Elliot, Yiyang 
+Hypothesis:  Use woodchips again to see if we can stop the consistent jamming.  
+Settings: Primary 2500, Secondary 4000, auger 6, Reactor at 30°, reactor exit black bag. Large chimney. Primary air at B10/B12.  
+Outcome:  Not good. Auger jammed about 7 times even before it was lit. There was lots of smoke coming from the body from the reactor. The char was well charred.  
+Notable Observations:  
+Auger jammed multiple times 
+Some noises coming from reactor after we would reverse the motor to stop jamming 
+Woodchips started pulling up like the rice hulls causing smoke from the chimney 
+Next Steps: 
+Look into making smaller woodchips to possibly prevent jamming. Or we should try to use different biomasses and restocks and avoid big woodchips. Also, we could lower the reactor angle to prevent the pilling of woodchips and rice hulls. 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 88 – 07/16/22 
+People: Austin, Vidyut, Yiyang, Kevin 
+Hypothesis: Wood chip jamming may be resolved if we move the primary blower position down.  
+Settings: Moved primary blower position down two notches, from B10/B12 to B4/B6. 
+Feedstock: Wood chips in the shed (eucalyptus mix collected from City of Berkeley) 
+Results: Conveyance was very slow initially, had to stop auger a few times for the reaction to “catch up”. Essentially the auger was stopped when white smoke started emerging from the chimney, combined with the loss of a visible flame visualized through the cracks at the chimney base (frequently replaced by smoke, and later on replaced by higher and higher biomass/char). Eventually, after maybe 1.5 h, the charred wood chips started piling up high below the chimney section, causing more frequent motor tripping. More white smoke started to appear both in chimney and hopper, eventually causing a hopper fire. Reactor had to be shut down at that point. We believe that the white smoke might have been caused by the fact that the channels for air flow were all blocked off by the piling wood chips below the chimney, which also causes more backflow through the hopper.  Throughout the whole process, the thermocouple readouts were anemic. Char output looked mixed, with parts not charred. Input flow rate approximately 50 kg/h, slowing over time. Output flow rate approximately 7.5 kg/h, averaging a yield of 15%. See: FeedingRateTemplate 20220716 
+Other observations:  
+Even though there was a hopper fire, no hot embers slid down to the hopper region as far as we could tell. 
+Very few ashes were emitted from the mega chimney.  
+Initially we attempted to keep the reaction zone halfway through S4. Later on the reaction zone advanced closer to the base of the chimney.  
+When visualized through the S6 port at the chimney, hot gases flowed in two directions: From the lower sector of the reactor, upwards as flame/smoke. From the upper sector of the reactor, downwards. This signifies that reaction persists well past the chimney region.  
+For the first half of the hot test, we ran on only one secondary blower as the other one (blower C) had command issues. After replacing the connections of blower C, it was put back into service for the latter half of the hot test.  
+Next steps: There are a few potential causes for the “accumulation” problem below the chimney -  
+Wood chips were incapable of maintaining a high head for hydrostatic pressure. To test this, we could use a more flowable material (e.g. rice hulls) and intentionally increase the hydrostatic head, to see whether the “accumulation” problem persists.  
+When the angle is high (30 deg) this causes char near the outlet to fall backwards. However, this wasn’t observed last summer in the various tests involving wood chips at 30 deg. To test this, we could lower the reactor to 15 deg.  
+The new auger compresses the wood chips near the chimney area when the pitch suddenly reduces from 12’’ to 6’’ more than the wood chips reduce in volume. However, this “accumulation” effect was also observed previously when the two auger segments were both 6’’, though Austin thinks that the fact that the 6’’ auger became very warped towards the end of it life could have contributed to char falling backwards through the cracks rather than being effectively conveyed forward. To test this, we would ultimately need a new 6’’ auger made, which would take 8-9 weeks. Another way to test this would be to run the reaction very hot, such that the volumetric reduction exceeds any compression effects. 
+Previously, we did not have problem with wood chips when the primary air inlets were circumferentially higher in the reactor body. The fact that starting in March 2022, we lowered the primary air inlets circumferentially to B10/B12 or B4/B6 may have caused the problem. One potential explanation might be that as the reaction progresses, more ash/char falls into the NPT pipe from the primary blowers, leading to constricted flow. Therefore, at the same RPM setting, the blower volumetric output actually reduces in time. To test this, we could reposition the primary blowers to a circumferentially higher position, such as S8, S9, or S10. 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 89 – 07/18/22 
+People: Shadi, Charu, Vidyut, Kevin 
+Hypothesis: Wood chip jamming may be resolved if we move the primary blower circumferentially up.  
+Settings: Moved primary blower position from B4/B6 to S4. Initially, we had wanted to move to S8 or S9. However, we could not get the stuck NPT ports open at either locations on opposing sides to make this work. Auger motor at 6 RPM, latter half at a set 50% duty cycle. Primary air higher initially, gradually reduced 2000 RPM, secondary air gradually increased to 7000 RPM.  30 deg inclination.   
+Feedstock: Wood chips in the shed (eucalyptus mix collected from City of Berkeley) - we consumed most of it and are almost out of feedstock.  
+Summary: After struggling initially with a reaction that ran too fast and too cold (smoky chimney and hopper), we brought it under control by reducing the auger speed to 50% duty cycle at 6 RPM, leading to a second hotter, less smoky steady state where the “accumulation” problem below the chimney did not occur.  
+Detailed Observations: Initially, the reaction ran very cold and the accumulation below the chimney seemed very high, comprising of mixed charred and uncharred wood. We had to repeatedly light the biomass, and even then, thick smoke came out of both the chimney and the hopper. It seemed that reaction was just starting underneath the chimney (which despite the smoke had a cold fire burning), reminiscent of the primary reaction zone rather than the secondary combustion chamber. However, the auger never jammed/tripped and was running very smoothly. However, the reactor was consuming A LOT (around 96 kg/h) of woodchips, and we were struggling to keep feeding it. Halfway through the test, we hypothesized that since the reactor was running cold, we could make it hotter and less smoky if we reduced the auger speed. This was achieved by turning the motor on (at 6 RPM, the minimum speed) 50% of the time (initially 2 minutes on, 2 minutes off, etc., then later 3 minutes on, 3 minutes off). Gradually, we noted an improvement in the reaction condition. The smoke in the chimney began to clear off, leading to a much hotter secondary reaction zone below the chimney. In that zone, the feedstock appeared to be well-charred, and the level of the feedstock reduced to at or below the auger flight level. The chimney smoke would sometimes return when feedstock was conveyed briefly. There was also some ash visualized from the chimney (and later on embers flew out from the crack above the base of the chimney). Interestingly, the hopper smoke also improved. Initially, there was a lot of hopper smoke and even some hopper fire, probably because the auger was moving biomass up so fast that we struggled to fill all the void within the screw auger in the hopper region. This, in combination with the more blocked air flow path towards the chimney (due to the more highly accumulated biomass initially), gave air a preferential route of escape through the hopper. Later on, we became more diligent in poking the hopper and ensuring that all voids were filled. Indeed, whenever we saw smoke from hopper, filling the void normally eliminated any further smoking. In the last section of the reaction, Vidyut filled the hopper to full height, and the hopper smoke was also eliminated. However, at this biomass height inside the hopper, we couldn’t poke to eliminate the voids as diligently (which didn’t matter, as the higher biomass height may well have provided the resistance needed for smoke not to come up the hopper). The auger jammed only once, as we were preparing to shut down the reactor.  
+Hopper smoke: addition to the void issue with fibrous biomass today, another factor that may have exacerbated the hopper smoke may have been the fact that today, the primary blower position at S4 was much higher up, with less resistance to flow towards the hopper. A nice compromise, if we could open the stuck NPT ports, would have been to test the primary blower at S8 or S9 (one notch circumferentially below, slightly below the horizontal). This may have to wait till Austin comes back to cut off the NPT plugs. Currently, we do have access to S10 for a future test, but our concern with testing wood chips on S10 is that it is further up towards the chimney axially, which means that we could have more jamming issues moving raw biomass into the reactor.  
+Variable pitch auger: Previously, we made the observation that the variable pitch below the chimney could have squeezed the feedstock there, causing the level to rise above the chimney. This is probably still true, but today, we achieved sufficiently significant volumetric reduction that the level of the feedstock below the chimney at the end was at or lower than the auger flight, allowing plenty of space for primary air from lower sections of the reactor to escape into the chimney. Given this observation, and given our previous comments, it is unlikely that the previously warped auger is the one and only cause for the “accumulation” problem. The main culprit still likely lies with that the primary air may be gradually choked up as the hot test progressed.  
+Feedrates and yields: The hot test really comprised of two sections, a faster section and a slower section. In the faster section, the char out was about 28.7 kg/h, and the biomass feed was about 96.1 kg/h, giving a yield of 29.8%. In the slower section, the char out was about 29.1 kg/h (paradoxically seems to be faster than the faster section), and the biomass feed was about 71.8 kg/h, giving a yield of 41%. A photo of the char is shown below. There is slight inhomogeneity, possibly due to the fact that the primary blower is positioned too circumferentially high up, resulting in hot gases not able to reach the bottom of the auger to sufficiently char the biomass there. One thing to test is whether the char quality will improve if we move the primary blower circumferentially one notch down, to S8, S9, or S10.  
+Analysis and Next Steps: Our hypothesis seems to have been supported by this experiment, that the “accumulation” problem below the chimney may have been caused by the fact that the primary blowers were positioned too low circumferentially. This means that over time, smaller particles could fill the long pipe leading from the primary blowers into the reactor, gradually throttling its volumetric flow output (at the same RPM), and causing the reaction to become colder over time. The hypothesis support comes from the observation that when we switched the primary blowers from B4/B6 to S4, we were able to control the “accumulation” problem and processed more than 200 kg of wood chips within 2.5 hours.  
+However, to definitively validate this hypothesis, we would need to repeat one of the previous hot tests (e.g. #88, 7/16/22) that did result in the “accumulated” biomass below the chimney, and while running the hot test, observe into the slanted pipe leading from the primary blower to the reactor input in order to visualize how ash/small particles are falling in and accumulating over time. If our hypothesis is correct, then we expect to see these small particles not accumulate immediately, but rather over the course of 1-2 hours. This may not be immediately possible to test with wood chips, given that we are low on stock.  
+Another direction to explore is to switch to rice husks (which we have some left), to try to see if the same setup as today would solve the “accumulation” issue described there. Given that rice husks are more flowable than wood chips, we could reasonably test it at S10, which is one notch above our regular B10/B12 position. We could possibly do another rice husk test at S4, but our potential concern with this horizontal location is that, based on past experience, the rice husk charring doesn’t seem to proceed too well, and sometimes a stable steady state cannot be reached when the primary air is injected horizontally into the reactor. Plus hopper smoke is more likely at S4.  
+A third thing we could test is that, if we repeat one of the previous hot tests (e.g. #88, 7/16/22) that xresult in the “accumulated” biomass below the chimney, but keep the primary air very high, is there a minimum flow rate at which, despite the growing blockage of the NPT tube leading into the reactor chamber, the primary blowers are still capable of delivering a minimum flow needed to stably maintain the reaction? This could be tested by ramping the primary air to 8700 RPM at B4/B6. However, this may not be a realistic experiment given the significant risk for exacerbated hopper smoke and fire.  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 90 – 07/19/22 
+Staff: Charu, Vidyut, Eymon 
+Biomass: Rice husk 
+Hypothesis to test: Circumferentially raising primary air blower position will prevent biomass from falling into the air ducting elbow and thus reduce pressure loss of air entering reactor. This will enable air to mix better within the biomass bed, devolatilize biomass more, and hence reduce the height of the biomass/char accumulating in the chimney. 
+Past observations with rice husks: Accumulation of char under the chimney and undercharring of final output 
+Initially selected parameters: Auger-6 rpm (50% duty cycle with 12 inch pitch auger), Primary air-3000 rpm, secondary air: 4000 rpm, angle of inclination: 30 degrees 
+High level summary: 
+Char was seen to accumulate in the chimney. The chimney seemed completely packed. This happened despite the air inlet ducts not being filled with char. 
+The auger kept jamming due to char accumulation at the chimney. This happened even when the biomass level in the hopper was low, which validated the jamming location. Increasing the secondaries to 8000 increased devolatilization and stopped the auger jamming. 
+Char was seen to fall back near the hopper. This was certainly seen to be the char that was accumulated in the chimney, but could also be char elsewhere. However, the rate of char fall back did not seem to compensate for the rate of accumulation in the chimney. 
+Output was highly undercharred. It is possible that the length of the hot zone was too short, leading to a lower residence time.  
+There was consistent smoke from the hopper today. This was certainly due to the char falling back as one could see that happening through the hopper and the open NPT coupling at the chimney. 
+Chimney emissions were clean 
+Positive pressure throughout reactor--even in chimney 
+Take-away:  
+Accumulation in the chimney in the case of rice husks is due to gravity, and aggravated by the smaller pitch of the variable pitch auger. This is not happening due to char accumulating in the air ducting (which was prevented from happening with a higher circumferential position of the primary blowers) 
+To investigate: 
+Does reducing angle of inclination to 15 degrees address issue of chimney build up, auger jamming and hopper smoke? 
+Does increasing primary air from 3000 to higher value lead to more severe and even charring? 
+Does bringing the primary air back towards hopper (but at same circumferential height), increase hot region residence time and hence devolatilize the biomass more before it reaches the chimney? This might help in volumetric reduction of biomass prior to it reaching the chimney. 
+Other: 
+Char completely filled up till the chute height. We have noted the weight of the scale value for rice husks at which the drum becomes full for next time. 
+With the help of neighbour's larger wrenches, all NPT couplings have been opened, apart from one (2nd from chimney, 2nd from lowest circumferential position, towards the side facing the shed) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test #91 – 07/20/22 
+Staff: Elliot, Vidyut, Eymon, Bernard 
+Biomass: Rice husk 
+Objective: Achieve uniform charring, prevent auger tripping 
+Hypothesis to test:  A lower rpm (duty cycle) will increase residence times and hence will lead to more even charring 
+Constraint: We were not solving for the smoke coming out of the hopper as that is a function of the reactor angle of inclination wrt the ground---due to time constraints, we could not change this. Unlike test on 07/19/2022, we persisted with 50% duty cycle of auger at 6 rpm even when there is smoke coming out from hopper. 
+Initially selected parameters: Auger-6 rpm (50% duty cycle with 12 inch pitch auger), Primary air-3000 rpm, secondary air: 4000 rpm, angle of inclination: 30 degrees  
+Primary air blower position: S10  
+Secondary air blower position: T3 and T5  
+High level summary: 
+Char did not accumulate in the chimney to the same extent as previous tests. As a result, the auger did not trip once the initial batch of wood chips (igniting biomass) was pushed through.  
+Evenly charred output achieved 
+There was consistent smoke from the hopper. This was certainly due to the char falling back due to the angle of inclination of the reactor. 
+Chimney emissions were mostly clean, though there was consistent ember emission. This could be due to the higher pile of char under chimney which is then blown off directly by the secondaries. This did not significantly come down even after reducing secondaries to 4000. 
+Negative pressure was seen in chimney as desired. 
+Take-away:  
+A lower duty cycle of auger solves for uneven charring. It also solved for char accumulating in chimney and stalling the auger as it reduced the rate at which biomass is drawn into the system. 
+Pathways of investigation: 
+Does reducing angle of inclination to 15 degrees address issue of chimney build up, auger jamming and hopper smoke? 
+For a &gt;50% duty cycle, does increasing primary air from 3000 to higher value lead to more severe and even charring? (for the same blower position) 
+Does bringing the primary air back towards hopper (but at same circumferential height),increase hot region residence time and hence devolatilize the biomass more before it reaches the chimney? This might help in volumetric reduction of biomass prior to it reaching the chimney. (to be done once NPT coupling is detached) 
+Other: 
+We were unable to open the stuck NPT couplings (S9 and S8) even with longer wrenches. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 92 – 07/21/22 
+Staff: Elliot, Vidyut, Charu, Bernard 
+Biomass: Rice husk 
+Objective: Achieve uniform charring, prevent auger tripping 
+Hypothesis to test:  Increasing primary blower rpm from 3000 to 6000, while keeping auger at 100% duty cycle at 6 rpm will lead to even charring 
+Constraint: We were not solving for the smoke coming out of the hopper as that is a function of the reactor angle of inclination wrt the ground---due to time constraints, we could not change this.  
+Initially selected parameters: Auger-6 rpm (100% duty cycle with 12 inch pitch auger), Primary air-6000 rpm, secondary air: 4000 rpm, angle of inclination: 30 degrees  
+Primary air blower position: S10  
+Secondary air blower position: T3 and T5  
+High level summary: 
+Char did not accumulate in the chimney to the same extent as previous tests. As a result, the auger did not trip at all. Infact, the a very strong flame was seen within the chimney throughout the test.  
+Evenly charred output achieved-- this seemed to be even more homogenuous as compared to test done on 20 July 2022 (auger speed reduced to 50% duty cycle) 
+Smoke from hopper was reduced by piling biomass higher 
+Chimney emissions were mostly clean, though there was consistent ember emission. This could be due to the higher pile of char under chimney which is then blown off directly by the secondaries. This did not significantly come down even after reducing secondaries to 4000. 
+Negative pressure was seen in chimney as desired. 
+Take-away:  
+A higher primary air value solves for uneven charring and char accumulation in chimney (and hence prevents auger motor tripping too) 
+Pathways of investigation: 
+Does reducing angle of inclination to 15 degrees address issue of chimney build up, auger jamming and hopper smoke? 
+Does bringing the primary air back towards hopper (but at same circumferential height),increase hot region residence time and hence devolatilize the biomass more before it reaches the chimney? This might help in volumetric reduction of biomass prior to it reaching the chimney. (to be done once NPT coupling is detached) 
+Other: 
+We were unable to open the stuck NPT couplings (S9 and S8) even with longer wrenches. 
+Rice husks have been completely utilized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot test #93 – 08/26/22 
+Staff: Austin, Troy 
+Biomass: Woodchips from bags in the shed, probably city of Berkeley source 
+Hypothesis: Hopper with larger lower opening will eliminate bridging. 
+Primary air blower position: S10  
+Secondary air blower position: T3 and T5 
+Outcome: 
+The reactor jammed during the lighting phase and we were not able to unjam it. There was an unusual occurrence where the breaker would seem to trip and stop the motor, but without the breaker flipping to the 'off’ position. Switching the breaker off and back on restarted the motor, but it would only run for about a second or two before jamming again. The other unusual observation was that there was a high pitched whine for half a second before the motor would stop. It seems like this was the sound of something being overloaded, but it’s unclear what. 
+On the upside, there was no bridging in the new hopper, but we also didn’t really get a chance to fill it very full. 
+Next steps: 
+Investigate why the breaker is no longer tripping fully. 
+See if the auger to body interference can be fixed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 94 – 09/01/22 
+People: Yiyang, Camila, Troy, Kevin (with Austin starting the hot test) 
+Hypothesis:  
+Compared to 7/18/22, we enlarged the hopper and hypothesize that this will address the bridging issue. 
+Compared to 8/26/22, we moved the primary air blowers from S10 axially down and circumferentially up to the S4 position, and hypothesize that this will reduce the jamming issue. 
+Settings: Primary blower position at S4. Primary air setpoint at 3000 initially, secondary air at 5000. Megachimney was used, without any mesh at the top.  
+Feedstock: Wood chips in the shed – we had a mix of different types fed into the reactor as we went, some chunky, some fibrous, some eucalyptus, and some newly collected by Eymon/Elliot in August from Berkeley.  
+Summary:  
+Compared to 7/18/22, bridging still persists. Next step: lower to 15 deg and see if bridging improves. 
+Compared to 8/26/22, auger jamming was initially an issue, but resolved itself once the reactor got hot. We just have to be more patient.  
+Detailed Observations: 
+Lighting was easy. Once lit, we had a strong fire going when viewed through S10 and the cracks at the base of the chimney. Chimney stayed clean throughout.  
+Jamming: Initially when we fed the chunky wood chips in cold flow prior to lighting the reactor, no jamming was observed. After the reactor was lit for a while (15-20 minutes, or 5-10 minutes after actually starting the auger), severe jamming occurred in both directions, of the non-tripping type described on 8/26/22. No jamming was visually observed at the inlet; we suspect jamming higher up in the reactor zone, possibly at the transition above the chimney where the reactor cross-section transitioned from rectangular to circular. Topping the hopper with more wood chips (to increase the hydrostatic pressure) didn’t help. Waiting a while did help (until around 11:40). After that, the reactor seemed to run smoothly, at 6 RPM, 50% duty cycle (2-min off, 2-min on). Jamming was often accompanied by grinding sound, or auger moving in sporadic jumps (not a smooth motion).  
+Hopper smoke/fire: After an initial long period when the auger was stuck, we suspect that the fire from S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire and/or start smoking. We attempted to address this by idling the primary/secondary air and/or lowering it to 2000/2000, which did seem to help with smoke mitigation, though the smoke/fire returned as soon as we increased the blower RPM. We also observed, in the latter stage of the hot test, through the crack at the base of the chimney, both fire and char being conveyed. This implies that the solid level at the chimney position was very high, and could have blocked the passage of primary air towards the chimney, further exacerbating the hopper smoke/fire issue. We should have investigated this further by opening/checking the ports S1 and S6.  
+We decided to shut down the hot test prematurely (prior to steady state) as we were running low on wood chips and wanted to save some for a 15 deg test.  
+Rates and yield: Input feed rate was about 41 kg/h. Output rate was about 33 kg/h, implying a mass yield of 80% which looks wrong. We need to double check the output rate. Furthermore, the scale logging seems to have a wavy feature which may mean that it is not working properly:  
+Here is the input feed rate graph: 
+This is the char we obtained today. As we dug a bit deeper, some parts were undercharred (brownish), around 60-80% charred.  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 95 – 09/02/22 
+People: Camila, Troy, Kevin (with Austin starting the hot test) 
+Hypothesis: Compared to 7/20/22, if we lower from 30 deg to 15 deg, we can stop the hopper smoke/fire.  
+Settings: Primary blower position at S10. Primary air setpoint at 3000 initially, secondary air at 4000. Megachimney was used, without any mesh at the top.  
+Feedstock: Rice hulls 
+Summary:  
+Hopper fire/smoke persisted. We really need to eliminate the variable pitch when it comes to rice husks which are not very compressible nor reduce in volume when charred. 
+Detailed Observations: 
+After lighting, the char level below the chimney stayed persistently high. We tried to address it by pausing the auger or by inserting a rod into the reaction zone through S1 to clear some path for airflow, but to no avail. We tried increasing primary air to increase reaction severity, but all this served was to worsen the smoke from the hopper (or from the cracks below the hopper). The hopper had to be kept very full to minimize air flow in that direction.  
+Given that we had a much smaller oil drum this time, it quickly became full but we were unaware of it. The reactor probably ran for around 20-30 minutes with the oil drum full.  
+Inputs and Outputs: Input feed rate was around 33 kg/h. Superficially, the char looked incompletely charred b/c the top layer is from after shutting down the reactor; if we dug deeper, we saw pretty well charred consistency, around 90-100%.  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 96 – 09/04/22 
+People: Camila, Yiyang, Kevin  
+Hypothesis: Compared to 9/1/22,  
+Settings: Primary blower position at S4. Primary air setpoint at 3000 initially, secondary air at 5000. Megachimney was used, without any mesh at the top.  
+Feedstock: Wood chips 
+Summary: Smoke from hopper persisted. We changed the primary blower position to S5, to no avail. Changing the primary blower position to S6 seems to significantly improve the hopper smoke condition, but at the expense of worsened chimney ash. Moving the primary blower to S10 caused hopper smoke to resume. We ran out of dry wood chips at this point.  
+Detailed Observations: 
+This hot test we made sure the hopper was fully covered to avoid any air flow coming in through there. Still smoke persisted to appear. Changing the primary’s position helped bu wet must find a way to avoid getting ash. (Maybe lowering blowers rpm. Must make sure if we do so to not get underchar results) 
+No jamming occurred. 
+We also visualized the various ports. Through S1, we saw vigorous combustion. The solid level was quite high but wasn’t over the top. Through S4, S5, and S10, depending on the position of the primary blower, these were inert charred or flaming char. See photo below for a visualization through S1.  
+We stopped the experiment as we were running short on dry wood chips, and we learnt as much as we could.  
+During the test today, right S3 did not have an NPT plug but was rather taped over with aluminum tape. This could also have exacerbated the smoke in the lower axial position close to the hopper.  
+Inputs and Outputs: 69.1 kg/h input.  
+It doesn’t look like our output scale is working. We also changed drum after we shut the reaction down (around t = 11.4) but we don’t see this registered as a sensible signal below.  
+Compared to the hot test of 9/3/2022 with rice hulls, the results has higher percentage of biochar  (approx 70%) 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 97 – 09/23/22 
+People: Camila, Austin, Kanages 
+Hypothesis: Expecting a smooth hot test since the wood chips are small and dry. 
+Settings: Primary blower position at S10. Primary air setpoint at 3500 rpm initially, secondary air at 3500 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup. 
+Feedstock: Pine tree from Anahim Lake, Canada wood chips. The original residue source mainly from lodgepole pine looks like this: 
+Summary: After making sure all electrical components were working and setting up the prototype with the newly refurbished six inch pitch auger, we ran our first hot test in interior BC.  Overall, the hot test ran smoothly with no ash nor ember coming out of the chimney. Recurrent issue was pieces of burning wood going back to the hopper.  Hot test ended prematurely due to the fire in the hopper. Weather conditions varied from sunny to rainy throughout the process. 
+Detailed Observations: 
+We aimed to keep the hopper full throughout the hot test, but seem to fail in doing so. 
+No jamming occurred. Auger made some noises and shuttered with the woodchips but it continued to run. 
+We saw good flames inside the reactor from the time we started it till the end. We lit the fire and let it heat up for quite a while. 
+Picture demonstrates temperature kept on going up until all the chips ran through the reactor. Also demonstrates no steady state was achieved. 
+Inserting image... 
+Picture demonstrates burning woodchips at the hopper and air holes. 
+Biochar recorded was a total of 12 kg. Looks well char. 
+Input rate: 45.1 kg/h 
+. 
+Suggestions: 
+For next time we should start moving the auger more quickly after lighting the fire. Potentially primaries can be reduced as we are working with very dry biomass. Also make sure to fill the hopper to avoid chips being low and potential air holes causing reaction to move back. 
+Likewise, we could also reduce the angle to help the reaction move forward. 
+For next time observe the impact of lowering the speed of the blower on the final result of biochar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 98 – 09/24/22 
+People: Camila, Austin, Kanages 
+Hypothesis: Compared to 09/23/22, if we reduce lighting time and primary blower, we can stop the hopper smoke/fire 
+Settings: Primary blower position at S10. Primary air setpoint at 3000 rpm initially, secondary air at 3000 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary: At the start of the hot test it seemed to be running smoothly by reducing lighting time and the primary blower. Then we noticed black smoke in the chimney and reduced primary blower speed from 2500 rpm to 2000 rpm to have less air. Problem we encountered was the periodic appearance of smoke in the hopper  and surrounding cracks in reaction zone, not allowing for steady state configurations.  
+Detailed Observations:  
+We aimed to keep the hopper full throughout the hot test, and properly made sure to avoid any air holes.   
+Auger is definitely running smoothly as no issue arised throughout. 
+Strong flames were obtained  but there is a flow of chips which end up not being charred. (Mixing problem) 
+Picture demonstrating ongoing issue with the fumes. 
+Picture shows flames achieved.  
+Picture demonstrates temperature “steady state” was obtained once heated up.   
+Picture demonstrates no complete char was achieved which might indicate that incomplete combustion occurred maybe due to all the changes in the settings. No steady state was achieved with the parameters. 
+Biochar recorded was a total of 19.80 kg. Looks partially char/ under char. 
+Suggestions:  
+For next time we should aim to find a balance between having it too hot and having black smoke from the chimney or too cold and having white smoke from the hopper. To do so as a team, analyzing possible scenarios on why this was happening 
+We could move the blowers up  
+We could decrease the angle of the prototype 
+We could increase secondary blowers speed to increase secondary combustion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 99 – 09/26/22  
+People: Camila, Austin, Kanages, Kevin 
+Hypothesis: Increased secondary air to address black smoke issue; moved one of the blowers up one notch circumferentially to address hopper white smoke issue 
+Settings: Primary blower position at S5 on the right side. On the left side, the viewing port NPT plug remained stuck at S10 and could not be loosened until the very end; therefore for this hot test, primary blower on the left side remained at S10. At the end of the experiment, we realized that primary and secondary blower wires on the right side (enclosure side) were switched. Primary air setpoint at 3000 rpm during start-up, reducing to 2500 and then 2200 rpm. Secondary air remained at 4000 rpm throughout. Mega chimney was used, without any mesh at the top. Newly refurbished six inch pitch auger. Prototype at 35 angle setup. 
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary: Reactor ran very hot throughout. White ash, while not visible against a white wall, was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were seen from the chimney occasionally (possibly more on the right side), resulting in gradual reduction of primary air in response. However, the primary and secondary air blowers were switched on the right-hand side, resulting in inconclusive outcome. There was still white smoke emerging from the cracks close to the hopper as well as through the hopper. We suspected that frequent poking into the hopper to avoid voidage may have helped with the smoke.  
+Detailed Observations: Some parts of the wood chip pile were more palpably wet, especially inside. 
+Flow Rates: By cumulative output (28.1 kg) and input (92.5 kg), the mass yield is about 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield is about 12%. The output mass scale is exhibiting the same weird undulating behavior, and we’re not sure if we trust the readout for the output mass flow. 
+Input feed rate graph:  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 100 – 09/27/22  
+People: Camila, Austin, Kanages and Kevin 
+Hypothesis: By correcting the wiring for primary/secondary blowers and making sure to agitate the hopper we should be able to run the hot test smoothly without any smoke. 
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5 (see below for rationale). Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4500 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary:  Today’s hot test had a slow start due to position of lighting up, after moving the primary blower position back to S10 enhancing the combustion. Then black smoke was observed from the chimney trying to identify if it was caused periodically. Meanwhile changing primary blower to 2500 rpm. This seemed to have helped but white smoke appeared at the hopper. We realized that white smoke was not so much due to voidage below the hopper region, but due to the biomass/biochar accumulating below the chimney level leading to blockage of flow channels towards the chimney, just like previously with variable pitch auger. We therefore decided to implement the following response: First, whenever white smoke arose, we cut both primary and secondary to 1300 to minimize positive pressure, thereby minimizing the outward smoke. Then, because the blowers were at idle, we stopped the auger temporarily. Then, we decided to implement an interval system of 3 minutes on running auger at 6, primary at 2000, secondary 3000 rpm and 3 minutes off auger at 0, primary and secondary at 1300 rpm. This intermediate system seemed to cool down the process a lot so we decided to do 3 minutes on and 1 minute off.  
+Detailed Observations:  
+After the slow lighting, fire got strength and some ember could be seen within the ports. (See picture below) 
+Picture demonstrates not properly combustion going on. 
+We were very aware of the hopper and poking often to avoid bridging. Auger tripped and motor stopped working. This made us cautious and conscious of the importance of a balance act. 
+We recorded a total of 27.45 kg of char. Biochar was not fully charred at the top. However, a subsequent picture showing a spread of biochar from start to finish shows the middle section as well charred. The end section was less well charred due to possible mixing with uncharred wood chips being conveyed out.   
+Suggestions: 
+To achieve a steady hot test for tomorrow’s demo we plan on working as a team, each having a specific role. Conducting a interval system, poking the hopper to avoid bridging and aiming for steady state temperature for fully charred charr. We aim to not have much black nor white smoke throughout the test. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
+People: Camila, Austin, Kanages and Kevin 
+Hypothesis: No hypothesis. The aim is to replicate yesterday’s strategy in order to orchestrate a smokeless public demo for a few hours in front of a crowd.  
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5 (see yesterday’s writeup for rationale). Primary at 2500 rpm (reducing to 2300 due to black smoke) and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup. Implemented a system of turning to idle every time some smoke appeared in the hopper. By doing so a steady state temperature curve “plateau” was achieved and the hot test ran smoothly for four hours. 
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary: We were able to run stably for 3 hours, with active control of the process to minimize white smoke (and to a lesser extent, black smoke) by implementing a system of turning to idle every time some smoke appeared in the hopper. The char outlet material caught on fire (probably the resin of the metallic tape) at the end, which we will need to fix for tomorrow.  
+Let’s do some statistics of the start/stop intervals – what are the averages? Plot these intervals 
+ON/OFF RATIO 
+Above the average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12 
+Above the average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82 
+Detailed Observations:  
+Feedrates: About 55.38 kg/hr for the input, 10.48 kg/or for the output, resulting in a yield of 18.9%. By accumulation, we fed 203.8 kg of input, getting 41.0 kg of output, resulting in a yield of 20.1%.  
+Upon changing the first full drum (during steady state), the char looks well done:  
+Next Steps: 
+A hypothesis could be done on the impact of hopper-poking on white smoke from the hopper. Our initial hypothesis seemed to be that the white smoke from the hopper may arise due to increasing voidage as the biomass bridges over the hopper, which hopper-poking can resolve. However, our newer observation seems to suggest that the white smoke may be better attributed to the blockage of flow path in the region below the chimney.  One way to test this is to stop hopper-poking, and observe the difference there is on hopper white smoke, which can be measured by the statistics of auger on and auger off time intervals.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 102 (Alkali Lake) – 10/05/22 
+People: Camila, Austin and Kanages 
+Hypothesis: The test with chips from Williams Lake will run smoothly and the new chute for the char will work adequately. 
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:  	 
+In today’s hot test, we ran into a lot of inconveniences. The bolt mounting the motor bracket to the body came undone,12 V power supply dismantled, PLC was not reliably connected to the computer having hard time for it to stay connected. Other than that hot test was shut down due to reaction descending into hopper. Biochar collection system put in place by the chute worked smoothly. 
+Detailed Observations:  
+We took to long while lighting which made the fire descend and reaction go back to auger. 
+Picture demonstrates temperatures got hot enough yet no steady state temperature was achieved. 
+Biochar output was quite under char. A total of around 20,22 kg of output. 
+The chute did not light on fire, which proved the hypothesis of the new chute working adequately. 
+Chips used are quite dry, dusty and fluffy which burn faster and hotter 
+Suggestions: 
+Conditions and chips used today are different from those in Anahim Lake, which must be taken into consideration for the setup to obtain a steady state hot test. For next hot test we aim to be quicker when lighting the fire, as well as implementing interval system based on analysis previously done 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 103– 10/6/22  
+People: Camila, Austin and Kanages 
+Hypothesis: By shortening the time between lighting and re starting the auger, we can prevent the flame front from descending to the bottom of the reactor. 
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+Today’s hot test provided better quality char, in terms of output. Outcome still looks not fully charred. The fire under the hopper did not seem to disappear, it did seem to improve with poking. 
+Detailed Observations: 
+It was a less windy day compared to previous hot test 
+We ran the primary's at idle for quite a while 
+When increased primary, turned smoke from the charring zone into flame. 
+We managed to get high temperatures, yet no steady state ‘plateau’. 
+An approximate result of 40 kilos of biochar. 
+Input and Output 
+Input of 112.8 kg 
+Input feed rate 
+Suggestions: 
+Air seal as much of the reactors we can to control smoldering where we don’t want it. 
+Possibilities for next hot test 
+Start the hot test with the denser chips from Anahim lake 
+Test out on a different angle  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 104– 10/7/22  
+People: Camila and Austin 
+Hypothesis: By putting both primary blowers to S5 position and taping the airholes in the hopper, we can eliminate excessive flames front from descending to the bottom of the reactor. 
+Settings: Primary blowers at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+Today’s hot test provided information on the setup we want to use for the demo. After lighting, setting at 2200 rpm (primary) and 3000 rpm (secondary) was used and reactor seemed to operate smoothly with minor smokes. After running smoothly at 2200 for over an hour, we wanted to try a different blower setting to see if it would still run smoothly. When running at 1700 rpm (primary) and 3000 rpm (secondary) back flow seemed to happen and greater smoke came out of the hopper. Resulting biochar seemed char, yet could be bottom part flowing through the reactor did not get fully charred. 
+Detailed Observations:  
+Aluminum tape covering any possible airholes. 
+A piece of Aluminum tape in the inside of the hopper seemed to loosen up, and smoke rose. 
+After lighting and in running conditions seems to be operating smoothly. Temperature logging showing a steady state balance. 
+The peak of T5 was when running primary at 1700 rpm and we wanted to increase the temperature in order to char the chips. 
+Input 
+Input of 110.2 kg 
+Input feed rate 
+Output 
+At 2,200 primary/3,000 secondary, char was of reasonable consistency. At 1,700 primary/3,000 secondary, char was less consistent, comprising both black char as well as medium brownish/torefied char.  
+Suggestions: 
+For the demo day  on October 10-11, 2022 we suggest we run with these settings as it seems most appropriate for William's Lake chips to run smoothly through the reactor. The aim is to find the balance between a “nonsmokey” in hopper hot test and obtaining fully charred results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 105 – 10/10/22  
+People: Camila, Austin, Kanages, Kevin, and Marian 
+Hypothesis: Replication of hot test #104 for Esket demo day 1 
+Settings: Primary blowers at S5. Primary 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups. Today was extraordinarily windy, with gusts from the south.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary: Hot test was uneventful for the most part. Initially we thought hopper smoke, which emerged in the latter part of the test, could be resolved by vigorous poking at the hopper bed. However, we found strong correlation between wind gusts and hopper smoke, suggesting an air-curtaining effect. To resolve this, we need a cowling on top of the chimney. Fire/char undernearth hopper was not observed, until the very end when the hopper was running empty.  
+Detailed Observations:  
+Feedstock flowability: Unlike the Anahim Lake wood chips, the Alkali Lake wood chips seem to be less flowable, in the sense that there is more resistance to poking with a wooden stick. However, even without frequent vigorous poking, the bridges tend to gradually collapse as the auger moves forward. The question is whether this level of bridging is sufficiently severe to instigate backflow/hopper smoke.  
+Origination of flammable volatiles: Unlike the Anahim Lake tests where the flames seem to flow equally from below and above the chimney, suggesting an extended devolatilization zone, in this test, most of the flames, especially at the beginning, came primarily from below the chimney. However, we saw at and above chimney level, biochar still emitting white smoke, suggesting that devolatilization was not yet complete at this point.  
+Biochar level: As viewed from S1 on the right-hand side (north side away from the wind), biochar level right below the chimney on the right-hand side is as high and sometimes potentially even higher than the auger flights, which could have created the blockage leading to backflow. However, there was a consistent flow on the right side probably from the extra cross-sectional area of the rectangular profile. On the left-hand side, on the other hand, biochar level is consistently low, and the channel was never blocked, with always a flame visible.  
+Pressure level: For the most part, S1 sucks air in (negative pressure). However, there were occasions where the port spits out flames and embers, possibly due to air-curtaining effect of wind gusts.  
+Today, the hopper smoke was never really persistent. It comes and goes with wind and potentially blockage (which we cannot absolutely be certain about).  
+Input 
+Output: The char shown in the photo below starts at the second row from the front, right-hand side, proceed 
+Next Steps: We are somewhat skeptical about the efficacy of rigorous poking (which is a physically tiring activity) on reducing hopper smoke. Tomorrow we could try the same again but with slightly less rigorous poking. From our experience, in a bridged area, the bridge should collapse with mild poking. If poking requires significant force, then the area underneath is probably already mostly filled.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 106 – 10/11/22  
+People: Camila, Austin, Kanages, Kevin, and Marian 
+Hypothesis: Replication of hot test #104 for Esket demo day 2 
+Settings: Primary blower at S5 on the right and S10 on the left. We moved the left side primary from S5 to S10 to see if we could undo some of the left-hand side hopper smoke we observed yesterday. Primary 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary: Performed well most of the time. About 1-2 hours into the test, we started seeing hopper smoke which we tried to mitigate with vigorous poking, or with idling the air/stopping the auger temporarily, or both. Neither seemed to have significant effect. Moving the left-shde primary from S5 to S10 didn’t seem to help a whole lot.  
+The char in the first drum looks relatively well done.  
+The photo below illustrates the char when spread on the ground. The first drum started from the bottom-right and proceeded to the top-left. Then we overlaid the second drum directly above the starting point of the first drum in one large pile.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 107 10/13/22  
+People: Camila, Austin, Qiangqiang, Ghazaleh. 
+Hypothesis: By putting both primary blowers at S10, we are expecting there to be less back flow. 
+Settings: Primary blowers at S10. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+Today’s hot test operated without major poking, there was a few jams with the motor but the lighting process ran smoothly. The temperatures rose to very high temperature in a “sort of quick” manner, which might have to do with minimum poking. Presence of smoke in the hopper was rarely seen maybe due to the position of the primary blowers. After a while we did see amber and presence of a bit of smoke. Predict over charred results due to such high temperatures 
+Detailed Observations: 
+Smoke coming out of the outflow collar 
+Temperature plot demonstrates temperature reached a “plateau”. Today’s test reached very high temperatures.  
+While looking at the temperature profile above, we predicted biochar will be over-charred. However, when we took at the biochar actually, we found them to be actually unevenly charred despite being very hot: 
+Suggestions: 
+Be attentive throughout the whole process on the hopper. 
+Adjust blowers in response to very high temperature. Maybe try 2000 rpm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 108 11/12/22  
+People: Hope, Troy, Austin. 
+Hypothesis: Pretesting reactor for public demo on 11/14 
+Settings: Primary blowers at S10. Primary and secondary air set at 3000 rpm for lighting. Then primary was lowered to 2200 rpm and secondary was left at 3000 rpm. Auger was run at 6 rpm. Mega chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 35 angle setup. New 24V power supply. 
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+The purpose of the test was to see if the newly installed power supply was working, and to determine if the colder ambient temps would require changes to the operation. Overall the test went very smoothly, though we ended up shutting down before a steady state was reached to conserve our chips. 
+Detailed Observations: 
+The reactor was perhaps a tiny bit slower to light, but not enough to drastically change the lighting procedure. The procedure followed was to stop the auger, light with charcoal lighter fluid, wait 2-3 minutes, run the auger for 1 minute, then stopping the auger for another 5 minutes before starting at operating speed (6 rpm). Nine minutes after that the primaries were lowered to 2200, which was the only change versus previous tests, where the primaries were lowered when the auger was started. 
+Because the test was so short, there are not many conclusions to be drawn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 109 11/14/22  
+People: Hope, Troy, Austin Kevin 
+Hypothesis: Demo day! 
+Settings: Primary blowers at S10. Primary and secondary air set at 3000, then 4000 rpm for lighting. Then primary was lowered to 2200 rpm and secondary was left at 3000 rpm. Auger was run at 6 rpm. Mega chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 35 angle setup. New 24V power supply. 
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+The test went much less smoothly than the previous test. The two major issues were the reactor not seeming to light properly on the first attempt, and later the auger stopped in an apparent “ghost trip” situation where power stopped flowing to the motor, but the breaker never tripped. 
+Detailed Observations: 
+It was quite cold on the day of the test which seems to have slowed down the lighting phase. The reactor was lit following the same procedure as the previous test, but when the auger was run after 8 minutes there was not a sustained flame in the main reaction zone. After a couple minutes no flames were visible through the side port, so lighter fluid was added to restart the reaction. It turned out that was all that was required, as there was enough flame higher up in the reactor to ignite the newly introduced lighter fluid. We then let it sit for another 11 minutes, and upped the primaries to 4000, to give the reaction time to establish. From there it seemed things were progressing as planned, but about 15 minutes later the auger motor unexpectedly stopped. The breaker did not seem to be tripped, and cycling the breaker, as well as re-enabling the motor in Codesys did not fix the problem. None of the wires nor the motor controller were hot. Finally, after 10-15 minutes the breaker was cycled one more time, and the auger started moving. Overall a very confusing condition. We ran for another 40 minutes or so before shutting things down. 
+Suggestions: 
+My (Austin) suspicion is that the breaker might be worn out, and not tripping properly in an overcurrent situation. I suggest we replace the motor breaker and see if it solves the “ghost tripping” problem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 110 02/01/23 
+People: Kevin, Camila, Dylan, Rod and Jeff 
+Hypothesis: UBC test with new team member. Not considered a set up baseline since Blower C and D are not being controlled and issues with thermocouple readings. 
+Settings: Primary blowers at S10. Blowers set at 3000 rpm throughout the hot test.   Auger was run at 6 rpm. Small chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 30 angle setup, small barrel. 
+**Secondary Blowers C and D are not controlled. Currently going at around 8000 rpm and Blower D is not reading in Codesys. 
+Scale readings seem off. 
+Feedstock: Woodchips from Cloverdale 
+Summary:  Today’s hot tests purpose was to demonstrate the procedure on how to run the reactor. We lit the chips from S9 which might have influenced in the amount of smoke in the hopper. Likewise we had the ports open to visualize all the steps and this caused negative pressure. Testing around one can see that running primary blowers higher generates positive pressure through the open ports.  The short hot test ran pretty smoothly with around 24.654 kg/h being fed. 
+We observed that there is a tradeoff between mechanical conveyance difficulty and hopper fire. The experiment ended when the hopper was on fire (as well as the fact that we don’t have that much Cloverdale wood chips to go around with). But in general the pressure was negative throughout, including in the hopper.  
+Input feed rate 
+Output feed rate 
+The output weight was jumping back and forth between 1 and 2. After switching the barrel we identified the scale is indeed not working properly and require further troubleshooting. 
+Although small input, output seems to be well-charred. 
+Suggestions: Moving forward we have work to do troubleshooting the blowers, scale and thermocouples. By working on these areas we can move forward and run a hot test as a baseline for variable pitch auger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 111 02/02/23 
+People: Kevin, Rod, Camila and Dylan 
+Hypothesis: Run reactor at lower angle (15°) to test whether the auger will jam less, more or the same as Hot Test #110 
+Settings: Primary blowers at S10. 6in pitch auger used, running at 6rpm. Small chimney mounted with no mesh. Prototype set up at 15° with small barrel being used.  
+Scale fixed since yesterday’s test 
+Blower C is controlled. 
+Feedstock: Cloverdale woodchips 
+Summary: The purpose of today's hot test was to run the reactor in similar conditions as #110 but with the reactor at 15°. The intent was to see if the auger would jam less and to see if it was less likely to have a fire in the hopper. Although it appeared that there was less fire in the hopper, we were pushing down the woodchips more regularly which could have been a factor as well. Less scraping between the auger and the base of the reactor was heard. However, lots of woodchips were getting stuck and the motor breaker tripped multiple times. This did not occur in yesterday's test. 
+Flames could be seen at the top of the chimney. Blower rpm was increased to counteract this. </t>
   </si>
 </sst>
 </file>
@@ -450,18 +1267,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7C9922-3EFB-7B4B-922F-8D7969C04B0B}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="209.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,15 +1289,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
@@ -488,7 +1308,402 @@
         <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>97</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>101</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>103</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>108</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>110</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>111</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Hot_Tests.xlsx
+++ b/Hot_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihaowang/PycharmProjects/Takachar/Takachar-GPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CC39B-35C1-0C4A-9802-4FEAEAD70650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947610C6-3A7C-9742-B295-90185E661E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="79">
   <si>
     <t>Hot Test</t>
   </si>
   <si>
     <t>Hot Test Text</t>
+  </si>
+  <si>
+    <t>Smoke / No Smoke</t>
+  </si>
+  <si>
+    <t>Trip / No Trip</t>
+  </si>
+  <si>
+    <t>Steady State Achieved or Not</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 61- 3/31/22  
@@ -42,7 +51,10 @@
 Input feedrate was about 37.4 kg/h.  </t>
   </si>
   <si>
-    <t>Example Hot Test: 1</t>
+    <t>Example Answer: 1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 62- 4/1/22  
@@ -74,7 +86,10 @@
  </t>
   </si>
   <si>
-    <t>Smoke / No Smoke</t>
+    <t>Based on the provided information, the answer for the hot test would be N/A (Not enough information).</t>
+  </si>
+  <si>
+    <t>Example Answer: 0</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 63- 4/2/22  
@@ -140,6 +155,15 @@
  </t>
   </si>
   <si>
+    <t>Example Answer: N/A</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 66 - 4/7/22  
 Personnel: Austin and Timothy 
 Objective: 
@@ -245,6 +269,9 @@
  </t>
   </si>
   <si>
+    <t>Example Hot Test: 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 73 - 4/27/22 
 Personnel: Austin and Kevin 
 Hypothesis: Given our hypothesis that the clogged chimney mesh caused the hopper smoke, we removed the chimney mesh and conducted the same hot test. Primary blowers were at the same topmost (B10/B12) positions. Reactor profile was rectangular. 
@@ -274,6 +301,21 @@
 </t>
   </si>
   <si>
+    <t>Example Answer: 
+Hot Test #74 - 5/4/22: 1 (smoke)</t>
+  </si>
+  <si>
+    <t>Hot Test #74 - 5/4/22: 1</t>
+  </si>
+  <si>
+    <t>Hot Test #74 - 5/4/22
+Outcome: 0 (no smoke)
+Notable observations:
+- Woodchips: The wood chips used as fuel did not flow easily or compact enough, leading to air pockets and sparse area coverage. This resulted in a lack of fuel and allowed smoke to escape easily.
+- Smoke: During the ignition process, smoke from the hopper was white, while smoke from the chimney was a greenish brown to black color. Increasing the secondary blowers helped reduce the smoke, but it did not completely stop until rice hulls were added to the reactor.
+- Thermocouple error: The thermocouple was initially placed too high and was flattened by the auger, causing the auger to struggle. The thermocouple was adjusted to resolve this issue.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 75 - 5/5/22 
 Personnel: Austin and John 
 Hypothesis: The larger chimney should reduce ash and ember flow with woodchips as it did with rice hulls. 
@@ -284,6 +326,27 @@
 Next steps: It might be worth investing some time in getting the ProFire working again to prevent future complaints.  
 Thermocouple history: 
 </t>
+  </si>
+  <si>
+    <t>Example Hot Test:  + Hot Test # 75 - 5/5/22 
+Personnel: Austin and John 
+Hypothesis: The larger chimney should reduce ash and ember flow with woodchips as it did with rice hulls. 
+Settings: Primary 4000&gt;2500&gt;3000 Secondary 3000 auger 6 Angle 45 Round body 
+Outcome:  
+Overall, the hypothesis was confirmed. Through various stages of operation, including times where many burning embers could be seen flowing inside the reactor, no large particulates were seen coming from the chimney.  
+Outside of the ash situation however, the hot test did not run particularly smoothly. The day was pretty windy and we had a very hard time controlling smoke. We had the blowers in the middle position (B7, B9) which did not provide enough volumetric reduction in the square to round transition area to prevent jamming. We were also stuck between wanting to raise the primaries to get more reaction in that transition zone, and wanting to keep them lower to prevent smoke from pouring out of the hopper. It also seemed like we couldn’t quite get the reaction hot enough to stop smoke coming from the chimney, and one of our neighbors did come over to complain. We were using a mix of the various wood chips we had on hand, primarily the PG&amp;E chips. They all required pretty constant agitation to keep them flowing through the hopper. 
+Next steps: It might be worth investing some time in getting the ProFire working again to prevent future complaints.  
+Thermocouple history: 
+. Example Answer: 1</t>
+  </si>
+  <si>
+    <t>Hot Test # 75 - 5/5/22
+Outcome: 1 (smoke)
+Based on the information provided, the hot test resulted in smoke coming from the chimney.</t>
+  </si>
+  <si>
+    <t>Hot Test # 75 - 5/5/22
+Outcome: 1</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 76 - 5/20/22 
@@ -315,6 +378,10 @@
  </t>
   </si>
   <si>
+    <t>Hot Test # 77 - 5/23/22
+Outcome: 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 78 - 5/26/22 
 Personnel: Austin and Gabriella 
 Hypothesis: To run a hot test using rice straw with the reactor in a 30° configuration, while using the straw to ignite. 
@@ -329,6 +396,9 @@
 Next Steps: The next test will start off with an established fire using wood chips. Though the straw is very flammable it may be burning so quickly that an establishment of heat is not as sustainable as wood chips. 
 Thermocouple history: 
 </t>
+  </si>
+  <si>
+    <t>Hot Test # 78 - 5/26/22: 1</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 79 - 5/31/22 
@@ -346,6 +416,26 @@
 Next Steps: The next test with rice straw we will make sure to continuously pack the rice straw in order to prevent oxygen from entering and starting hopper fires. 
 Thermocouple history: 
  </t>
+  </si>
+  <si>
+    <t>Example Hot Test:  + Hot Test # 79 - 5/31/22 
+Personnel: Austin, Gabriella, Eymon, Cerise, Charu (Austin was playing supervisory role) 
+Hypothesis: To run a hot test using rice straw with the reactor in a 30° configuration, while using the woodchips to ignite. 
+Settings: Primary 3000, Secondary 2000, Auger 10 rpm. Reactor at 30°, reactor exit black bag. Large chimney  
+Outcome: ~0.9kg of charr was achieved, however steady state was not and most of the char was from the woodchips, although there was a good amount of straw char as well. Test had to be stopped due to continuing hopper fires as rice straw was not being packed tight enough or fast enough, leading to oxygen flowing into the hopper and igniting the flame in the hopper. Minimal ash and smoke was observed coming from the chimney. 
+Pushing biomass down vertically rather than up 
+We attempted a second hot test (a continuation of the prior test while the temperature was hot), but the second attempt was not being put quickly enough. Fire inside the hopper 
+Notable Observations:  
+Reactor maintained a decently high temp (around 240 F), but we were not able to sustain the test. 
+Hopper caught fire twice 
+Low amounts of smoke and ash coming from chimney. 
+The char looks well done: 
+Next Steps: The next test with rice straw we will make sure to continuously pack the rice straw in order to prevent oxygen from entering and starting hopper fires. 
+Thermocouple history: 
+ . Example Answer: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test # 79 - 5/31/22: 1</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 80 - 6/1/22 
@@ -628,6 +718,43 @@
  </t>
   </si>
   <si>
+    <t>Example Hot Test:  + Hot Test # 94 – 09/01/22 
+People: Yiyang, Camila, Troy, Kevin (with Austin starting the hot test) 
+Hypothesis:  
+Compared to 7/18/22, we enlarged the hopper and hypothesize that this will address the bridging issue. 
+Compared to 8/26/22, we moved the primary air blowers from S10 axially down and circumferentially up to the S4 position, and hypothesize that this will reduce the jamming issue. 
+Settings: Primary blower position at S4. Primary air setpoint at 3000 initially, secondary air at 5000. Megachimney was used, without any mesh at the top.  
+Feedstock: Wood chips in the shed – we had a mix of different types fed into the reactor as we went, some chunky, some fibrous, some eucalyptus, and some newly collected by Eymon/Elliot in August from Berkeley.  
+Summary:  
+Compared to 7/18/22, bridging still persists. Next step: lower to 15 deg and see if bridging improves. 
+Compared to 8/26/22, auger jamming was initially an issue, but resolved itself once the reactor got hot. We just have to be more patient.  
+Detailed Observations: 
+Lighting was easy. Once lit, we had a strong fire going when viewed through S10 and the cracks at the base of the chimney. Chimney stayed clean throughout.  
+Jamming: Initially when we fed the chunky wood chips in cold flow prior to lighting the reactor, no jamming was observed. After the reactor was lit for a while (15-20 minutes, or 5-10 minutes after actually starting the auger), severe jamming occurred in both directions, of the non-tripping type described on 8/26/22. No jamming was visually observed at the inlet; we suspect jamming higher up in the reactor zone, possibly at the transition above the chimney where the reactor cross-section transitioned from rectangular to circular. Topping the hopper with more wood chips (to increase the hydrostatic pressure) didn’t help. Waiting a while did help (until around 11:40). After that, the reactor seemed to run smoothly, at 6 RPM, 50% duty cycle (2-min off, 2-min on). Jamming was often accompanied by grinding sound, or auger moving in sporadic jumps (not a smooth motion).  
+Hopper smoke/fire: After an initial long period when the auger was stuck, we suspect that the fire from S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire and/or start smoking. We attempted to address this by idling the primary/secondary air and/or lowering it to 2000/2000, which did seem to help with smoke mitigation, though the smoke/fire returned as soon as we increased the blower RPM. We also observed, in the latter stage of the hot test, through the crack at the base of the chimney, both fire and char being conveyed. This implies that the solid level at the chimney position was very high, and could have blocked the passage of primary air towards the chimney, further exacerbating the hopper smoke/fire issue. We should have investigated this further by opening/checking the ports S1 and S6.  
+We decided to shut down the hot test prematurely (prior to steady state) as we were running low on wood chips and wanted to save some for a 15 deg test.  
+Rates and yield: Input feed rate was about 41 kg/h. Output rate was about 33 kg/h, implying a mass yield of 80% which looks wrong. We need to double check the output rate. Furthermore, the scale logging seems to have a wavy feature which may mean that it is not working properly:  
+Here is the input feed rate graph: 
+This is the char we obtained today. As we dug a bit deeper, some parts were undercharred (brownish), around 60-80% charred.  
+Example Answer: N/A</t>
+  </si>
+  <si>
+    <t>Example Answer: 
+Hot Test #94 - 09/01/22
+Hypothesis:
+1. Enlarging the hopper will address the bridging issue.
+2. Moving the primary air blowers from S10 to S4 will reduce the jamming issue.
+Observations:
+1. Bridging issue still persists compared to the previous test on 7/18/22. Next step is to lower the temperature to 15 degrees and see if bridging improves.
+2. Initially, there was auger jamming when feeding chunky wood chips in cold flow. After the reactor was lit for a while, severe jamming occurred in both directions. The jamming was not visually observed at the inlet, suggesting it may be occurring higher up in the reactor zone, possibly at the transition above the chimney. Topping the hopper with more wood chips did not help, but waiting for some time resolved the jamming issue.
+3. Lighting the reactor was easy, and a strong fire was observed through S10 and the cracks at the base of the chimney. The chimney remained clean throughout the test.
+4. Hopper smoke/fire: After the auger was stuck initially, it is suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire or smoke. Idling or lowering the primary/secondary air helped with smoke mitigation, but increasing the blower RPM caused the smoke/fire to return. Fire and char were observed being conveyed through the crack at the base of the chimney, indicating a high solid level at the chimney position, potentially blocking the passage of primary air towards the chimney.
+5. The hot test was shut down prematurely due to low wood chip supply and the intention to save some for a 15-degree test.
+6. The input feed rate was approximately 41 kg/h, and the output rate was approximately 33 kg/h, suggesting a mass yield of 80%, which seems incorrect. The output rate needs to be double-checked. The scale logging also showed a wavy feature, indicating a potential issue with its functionality.
+7. The obtained biochar showed undercharred parts (brownish) with around 60-80% charred.
+Answer: N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 95 – 09/02/22 
 People: Camila, Troy, Kevin (with Austin starting the hot test) 
 Hypothesis: Compared to 7/20/22, if we lower from 30 deg to 15 deg, we can stop the hopper smoke/fire.  
@@ -714,6 +841,18 @@
 Flow Rates: By cumulative output (28.1 kg) and input (92.5 kg), the mass yield is about 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield is about 12%. The output mass scale is exhibiting the same weird undulating behavior, and we’re not sure if we trust the readout for the output mass flow. 
 Input feed rate graph:  
  </t>
+  </si>
+  <si>
+    <t>Example Hot Test:  + Hot Test # 99 – 09/26/22  
+People: Camila, Austin, Kanages, Kevin 
+Hypothesis: Increased secondary air to address black smoke issue; moved one of the blowers up one notch circumferentially to address hopper white smoke issue 
+Settings: Primary blower position at S5 on the right side. On the left side, the viewing port NPT plug remained stuck at S10 and could not be loosened until the very end; therefore for this hot test, primary blower on the left side remained at S10. At the end of the experiment, we realized that primary and secondary blower wires on the right side (enclosure side) were switched. Primary air setpoint at 3000 rpm during start-up, reducing to 2500 and then 2200 rpm. Secondary air remained at 4000 rpm throughout. Mega chimney was used, without any mesh at the top. Newly refurbished six inch pitch auger. Prototype at 35 angle setup. 
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary: Reactor ran very hot throughout. White ash, while not visible against a white wall, was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were seen from the chimney occasionally (possibly more on the right side), resulting in gradual reduction of primary air in response. However, the primary and secondary air blowers were switched on the right-hand side, resulting in inconclusive outcome. There was still white smoke emerging from the cracks close to the hopper as well as through the hopper. We suspected that frequent poking into the hopper to avoid voidage may have helped with the smoke.  
+Detailed Observations: Some parts of the wood chip pile were more palpably wet, especially inside. 
+Flow Rates: By cumulative output (28.1 kg) and input (92.5 kg), the mass yield is about 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield is about 12%. The output mass scale is exhibiting the same weird undulating behavior, and we’re not sure if we trust the readout for the output mass flow. 
+Input feed rate graph:  
+ . Example Answer: 1</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 100 – 09/27/22  
@@ -867,6 +1006,9 @@
 Because the test was so short, there are not many conclusions to be drawn. </t>
   </si>
   <si>
+    <t>N/A: Not enough information</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 109 11/14/22  
 People: Hope, Troy, Austin Kevin 
 Hypothesis: Demo day! 
@@ -905,6 +1047,9 @@
 Feedstock: Cloverdale woodchips 
 Summary: The purpose of today's hot test was to run the reactor in similar conditions as #110 but with the reactor at 15°. The intent was to see if the auger would jam less and to see if it was less likely to have a fire in the hopper. Although it appeared that there was less fire in the hopper, we were pushing down the woodchips more regularly which could have been a factor as well. Less scraping between the auger and the base of the reactor was heard. However, lots of woodchips were getting stuck and the motor breaker tripped multiple times. This did not occur in yesterday's test. 
 Flames could be seen at the top of the chimney. Blower rpm was increased to counteract this. </t>
+  </si>
+  <si>
+    <t>Auger Speed</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,9 +1424,12 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="209.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1289,421 +1437,883 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="404" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="340" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Hot_Tests.xlsx
+++ b/Hot_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihaowang/PycharmProjects/Takachar/Takachar-GPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947610C6-3A7C-9742-B295-90185E661E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731E372-1593-0546-9C5D-084883C3B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="316">
   <si>
     <t>Hot Test</t>
   </si>
@@ -35,6 +35,36 @@
   </si>
   <si>
     <t>Steady State Achieved or Not</t>
+  </si>
+  <si>
+    <t>Auger Speed</t>
+  </si>
+  <si>
+    <t>input flow rate</t>
+  </si>
+  <si>
+    <t>output flow rate</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>output char quality</t>
+  </si>
+  <si>
+    <t>reaction successful or not</t>
+  </si>
+  <si>
+    <t>Primary Blower Speed</t>
+  </si>
+  <si>
+    <t>Secondary Blower Speed</t>
+  </si>
+  <si>
+    <t>Motor Angle</t>
+  </si>
+  <si>
+    <t>Input Material</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 61- 3/31/22  
@@ -55,6 +85,23 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Input flow rate: 37.4 kg/h</t>
+  </si>
+  <si>
+    <t>Output flow rate: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test #61- 3/31/22: 
+Reaction successful: 0 
+Explanation: The chips burned well and the motor breaker did not blow, indicating successful conveyance of PG&amp;E chips with the reactor at 45 degrees. However, there were issues with vibrations causing a cap and the primary blower to fall out of their ports, and burning chips reaching the bottom of the reactor, leading to flames reaching the hopper and igniting chips below. These issues indicate a need for further improvements in the machine design.</t>
+  </si>
+  <si>
+    <t>The input feedrate for the experiment was approximately 37.4 kg/h.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 62- 4/1/22  
@@ -92,6 +139,46 @@
     <t>Example Answer: 0</t>
   </si>
   <si>
+    <t>Based on the provided information, the experiment was conducted to compare the behaviors of the reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the Indian and Californian reactors may have contributed to the difficulties observed.
+During the experiment, only rice husks were tested, and the auger speed was initially set to 6 and later increased to 8. The primary blowers were adjusted from 4000 to 3000, while the secondary blowers remained at 5000. The results showed that coconut shells did not convey well, possibly due to deformed auger blades. Rice husks, on the other hand, conveyed smoothly without getting stuck.
+Observations from Gabriella indicated that the initial igniting process was challenging, but it was eventually successful by starting the fire with wood chips and using lighter fluid, a propane torch, and a bernzomatic torch. Smoke escaped through the hopper and cracks in the system, and there was a need to continuously replenish rice hulls to maintain oxygen cutoff at the entrance of the hopper. Bridging occurred, leading to excess white smoke and a pale-yellow color in the hopper.
+Flames were observed coming from the cracks in the hopper, especially where the hopper and combustion chamber meet facing the sky. The blowers were adjusted to decrease the temperature, but flames started coming out of the system cracks. When the blowers were raised back to their original settings, the flames eventually went out. The flame became strong once steady state was reached, and the char appeared homogenized at the end of the run.
+However, complications arose due to the fire running too hot, causing flames to jump out of a port and catch fire to the wires of Blower D. The entire system shut down, and the damaged blower was unplugged. The remaining blowers and the auger were still functional, allowing the remaining char to be conveyed out.
+The output feedrate during the post-test conveyance was approximately 2.2 kg/h at 6 RPM and 5.7 kg/h at 8 RPM, resulting in yields of 13% and 34%, respectively.
+The next steps include replacing Blower D and continuing to run hot tests with the remaining three blowers in place.
+In summary, the experiment aimed to compare the behaviors of the reactor with different cross-sectional areas and test the conveying capabilities of coconut shells and rice husks. The results showed difficulties in conveying coconut shells and successful conveying of rice husks. The experiment also experienced challenges with the igniting process, smoke escaping through cracks, and flames coming out of the system cracks.</t>
+  </si>
+  <si>
+    <t>Hot Test #62- 4/1/22
+Yield: 13% (at 6 RPM), 34% (at 8 RPM)</t>
+  </si>
+  <si>
+    <t>Based on the provided information, here are some observations and possible next steps:
+1. The experiment aimed to compare the behavior of the reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The rectangular cross-sectional area of the California reactor was used to replicate previous tests.
+2. The primary blower position was adjusted to B4 and B6, while the secondary blower position remained the same at T3 and T5.
+3. Only rice husks were tested, as coconut shells did not convey well and may have been affected by deformed auger blades.
+4. The cyclic peaks observed during the experiment indicated different auger speeds at 6 RPM and 8 RPM. Visual observation is needed to confirm if each cycle corresponds to one full auger revolution.
+5. Smoke was observed escaping through the hopper and cracks in the system, likely due to the proximity of the combustion chamber to the hopper. Bridging occurred, indicated by excess white smoke and a change in color.
+6. The initial igniting process for rice hulls was challenging, requiring a hot fire initially and then adding the rice hulls. The blowers were set at 4000 primary and 5000 secondary.
+7. Ash, hot embers, and flames were observed coming from the cracks in the hopper, particularly where the hopper and combustion chamber meet facing the sky.
+8. Lowering the blowers to 3000/4000 resulted in flames coming out of the system cracks, but raising them back to 4000/5000 extinguished the flames.
+9. The flame became strong once steady state was reached, and the char appeared homogenized at the end of the run.
+10. A fire occurred in the system, causing the wires of Blower D to catch fire and the entire system to shut down. The damaged blower was unplugged, and the remaining blowers and auger were controlled by the PLC.
+11. The output feedrate was not measured during the hot test, but during post-test conveyance, it was approximately 2.2 kg/h at 6 RPM and 5.7 kg/h at 8 RPM, resulting in yields of 13% and 34%, respectively.
+12. The next step is to replace Blower D and continue running hot tests with the remaining three blowers in place.
+Based on this information, further analysis and experiments can be conducted to address the challenges observed, such as improving the conveying of coconut shells, addressing smoke and bridging issues, and ensuring the system's safety and stability.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the primary objective of the experiment was to compare the behaviors of the newly designed reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the California and Indian reactors may have contributed to the difficulties observed in the Indian reactor.
+The experimental settings involved using PG&amp;E wood chips initially, which proved insufficient to light. Then, a full bucket of 70% charred wood chips was used to ignite the rice husks. The auger speed, primary blower position, and secondary blower position were adjusted accordingly.
+The results showed that coconut shells did not convey well, possibly due to deformed auger blades. Therefore, no hot test was performed on coconut shells. On the other hand, rice husks conveyed smoothly, even with the hopper level full. The cyclic peaks observed in the data indicated different auger speeds at 6 RPM and 8 RPM.
+During the test, smoke escaped through the hopper and cracks in the system, including the chimney. The proximity of the combustion chamber to the hopper caused bridging and required continuous replenishment of rice husks to maintain oxygen cutoff at the entrance. Flames were observed coming from the cracks in the hopper, and attempts to decrease the temperature by lowering the blowers resulted in flames coming out of the system cracks. The flame was strong once steady state was reached, and the char appeared homogenized.
+However, complications arose when a port was opened on the left side, causing flames to jump out and the wires of Blower D to catch fire, leading to the shutdown of the entire system. The damaged blower was unplugged, and the remaining blowers and auger were controlled by the PLC to convey the remaining char out.
+The output feedrate and yield were not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%.
+The next steps involve replacing Blower D and continuing to run hot tests with the remaining three blowers in place.
+Example Answer: The experiment involved comparing the behaviors of the newly designed reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The experiment encountered difficulties with coconut shells, possibly due to deformed auger blades. Rice husks conveyed smoothly, and the cyclic peaks in the data indicated different auger speeds at 6 RPM and 8 RPM. Smoke escaped through the hopper and cracks in the system, and attempts to decrease the temperature resulted in flames coming out of the system cracks. The output feedrate and yield were not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%. The next steps involve replacing Blower D and continuing to run hot tests with the remaining three blowers in place.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 63- 4/2/22  
 Note: Chimney damper was on throughout the entire test. This explains the excessive smoke leakage.  
 Personnel: Seong Ho and Kevin 
@@ -116,6 +203,43 @@
 Redo this test after replacing the rectangular profile with a circular one, to see if the motor is working any harder as a result.  </t>
   </si>
   <si>
+    <t>The auger speed for this hot test is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>In this experiment, the objective was to replicate a previous test using rice husks and to investigate the effect of conveying the husks further up the reactor body on the torque of the drive. The experimental settings included filling the reactor with charred wood chips and PG&amp;E wood chips to start the fire, adjusting the auger speed, and changing the positions of the primary and secondary blowers. 
+The results showed that the motor was not working very hard, except for sporadic peaks. The reactor crack widened over time, leading to an angry flame coming out of the cracks due to positive pressure. The cracks had to be plugged with insulation material, but the flame still persisted and eventually melted part of the aluminum insulation casing. When the blowers were reduced, the crack region transitioned from positive pressure to negative pressure. Glowing embers emerged from the cracks and entered the base of the hopper, causing it to smoke. The entire length of the reactor seemed to be on fire at the end of the reaction. 
+The output char quality was mixed, and it was hypothesized that moving the primary blowers up two notches deprived most of the rice husks of a vigorous reaction. The input feed rate was approximately 50.7 kg/h, and the consumption rate of rice husks was about 7.5 kg every 10 minutes. The yield was estimated to be between 21% and 56%, with an average of 39%. 
+Other observations included the need for stirring throughout the experiment and the presence of charring zones inside the hopper. Air was likely being pushed out of the hopper due to positive pressure. 
+The next step suggested is to redo the test after replacing the rectangular profile of the reactor with a circular one to investigate if the motor works harder as a result.</t>
+  </si>
+  <si>
+    <t>Hot Test # 63- 4/2/22
+Output flow rate: N/A
+The experiment did not provide information on the output flow rate.</t>
+  </si>
+  <si>
+    <t>Hot Test #63- 4/2/22
+Yield: [21%, 56%]
+The yield of biochar from the combustion of rice husks in this experiment ranged from 21% to 56%. The lower bound estimate suggests a yield of 21% while the upper bound estimate suggests a yield of 56%. The average of these two values gives a yield of 39%. However, it is important to note that steady state was not achieved during the experiment, so the yield values may not be accurate.</t>
+  </si>
+  <si>
+    <t>Hot Test #63- 4/2/22: 
+Reaction successful or not: 0 
+Explanation: The excessive smoke leakage, cracks in the reactor, and flame coming out of the cracks indicate that the reaction was not successful.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The example hot test provided describes an experiment conducted to replicate a previous test using rice husks in a small-sized reactor for biomass to biochar formation. The objective of the test was to determine if conveying raw rice husks further up the reactor body would cause more torque to the drive. 
+The experimental settings included filling the reactor with charred wood chips and PG&amp;E wood chips to start the fire. Only rice husks were tested, and the auger speed and blower speeds were adjusted accordingly. 
+The results of the test indicated that the motor was not working very hard, except for sporadic peaks. The reactor crack widened over time, leading to an angry flame often coming out of the cracks due to positive pressure. The cracks had to be plugged with insulation material, but the flame persisted and eventually melted part of the aluminum insulation casing. 
+At the end of the reaction, when the blower speeds were reduced, the crack region transitioned from positive pressure to negative pressure. Glowing embers emerged from the cracks and rolled down the outer face of the insulation material, possibly pre-igniting the biomass in the hopper. 
+The char output was of mixed quality, despite the high heat and flame throughout the reaction. The yield of biochar was estimated to be between 21% and 56%, with an average yield of 39%. 
+Other observations included the need for stirring throughout the reaction and the presence of charring zones inside the hopper. 
+The next steps suggested in the test report are to redo the test after replacing the rectangular profile of the reactor with a circular one to see if the motor works any harder as a result.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 64 - 4/4/22  
 Personnel: Austin and Kevin 
 Objective: 
@@ -136,6 +260,54 @@
 Also start searching for some rice straws to repeat the same experiment as today.  </t>
   </si>
   <si>
+    <t>The auger speed for Hot Test #64 was initially set at 6 RPM, then increased to 10 RPM, and finally lowered back to 6 RPM when the motor started struggling.</t>
+  </si>
+  <si>
+    <t>Hot Test #64 - 4/4/22
+Objective: To repeat Hot Test #63 but with the rectangular cross section replaced with a circular cross section. The hypothesis is that given the much tighter auger fit with the circular cross section, we might replicate Indian MiniTorr’s observation that the auger/motor is having issues conveying raw rice husks past the rectangular -&gt; circular transition.
+Setting: Motor RPM began at 6, then we increased to 10. When we noticed the motor was struggling, we lowered it to 6.
+Results: After about an hour of running, the motor started struggling. Reducing the RPM didn’t help. Eventually, when we opened the cover, we found the rectangular-to-circular transition jam-packed with raw biomass. This seems to conclusively demonstrate that the Indian MiniTorr jamming is likely caused by the tight clearance between the reactor inner wall and the flights of the auger.
+Motor torque/current data:
+- Data not provided.
+Other Observations:
+- Input feedrate was around 29 kg/h.
+- Initially, there was smoke leaking from the hopper and cracks, which was unusual for a primary blower position so high up the reactor. After closer examination, it was found that the damper of the chimney was on (also for the previous hot test). After the damper was removed, the smoke from the hopper and cracks disappeared. Ash out of the chimney was severe but came in episodes.
+- Later on, the motor got stuck repeatedly, and it was noticed that the motor driver wires got hot (not sure if it’s due to overcurrent or a poorly connected junction). As an attempt to fix this, the PLC went haywire – all blowers went high and the motor stopped working. Power-cycling through the PLC was required to regain control, but the motor was still periodically stuck.
+Thermocouple history:
+- Data not provided.
+Combustor temperature history:
+- Data not provided.
+Next Steps:
+- Repeat the same test but with the primary blower at a much lower position. If the reaction and volumetric reduction can start earlier in the reactor, this could prevent the jamming at the rectangular-circular transition.
+- Start searching for some rice straws to repeat the same experiment as today.</t>
+  </si>
+  <si>
+    <t>Hot Test # 64 - 4/4/22
+Objective: To repeat Hot Test #63 but with the rectangular cross section replaced with a circular cross section.
+Results: The motor started struggling after about an hour of running. Reducing the RPM didn't help. When the cover was opened, it was found that the rectangular-to-circular transition was jam-packed with raw biomass, indicating that the tight clearance between the reactor inner wall and the flights of the auger likely caused the jamming.
+Motor torque/current data: Not provided.
+Other Observations:
+- Input feedrate: 29 kg/h.
+- Initially, there was smoke leaking from the hopper and cracks, which was unusual for a primary blower position so high up the reactor. The damper of the chimney was found to be on, and after removing it, the smoke disappeared. Ash out of the chimney was severe but came in episodes.
+- The motor got stuck repeatedly, and the motor driver wires got hot. The cause could be overcurrent or a poorly connected junction. The PLC went haywire, and all blowers went high while the motor stopped working. Power-cycling through the PLC was required to regain control, but the motor still periodically got stuck.
+Thermocouple history: Not provided.
+Combustor temperature history: Not provided.
+Next Steps: 
+- Repeat the same test but with the primary blower at a much lower position to prevent jamming at the rectangular-circular transition.
+- Start searching for rice straws to repeat the same experiment.</t>
+  </si>
+  <si>
+    <t>Hot Test #64 - 4/4/22
+Reaction successful or not: 0
+Reason: The motor struggled and eventually jammed due to the tight clearance between the reactor inner wall and the flights of the auger, causing the rectangular-to-circular transition to become jam-packed with raw biomass.</t>
+  </si>
+  <si>
+    <t>Example Answer: The motor RPM for Hot Test #64 started at 6, then increased to 10. When the motor started struggling, the RPM was lowered back to 6. The input feedrate for biomass was around 29 kg/h. Initially, there was smoke leaking from the hopper and cracks, which was unusual for a primary blower position so high up the reactor. It was later discovered that the damper of the chimney was on, and after removing it, the smoke disappeared. Ash out of the chimney was severe but came in episodes. The motor repeatedly got stuck, and it was observed that the motor driver wires got hot. The PLC also went haywire at one point, causing all blowers to go high and the motor to stop working. The motor was periodically stuck even after regaining control. The next steps include repeating the test with the primary blower at a much lower position to prevent jamming at the rectangular-circular transition and searching for rice straws to repeat the experiment.</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for the hot test is not mentioned in the provided information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 65 - 4/5/22  
 Personnel: Austin and John 
 Objective: 
@@ -158,10 +330,39 @@
     <t>Example Answer: N/A</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>The example hot test described in the provided information is Hot Test #65 conducted on 4/5/22. The objective of this test was to repeat Hot Test #64 but with the primary blower positioned at the lowest possible position, right at the rectangular-circular transition (at B4 and B6). The hypothesis was that by starting the hot zone earlier, there would be no compression at the rectangular-circular transition, resulting in a smoother running process.
+The results of the test indicated that the test ran more smoothly and achieved a steady state. Opening the NPT ports at the lower sections did not extend the reaction downwards significantly, but the rice husks were not as tightly packed as in the previous test. This suggests that cutting primary air inlets closer to the L-junction could be a potential solution for the Indian MiniTorr.
+Other observations from the test include an input feedrate of 10.3 kg/h and well-charred biochar, possibly slightly overcharred due to the longer effective reaction length with the primary air positioned low.
+John's observations mentioned that the primary fuel used was rice hulls, but a half bucket of wood chips was added to facilitate the lighting process. The goal of the test was to assess the impact of the new blower position on reducing jamming and compression at the square to circle transition section. The test went well, with no jamming observed. The reactor reached a steady state, although the test had to be stopped before that point. There was minimal visible smoke throughout the test, and the ash production varied from heavier to almost none. The flow rate was lower than usual due to stopping the auger to observe the fire at different positions in the reactor body.
+The next steps mentioned in the test report include obtaining chopped rice straws or other straws to repeat the experiments and unlocking the stuck NPT ports at the middle positions (B7 and B9) to find a happy medium. The charring at the end of the test will be closely monitored to determine if it resembles the homogeneous charring observed with the primary air positioned low or the uneven charring observed with the primary air positioned high.
+Unfortunately, the provided information does not include any details about the thermocouple history.</t>
+  </si>
+  <si>
+    <t>Hot Test #65 - 4/5/22
+Input flow rate: 10.3 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test #65 - 4/5/22
+Yield: N/A
+The objective of Hot Test #65 was to repeat the previous test with the primary blower positioned at the lowest possible position to observe if the hot zone starts earlier and if there is a more smooth running of the experiment. The test ran smoothly, achieving a steady state. The reaction did not extend downwards significantly, but the rice husks were not as tightly packed as in the previous test. This could be a potential solution for the Indian MiniTorr, as cutting primary air inlets closer to the L-junction instead of making a rectangular/larger cross-section may prevent compression at the rectangular-circular transition.
+The input feedrate for this test was 10.3 kg/h. The char appeared well charred, possibly slightly overcharred, which may be due to the longer effective reaction length with the primary air positioned low.
+John's observations indicate that the test went well with no jamming, possibly due to the new blower position promoting fire growth at a lower level in the hopper and reducing compression of rice hulls at the transition section. The reactor reached a steady state towards the end of the test. There was very little visible smoke throughout the test. The ash production varied from heavier to almost no ash, averaging around the usual amount. The flow rate was lower than usual due to stopping the auger to observe the fire at different locations, but it would have picked up if the test could have been run for longer.
+The next steps include repeating the same experiments with chopped rice straws or other straws and unlocking the stuck NPT ports at the middle positions (B7 and B9) to find a happy medium. The charring at the end will be monitored to see if it resembles the homogeneous charring observed with the primary air positioned low or the uneven charring observed with the primary air positioned high.
+Unfortunately, the thermocouple history is not provided in the given information.</t>
+  </si>
+  <si>
+    <t>Hot Test #65 - 4/5/22
+Reaction successful or not: 1
+Reason: The test ran smoothly without any jamming, and the reactor reached a steady state. The primary blower at the lowest possible position helped promote fire growth at a lower level in the hopper, reducing the compression of rice hulls at the rectangular-circular transition.</t>
+  </si>
+  <si>
+    <t>The thermocouple history is not provided in the given information.</t>
+  </si>
+  <si>
+    <t>The example answer for the thermocouple history is not provided in the given text.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 66 - 4/7/22  
@@ -183,6 +384,29 @@
 It would also be worthwhile repeating test #65. Even though the reaction seemed to be going well, this was over a limited time period when John was here. Had we run the reaction longer, we wonder if the reaction might have met the same fate as #64 or #66. </t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment involves inputting biomass into the reactor using an auger, burning the biomass in the presence of oxygen, and measuring temperature at different places using thermocouples. The primary blowers provide air (oxygen) to the reactor zone, while the secondary blowers remove volatiles through the chimney.
+In the specific hot test described (Hot Test #66 - 4/7/22), the objective was to find a happy medium between previous tests by adjusting the primary air blower position. The researchers wanted to observe the extent of charring at the end of the process and compare it to previous tests where the primary air blower position was either too high or too low. Two tests were conducted, but both eventually died. In the first test, the reactor ran hot initially, but smoke started emerging from cracks near the rectangular-circular transition, leading to a tapering off and dying of the reaction. In the second test, the reaction also tapered off, and the rectangular-circular transition became jam-packed.
+The interpretation of the results suggests that in the previous tests, the reaction was either too high in the reactor or already happening in the rectangular-circular transition. In the awkward medium test (Test #66), the primary air blower position was close enough to the rectangular-circular transition to initiate some reaction, but not sufficient to volumetrically reduce the rice husks, resulting in them getting stuck. This led to a vicious downward spiral where the packed rice husks became harder to react, cooling the reaction further.
+The next steps proposed include repeating Test #66 with the leaks plugged up to address the issue of smoke limiting the ability to increase the primary blower RPM. Additionally, it is suggested to repeat Test #65 to further investigate the reaction's behavior over a longer time period.
+Based on this information, it appears that the researchers are trying to optimize the combustion process and machine design by adjusting the primary air blower position and addressing issues such as smoke and jam-packed rice husks.</t>
+  </si>
+  <si>
+    <t>Hot Test #66 - 4/7/22:
+Reaction successful or not: 0
+Explanation: The reaction did not reach a successful state as the primary air was not sufficient to volumetrically reduce the rice husks, leading to them getting stuck and causing the reaction to taper off.</t>
+  </si>
+  <si>
+    <t>Example Answer: The primary blower speed for Hot Test #66 was not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment involves inputting biomass into the reactor using a hopper and an auger, which carries the biomass into the reactor where it is burnt in the presence of oxygen. The volatiles are removed through a chimney, and the output is biochar. Thermocouples are used to measure temperature at different places in the reactor. Primary blowers provide air (oxygen) to the reactor zone, while secondary blowers remove volatiles through the chimney.
+In the specific hot test mentioned (Hot Test #66 - 4/7/22), the objective was to find a happy medium between previous tests by unlocking stuck NPT ports at positions B7 and B9. The experiment aimed to observe the performance of the motor with the primary air at the newly unlocked positions and to assess the extent of charring at the end. The previous tests showed that when the primary air was too low or too high, charring was either homogeneous or uneven. The experiment aimed to determine if an intermediate location would result in charring resembling either of the previous tests.
+The results of the test indicated that the reactor ran hot initially but smoke started emerging from cracks near the rectangular-circular transition. To avoid excessive smoke, the auger was turned on or increased, which caused the reaction to taper off and eventually die. The primary and secondary RPMs were initially set at 4000 and 3000, respectively. The test was repeated with reduced primary RPM, but the reaction still tapered off, and the rectangular-circular transition became jam-packed.
+Based on the interpretation of the results, it is hypothesized that in the previous tests, the reaction was either too high in the reactor or already happening in the rectangular-circular transition. In the current test, the primary air was in an awkward medium between the two previous tests, resulting in some reaction but not sufficient volumetric reduction of the rice husks, leading to them getting stuck. It is suggested that there is a vicious downward spiral where insufficient reaction leads to jam-packed rice husks, making it harder to light/react and further cooling the reaction.
+The next steps proposed are to repeat the test with the leaks plugged up and to also repeat the test from the previous experiment (#65) to observe if the reaction would meet the same fate as #64 or #66 if run for a longer time period.
+Example Answer: The experiment conducted in Hot Test #66 aimed to find a happy medium between previous tests by unlocking stuck NPT ports at positions B7 and B9. The results showed that the reaction tapered off and eventually died, and the rectangular-circular transition became jam-packed. The interpretation suggests that insufficient reaction leads to jam-packed rice husks, making it harder to light/react and further cooling the reaction. The next steps proposed are to repeat the test with the leaks plugged up and to also repeat the test from the previous experiment (#65) to observe if the reaction would meet the same fate as #64 or #66 if run for a longer time period.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 67 - 4/15/22 
 Personnel: Austin and Gabriella 
 Objective: Run the first hot test with hay in the round body, and compare that with the hay hot test in India. 
@@ -195,6 +419,32 @@
 The hot test had a slow start-up the first ignition did not take, a relight had to be done. One Bucket of PG&amp;E wood chips was used to start the ignition. The second attempt was successful and the flame was able to take.  1st dump occurred at 13:45 pm. Shortly after this groaning from the auger occurred indicating struggle to move the hay. Thermocouple 6 fell out and a [different] thermocouple would readings would spike up to really high readings then fall back again. The spikes occurred about 4 times. 
 During the entire test there was a flow problem with Austin having to physically push the hay into the system. The hay was so light and fluffy this was causing issues for the auger. One part of the test, there was ~ 2 minutes of knocking from the auger. After the 3rd dump was made, thick white smoke was coming out of the hopper, the speed was increased in hopes to decrease this. For a while the smoke did lessen, but ultimately the smoke returned and a flame shot out of the hopper. At this point in time the test was stopped and the remaining biomass was pushed through. 
 The hay sticks to itself even after being charred some of the hay came out in a ball shaped mass. We were not able to put a lot of hay in therefore not a lot of hay came out.  The fluffiness of the hay is a big problem, Austin shared an idea of chopping the hay or moving blowers at a different location may help with this problem. With the amount of air between the hay smothering the flame and containing it strictly to inside the system may be difficult.  </t>
+  </si>
+  <si>
+    <t>Input flow rate: N/A</t>
+  </si>
+  <si>
+    <t>Output flow rate: 0.9 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test #67 - 4/15/22
+Results: 0.9 kg of char collected (including woodchips)
+Interpretation: Flow issues with hay, manual pushing required. Hay clumped together and caused difficulties for the auger. Hay catching fire in the hopper limited the test. Hay's tendency to stick together needs to be addressed.
+Next steps: Consider chopping the hay in future tests and relocating blowers to improve motion.
+Gabriella's Observations: Slow start-up, ignition required a relight. Flow problem throughout the test, with hay needing to be physically pushed into the system. Thermocouple 6 fell out and other thermocouples had sporadic high readings. Thick white smoke and flame shot out of the hopper at one point. Hay sticks together even after charring. Fluffiness of the hay is a challenge, potential solutions include chopping the hay or relocating blowers.</t>
+  </si>
+  <si>
+    <t>Hot Test #67 - 4/15/22: [0.9, The output char quality was 0.9, indicating relatively high quality char was produced.]</t>
+  </si>
+  <si>
+    <t>Hot Test #67: 0
+Explanation: The feeding rate of hay was extremely slow due to flow issues, resulting in only a small amount of hay being fed into the machine and a low yield of char. The hay had a tendency to clump up and stick together, causing difficulties for the auger. The test had to be stopped early due to the hay catching fire in the hopper. Overall, the test was not successful in achieving the desired results.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the hot test was not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for this hot test is not mentioned in the provided information.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 68- 4/20/22 
@@ -213,12 +463,117 @@
  	Possible options that may be able to fix this is having teeth on the auger to grab the hay. Though this is not ideal in creating the need for redesign. Figuring out why the hay is sticking to itself, if statically maybe something to break this as a dryer sheet does for clothes. If it is due to cohesion then maybe preheating the hay to break up this attraction. </t>
   </si>
   <si>
+    <t>Based on the provided information, the auger speed for the hot test was not mentioned. Therefore, the answer would be N/A (not applicable).</t>
+  </si>
+  <si>
+    <t>Hot Test # 68- 4/20/22
+Input flow rate: N/A
+Observations:
+- Initially, the experiment was conducted using straws instead of wood chips. The flame went out, and the reactor did not heat up significantly.
+- Wood chips were added to the side port and relit, which resulted in the reactor warming up for a while before starting to cool down.
+- Smoke was observed from both the chimney and hopper simultaneously, and the hopper caught fire.
+- Rice straw level in the hopper was low.
+- Chopped rice straws were not flowable and required jamming to make them flow. The average fiber length was around 2 inches.
+- A test with a big hopper was conducted, but the content did not flow out.
+- Rice straw was compressible compared to other materials.
+- It was suggested to heat up the reactor with wood chips for 30+ minutes before introducing rice straws.
+Gabriella's Observation:
+- A hot test was conducted using mulched hay to see if ignition could be sustained.
+- The hay caught fire easily, but multiple ignitions were required to sustain the flame.
+- When the auger started to move, a fire occurred in the hopper and was extinguished with water.
+- The hay did not flow well and stuck together, requiring manual pushing to move it up the system.
+- The lack of flowability of the hay may be causing it to catch fire in the hopper before moving through the system.
+- Possible solutions suggested were adding teeth to the auger to grab the hay, addressing the sticking issue with static or cohesion, or preheating the hay to break up the attraction.
+Note: The input flow rate was not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Hot Test #68- 4/20/22
+Output flow rate: N/A
+Observations:
+- Initially, the experiment was conducted using straws instead of wood chips. The flame went out, and the reactor did not heat up significantly.
+- Wood chips were added to the side port and relit, which resulted in the reactor warming up for a while before cooling down again.
+- Smoke was observed from both the chimney and hopper simultaneously, and eventually, the hopper caught fire and had to be extinguished with water.
+- The rice straw level in the hopper was low.
+- The chopped rice straws were fluffy and not flowable. They required jamming to make them flow, and their average fiber length was around 2 inches.
+- Filling a big hopper did not result in the content flowing out.
+- The rice straw was compressible compared to other materials, and sometimes it would push back up when jammed down.
+- It was suggested to run the auger for 30+ minutes with wood chips before introducing rice straws in the next step.
+Gabriella's Observation:
+- The experiment aimed to test if ignition could be sustained using hay.
+- The hay easily caught fire and sustained it in a small experiment.
+- However, in the hot test, three ignitions were required, and the last one involved wood chips and paper.
+- A fire occurred in the hopper when the auger started moving, and it was extinguished with water.
+- The hay did not flow well and tended to stick together, requiring manual pushing by Austin to move it up the system.
+- The lack of flowability of the hay may be causing it to catch fire in the hopper before moving through the system.
+- Possible solutions suggested were adding teeth to the auger to grab the hay, addressing static or cohesion issues causing the hay to stick together, or preheating the hay to break up its attraction.
+Based on these observations, it is evident that the combustion process and machine design need further optimization to improve the flowability of the biomass and prevent fires in the hopper.</t>
+  </si>
+  <si>
+    <t>Hot Test #68- 4/20/22:
+- Yield: N/A (no information provided)
+Gabriella's Observation:
+- Yield: N/A (no information provided)</t>
+  </si>
+  <si>
+    <t>Hot Test #68- 4/20/22: 
+Reaction successful or not: 0
+Reason: The combustion process was not successful as the flame went out, the reactor did not heat up significantly, and there were issues with the hay not flowing well and sticking together, leading to a fire in the hopper.</t>
+  </si>
+  <si>
+    <t>Based on the provided experiment description, it seems that there are several observations and challenges related to the combustion process and machine design. Here are some possible answers to the questions raised:
+1. Secondary blower speed: The experiment does not mention the speed of the secondary blower, so the answer would be N/A.
+2. Hay combustion sustainability: The experiment aimed to test if ignition could be sustained using hay. However, it was not as successful as expected, requiring multiple ignitions and eventually resulting in a fire in the hopper. To improve hay combustion sustainability, some possible options could be:
+   - Investigating the cause of the hay's poor flowability and addressing it. This could involve understanding the cohesion between hay particles and finding ways to reduce it, such as using additives or preheating the hay to break up the attraction.
+   - Considering the design of the auger to have teeth or other mechanisms that can better grab and move the hay through the system.
+   - Exploring the possibility of using a dryer sheet or similar material to reduce static and prevent the hay from sticking to itself.
+3. Hay flowability: The experiment observed that the hay does not flow well and tends to stick together, making it difficult to move up the system. This issue can be addressed by:
+   - Mulching the hay further to reduce its size and increase its flowability.
+   - Exploring different methods to break up the cohesion between hay particles, such as preheating or using additives.
+4. Big hopper test: The experiment attempted to fill a big hopper with hay and lift it to see if the hay would flow out. However, the hay did not fall out as expected. To improve the flowability of hay in the big hopper, some possible solutions could be:
+   - Redesigning the hopper to have a mechanism that promotes the flow of hay, such as inclined surfaces or vibrating elements.
+   - Adjusting the size and shape of the hopper opening to facilitate the flow of hay.
+5. Next steps: The experimenters suggested running the auger for a longer duration (30+ minutes) with wood chips before introducing rice straws. This approach aims to heat up the system more effectively before adding the rice straws, potentially improving the combustion process.
+Overall, the experiment provides valuable insights into the challenges faced during the combustion process and machine design. Further experimentation and analysis can help in refining the system and achieving better results.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 69- 4/21/22 
 Personnel: Austin and John 
 We started with wood chips, took a long time to light (maybe due to wet weather, or due to leftover straw doused with water yesterday in there; wet straw could also have clogged up the air inlet ports). It seemed the flame we could see through the side ports weren’t getting enough air. We ramped up eventually to 7000 rpm just trying to get through a possibly clogged port. Then we added a second bucket and relit. Then it was going quite well – good flame established, running at continuous at 6 RPM. Then we started putting in straw, a couple of handfuls at a time and poking into the auger. Seemed to be going reasonably well, keeping the straw level right at the top of the auger (not hopper), then slowly adding more and more. We only added most of the bucket (first bucket). Then a tiny whiff smoke came out of the hopper.  
 Then the whole hopper caught fire (with primary 7000, secondary 3000) after 10 minutes of switching to straw. We also doused with water while continuing the auger at 6-&gt;10 RPM while idling the air. We were still having a lot of smoke coming out of the chimney and every crack of the machine. We then removed the hopper and just capped off the elbow.  
 We had tons of smoke out of the chimney after dousing with water.  
 With straw, getting one little ember meant everything came up in flames. No ember and no ash out of the chimney.  </t>
+  </si>
+  <si>
+    <t>Based on the provided information, the example answer for the hot test is as follows:
+The auger speed used in this experiment was not mentioned.</t>
+  </si>
+  <si>
+    <t>Hot Test #69- 4/21/22
+Personnel: Austin and John
+Yield: N/A
+Observations:
+- Wood chips took a long time to light, possibly due to wet weather or leftover wet straw in the reactor.
+- Flame through the side ports seemed to be lacking air, possibly due to clogged air inlet ports.
+- RPM was increased to 7000 to try to overcome a possibly clogged port.
+- A second bucket was added and relit, resulting in a good flame and continuous operation at 6 RPM.
+- Straw was gradually added, keeping the level at the top of the auger.
+- After adding most of the first bucket of straw, a tiny whiff of smoke came out of the hopper.
+- The hopper caught fire after 10 minutes of switching to straw, despite using primary 7000 RPM and secondary 3000 RPM.
+- Water was doused while the auger was running at 6-&gt;10 RPM and the air was idling.
+- Smoke continued to come out of the chimney and cracks in the machine.
+- The hopper was removed and capped off the elbow.
+- Tons of smoke continued to come out of the chimney after dousing with water.
+- With straw, a single ember caused everything to catch fire, while no ember resulted in no ash out of the chimney.</t>
+  </si>
+  <si>
+    <t>Hot Test: 0
+The reaction was not successful because the hopper caught fire and there was excessive smoke coming out of the chimney and machine cracks, indicating incomplete combustion and potential design flaws.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the primary blower speed for this hot test was 7000 rpm.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the secondary blower speed for this hot test is 3000 RPM.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 70- 4/22/22 
@@ -228,6 +583,22 @@
 We took off flat section and took a look inside. Unlike rice hulls, wasn’t packed pre-constriction. Corners of rectangular sections were empty – space. Above the constriction in the round section, wasn’t totally packed. The jam was between the round body and the auger. A lot of rice straws got wedged in there. We didn’t in through NPT ports.  
 When the blowers are lower positioned, we need to run the RPM higher b/c the air flow is blocked by biomass. I.e. We might need to run at a higher RPM to get the same delivered volumetric flow.  
 No hopper fire or smoke. We did have ash and ember from chimney. Some smoke came out of the cracks where the damper goes at the base of the chimney; otherwise not really.  </t>
+  </si>
+  <si>
+    <t>Example Answer: The auger speed for this hot test was 6.</t>
+  </si>
+  <si>
+    <t>Hot Test #70- 4/22/22: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test: 0
+The reaction was not successful because the straw jammed completely within less than 30 minutes, indicating a blockage in the reactor and preventing proper combustion.</t>
+  </si>
+  <si>
+    <t>Example Answer: The primary blower speed for this hot test was initially set at 3000, but later reduced to 3000 due to chimney smoke.</t>
+  </si>
+  <si>
+    <t>Example Answer: The secondary blower speed for this experiment is not mentioned in the provided information.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 71 - 4/25/22 
@@ -252,6 +623,44 @@
 The system would behave very cyclically. Consistent groaning from the auger getting jammed that would increase and decrease in volume. The smoke mostly would increase with the volume of the stuck auger, but not always. There seemed to be a pattern for a while to only change with when the hopper would smoke vs. the chimney, how thick the smoke was, and the auger struggling. Blowers would be changed auger speed, and this did not always work to create change but sometimes it would. As exciting as getting the system to produce char was, I am curious to see if this test it replicable. </t>
   </si>
   <si>
+    <t>In this hot test, the objective was to determine the behavior of the combustion process and machine design when the primary air is located at the middle location. The experiment used PG&amp;E wood chips as the biomass input and the primary air was set at 1300. The secondary air flow rate was not specified. 
+The experiment ran smoothly without any jamming. However, there were cyclic occurrences of smoke from both the chimney and the hopper. The input feed rate was approximately 11 kg/h. The experiment did not achieve steady state, as the temperature went down on its own without changing the blower RPM. 
+Gabriella's observation mentioned that mulched hay was used in the test and the primary blowers were located at the B8 and B9 positions. The test successfully produced 6.7 kg of char from the hay without the hopper catching on fire. However, the auger started to struggle as the test progressed. The smoke from the chimney changed colors from white to black to yellow and back to white. The flame inside the system appeared strong despite the temperature readings and smoke indicating otherwise. The hay was manually pushed into the system, and the auger would occasionally get jammed, resulting in increased smoke, mostly in the hopper. The system behaved cyclically, with the auger groaning and the smoke volume increasing and decreasing. Changing the blower speed did not always create a change in the system behavior. 
+Overall, the test was able to successfully char hay, but there were challenges with the auger and cyclic occurrences of smoke. The replicability of the test is a point of interest for future investigations.</t>
+  </si>
+  <si>
+    <t>Hot Test #71 - 4/25/22
+Personnel: Austin and Gabriella
+Hypothesis: Testing the location of primary air in the reactor (bottommost, topmost, or middle) to determine if hopper fire or biomass jamming occurs.
+Results: 
+- Started with PG&amp;E wood chips (2 buckets).
+- Primary air set at 1300, secondary air at 2500 or 3500 (unclear).
+- No jamming occurred during the test.
+- Smoke from the chimney and hopper occurred cyclically.
+- Increasing primary air beyond 1300 resulted in more smoke from the hopper.
+- Input feed rate was around 11 kg/h.
+- Did not achieve steady state during the test.
+- Gabriella manually pushed the hay into the system to prevent jamming.
+- The auger struggled as the test progressed.
+- The system behaved cyclically, with groaning from the auger getting jammed.
+- Blower speed and auger speed changes did not consistently affect the system behavior.
+- The flame appeared strong despite temperature readings and smoke indicating otherwise.
+Gabriella's Observation:
+- Successfully charred hay for the first time, producing 6.7 kg of char along with wood chips.
+- Hopper did not catch on fire, but smoke was observed intermittently.
+- White smoke consistently came out of the chimney in thick plumes, changing colors.
+- The auger jammed at times, increasing smoke mostly in the hopper.
+- The system behaved cyclically, with groaning from the auger and changing smoke patterns.
+- Blower and auger speed changes did not always affect the system behavior.
+- The starting of the fire required effort due to cold wind conditions.
+- Hay was manually pushed into the system and fed gradually to prevent jamming.
+Conclusion: The test successfully charred hay without hopper fire, but the auger struggled and the system behaved cyclically. The effect of blower and auger speed changes on system behavior was inconclusive. The test's replicability remains to be seen. 
+Example Hot Test: reaction successful or not: 1</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for the hot test was not mentioned in the provided information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 72 - 4/26/22 
 Personnel: Austin and John 
 Hypothesis: We replaced the circular cross section with the rectangular cross section in the reactor, while keeping the primary air at the same location (top, or B10/B12). We wanted to observe any differences once the auger-inner wall constrictions are relaxed. Our hypothesis is that by relaxing the auger-inner wall constrictions, unlike the circular cross section previously, the hay would not get stuck. 
@@ -272,6 +681,26 @@
     <t>Example Hot Test: 1</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment conducted in Hot Test #72 on 4/26/22 had some unexpected outcomes and observations. The experiment aimed to observe any differences in biomass conveyance when the circular cross section of the reactor was replaced with a rectangular cross section, while keeping the primary air at the same location. The hypothesis was that by relaxing the auger-inner wall constrictions, the biomass (hay) would not get stuck.
+The settings for this experiment were a primary air flow rate of 1500 and a secondary air flow rate of 2500. The outcome of the experiment revealed that there were no significant conveyance issues, but there were shudders and signs of friction. The breaker did not blow, and the chimney generally emitted little smoke or ash. However, there was a lot of smoke coming out of cracks and intermittently from the hopper. Inside the reactor, it was very smoky, and substantial flames were observed coming out of the cracks below and above the chimney connector piece. The damper was removed, but it seemed to be acting as if it was still present.
+Upon inspection, it was found that the chimney might have been blocked by charred rice straw, which was easily dislodged. "Furry formations" were observed stuck on the inner wall of the oil drum, indicating that the rice straw char was light and easily aerated. The mesh at the top of the chimney was also found to have some char lodged between the wires, but not many wires were clogged. However, there was an accumulation of fine char dust in the chimney elbow, particularly at the secondary blower outlets. The secondary blowers were clogged by mostly uncharred straw, which may have affected their P-Q profile. The primary blowers were also clogged, but to a lesser extent. The side NPT ports (S8) were filled with char dust, more so on the IFM side than the opposite side.
+The next step in the experiment is to remove the chimney mesh and conduct the same hot test to investigate if the clogged chimney mesh caused the smoke from the hopper.
+Unfortunately, the provided information does not include any details about the thermocouple history, so an example answer cannot be provided for that.</t>
+  </si>
+  <si>
+    <t>Reaction successful or not: 0
+Explanation: The experiment did not meet the objective of observing any differences in the combustion process by replacing the circular cross section with a rectangular cross section in the reactor. There were issues with conveyance, smoke coming out of cracks, and clogging of blowers and chimney mesh, indicating that the design change did not improve the performance.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment involved testing a rectangular cross-section reactor design with relaxed auger-inner wall constrictions. The objective was to observe any differences in biomass conveyance compared to the previous circular cross-section design. The primary blower speed was set at 1500, and the secondary blower speed was set at 2500.
+The outcome of the experiment indicated that there were no significant conveyance issues, but there were shudders and signs of friction. Smoke was observed coming out of cracks and intermittently from the hopper. Flames were also observed coming out of cracks near the chimney connector piece. The damper was removed, but it still acted as if it was present.
+Upon opening the char container, it was noticed that most rice straws were charred, with only about 5% incomplete charring. "Furry formations" were found stuck on the inner wall of the oil drum, suggesting that the rice straw char was light and easily aerated.
+Further investigation revealed that the mesh at the top of the chimney had some rice straw char lodged between the wires, but they fell out easily and did not cause significant clogging. However, there was an accumulation of fine char dust in the chimney elbow near the secondary blower outlets, which may have been clogged char that fell down or recirculated into a dead zone.
+Both secondary blowers were found to be clogged by mostly uncharred straw, which may have affected their P-Q profile. The primary blowers were also clogged, but to a lesser extent. The side NPT ports (S8) were filled with char dust, more so on the IFM side than the opposite side.
+The next step in the experiment is to remove the chimney mesh and conduct the same hot test to investigate if the clogged chimney mesh was causing the smoke from the hopper.
+Unfortunately, the provided information does not include any details about the thermocouple history.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 73 - 4/27/22 
 Personnel: Austin and Kevin 
 Hypothesis: Given our hypothesis that the clogged chimney mesh caused the hopper smoke, we removed the chimney mesh and conducted the same hot test. Primary blowers were at the same topmost (B10/B12) positions. Reactor profile was rectangular. 
@@ -288,6 +717,31 @@
  </t>
   </si>
   <si>
+    <t>Based on the provided information, the experiment involved testing the combustion process and machine design in a small-sized reactor for biomass to biochar formation. The experiment focused on a specific hot test (#73) conducted on 4/27/22, with personnel Austin and Kevin. The hypothesis for this test was that the clogged chimney mesh caused the hopper smoke, so the chimney mesh was removed, and the same hot test was conducted. The primary blowers were positioned at the topmost positions (B10/B12), and the reactor profile was rectangular.
+The settings for this test were as follows: Primary blower speed - 2500, Secondary blower speed - 2000, and Auger speed - 10. The experiment started with 1.5 bucketfuls of eucalyptus wood chips, which were packed more tightly manually. The flames were quickly established after starting the blowers at high speed (4000/2000) and starting the auger at 6 rpm. Straw was fed into the reactor by hand, resulting in small fires in the hopper. The auger speed was increased to 10 to move the fire up into the reactor, which reduced the hopper fires to a manageable level. The straw had to be continuously pushed into the auger to keep it full and prevent hopper fires.
+The average feed rate during the experiment was approximately 27 kg/h. When the char outlet was opened at the end of the experiment, no smoke was observed, and the straws appeared evenly charred. The next steps mentioned in the experiment plan to install a mega chimney and test it with rice hulls to assess its effectiveness in reducing ash and charred particles coming out of the chimney.
+Unfortunately, the provided information does not include any data or specific measurements from the thermocouples.</t>
+  </si>
+  <si>
+    <t>In this hot test, the input flow rate was approximately 27 kg/hour.</t>
+  </si>
+  <si>
+    <t>Output flow rate: 27 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test #73 - 4/27/22 
+Outcome: N/A
+The experiment did not report the yield of biochar produced during this hot test.</t>
+  </si>
+  <si>
+    <t>Hot Test #73 - 4/27/22
+Outcome: 1
+Explanation: The test was successful as the wood chips were seen in the flame zone, the flames were established quickly, and the straw was charred evenly without any smoke when the char outlet was opened.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the example answer for the thermocouple history is not available.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 74 - 5/4/22 
 Personnel: Austin and Gabriella  
 Hypothesis: To see if moving primary blowers to the middle position with the round body can create a happy medium of flow vs, smoke. 
@@ -316,6 +770,25 @@
 - Thermocouple error: The thermocouple was initially placed too high and was flattened by the auger, causing the auger to struggle. The thermocouple was adjusted to resolve this issue.</t>
   </si>
   <si>
+    <t>The auger speed for the hot test #74 was 6 rpm.</t>
+  </si>
+  <si>
+    <t>Hot Test #74 - 5/4/22
+- Yield: N/A (no information provided)
+Notable observations:
+- Woodchips: The wood chips used as fuel were not getting compact enough, leading to air pockets and sparse area coverage. This resulted in the fire not being hot enough and allowed smoke to easily escape.
+- Smoke: During the ignition process, white smoke was observed from the hopper, while the smoke from the chimney was a greenish brown to black color. Increasing the secondary blowers helped reduce the smoke, but it did not completely stop until rice hulls were added to the reactor.
+- Thermocouple error: The new thermocouple was initially placed too high and was flattened by the auger, causing the auger to struggle. The thermocouple was adjusted to resolve this issue.</t>
+  </si>
+  <si>
+    <t>Hot Test #74 - 5/4/22
+Reaction successful or not: 0
+Reason: The test was not successful due to several issues, including the generation of excessive smoke, a jam in the reactor, and the auger struggling. The wood chips used as fuel did not compact well, leading to air pockets and sparse area coverage, resulting in a lack of fuel and easy escape routes for smoke. The ignition process with eucalyptus as a fuel source produced white smoke from the hopper and greenish brown to black smoke from the chimney. The addition of rice hulls eventually stopped the smoke from the chimney. Additionally, a thermocouple error caused the auger to struggle, but it was adjusted later.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the hot test #74 on 5/4/22 was not mentioned in the provided information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 75 - 5/5/22 
 Personnel: Austin and John 
 Hypothesis: The larger chimney should reduce ash and ember flow with woodchips as it did with rice hulls. 
@@ -347,6 +820,28 @@
   <si>
     <t>Hot Test # 75 - 5/5/22
 Outcome: 1</t>
+  </si>
+  <si>
+    <t>Hot Test # 75 - 5/5/22
+Personnel: Austin and John
+Hypothesis: The larger chimney should reduce ash and ember flow with woodchips as it did with rice hulls.
+Settings: Primary 4000&gt;2500&gt;3000 Secondary 3000 auger 6 Angle 45 Round body
+Outcome:
+The experiment confirmed the hypothesis that a larger chimney reduces ash and ember flow with woodchips, similar to what was observed with rice hulls. No large particulates were observed coming from the chimney during various stages of operation, even when burning embers were flowing inside the reactor.
+However, the hot test did not run smoothly due to windy conditions. Smoke control was challenging, and the blowers in the middle position (B7, B9) did not provide enough volumetric reduction in the square to round transition area, leading to jamming. The team faced a trade-off between raising the primaries for more reaction in the transition zone and keeping them lower to prevent smoke from pouring out of the hopper. The reaction temperature was not high enough to completely prevent smoke from the chimney, resulting in a complaint from a neighbor.
+The experiment used a mix of various wood chips, primarily the PG&amp;E chips, which required constant agitation to maintain flow through the hopper.
+Next steps: It is recommended to invest time in getting the ProFire working again to prevent future complaints.
+Thermocouple history: No information provided.</t>
+  </si>
+  <si>
+    <t>Hot Test #75 - 5/5/22
+Outcome: 1
+Explanation: The hypothesis was confirmed as no large particulates were seen coming from the chimney, indicating that the larger chimney reduced ash and ember flow. However, the hot test did not run smoothly due to difficulties in controlling smoke and maintaining the desired reaction temperature. Next steps include investing time in getting the ProFire working again to prevent future complaints.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to test the hypothesis that a larger chimney would reduce ash and ember flow with woodchips, similar to what was observed with rice hulls. The experiment involved using a primary blower with settings of 4000&gt;2500&gt;3000, a secondary blower with a setting of 3000, an auger speed of 6, an angle of 45, and a round body. 
+The outcome of the experiment confirmed the hypothesis, as no large particulates were observed coming from the chimney during various stages of operation, even when burning embers were flowing inside the reactor. However, the experiment did not run smoothly due to windy conditions and difficulty in controlling smoke. The blowers' positions (B7, B9) did not provide enough volumetric reduction in the square to round transition area, leading to jamming. The challenge of balancing the primary blower settings to increase reaction in the transition zone while preventing smoke from pouring out of the hopper was also mentioned. The reaction temperature was not hot enough to completely stop smoke from the chimney, resulting in a complaint from a neighbor. The wood chips used, primarily PG&amp;E chips, required constant agitation to maintain flow through the hopper. 
+The suggested next step is to invest time in getting the ProFire working again to prevent future complaints. Unfortunately, no information about the thermocouple history was provided.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 76 - 5/20/22 
@@ -365,6 +860,35 @@
  </t>
   </si>
   <si>
+    <t>Based on the provided information, the thermocouple history is not mentioned in the experiment report. Therefore, there is no specific data available regarding the temperature measurements at different places in the reactor during the hot test.</t>
+  </si>
+  <si>
+    <t>Hot Test # 76 - 5/20/22 
+Outcome: N/A
+Notable observations: 
+- Smoke: Lots of light gray smoke emitted from the hopper, reactor body, and bottom of the chimney. Large clouds of white smoke emitted from the top of the chimney at times.
+- Flames were higher up in the reactor body than usual, possibly due to the amount of biomass added.
+- Temperature: Reactor body and thermocouple 4 slowly cooled down over time, resulting in less optimal char.
+Next steps: 
+- Conduct a test with variable blower speeds (increase primary blower speeds) to see if the reactor can continue to operate when the reactor body is full.
+- Test the reaction at a lower angle.
+Thermocouple history: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test #76 - 5/20/22
+Outcome: 0
+Explanation: The reaction was not successful as the reactor became full, reducing air flow and cooling down, leading to only about 50% of the rice hulls being charred.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the primary blower speed for the hot test #76 was not mentioned. Therefore, the answer would be N/A.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the hot test conducted with primary blower speeds at 2000 rpm and secondary blower speeds at 3500 rpm did not result in optimal amounts of char. Only about 50% of the rice hulls were charred. The experiment encountered issues such as the reactor becoming full, reduced air flow, and cooling of the reactor. The rice hulls were getting stuck in the reactor body, causing the flame to be higher up in the reactor and emitting smoke from various parts of the system.
+Notable observations include the emission of light gray smoke from the hopper, reactor body, and bottom of the chimney, as well as large clouds of white smoke from the top of the chimney. The flames were higher up in the reactor body than usual, possibly due to the amount of biomass added. The temperature of the reactor body and thermocouple 4 slowly cooled down over time, resulting in less optimal char production.
+The suggested next steps include conducting tests with variable blower speeds (increasing primary speeds to operate when the reactor body is full) or performing the reaction at a lower angle.
+Unfortunately, the provided information does not include any data or values for the thermocouple history.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 77 - 5/23/22 
 Personnel: Eymon, Austin, Gabriella, Cerise, Kevin 
 Hypothesis: Using rice straws to replicate the smoke coming out of the chimney the India team is experiencing. 
@@ -380,6 +904,29 @@
   <si>
     <t>Hot Test # 77 - 5/23/22
 Outcome: 1</t>
+  </si>
+  <si>
+    <t>Error:{"error":{"code":502,"message":"Bad gateway.","param":null,"type":"cf_bad_gateway"}}</t>
+  </si>
+  <si>
+    <t>Hot Test # 77 - 5/23/22 
+Personnel: Eymon, Austin, Gabriella, Cerise, Kevin 
+Hypothesis: Using rice straws to replicate the smoke coming out of the chimney the India team is experiencing. 
+Settings: Primary at 4000 rpm, secondary at 3000 rpm. Auger at 10 rpm. 
+Outcome: Not able to replicate the chimney smoke the India team was experiencing due to the difference in design in the prototype at RFS. The test was stopped because the hopper caught fire, most likely due to ember falling down to the hopper section. Smoke, and some ashes were coming out from the chimney. Smoke was also escaping from the cracks. 
+Notable observations: 
+- No hopper, instead rice straws were manually fed in.  
+- Was not able to replicate India’s chimney smoke partly because of the new square section. 
+Next Steps: Replicate a similar design to India’s prototype in order to produce the chimney smoke they are experiencing. Identify the reason for the chimney smoke, and possible solutions. 
+Thermocouple history: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test #77 - 5/23/22
+Reaction successful or not: 0
+Reason: The test was not successful as the objective of replicating the chimney smoke experienced by the India team was not achieved, and the hopper caught fire, indicating a failure in the combustion process.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the thermocouple history is missing or not mentioned in the example. The thermocouple measurements are crucial for understanding the temperature distribution within the reactor during the combustion process. It would be helpful to have data from the thermocouples to analyze the temperature profiles and identify any potential issues or variations in the experiment.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 78 - 5/26/22 
@@ -399,6 +946,32 @@
   </si>
   <si>
     <t>Hot Test # 78 - 5/26/22: 1</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment involved testing the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment specifically focused on running a hot test using rice straw as the biomass, with the reactor set at a 30° configuration.
+The settings of the experiment included primary blowers set at 3000, secondary blowers set at 4000, and the auger rotating at 10 rpm. The reactor exit was connected to a black bag, and a large chimney was used. The weather conditions during the test were described as partly cloudy, very windy, and chilly.
+The outcome of the test indicated that approximately 2kg of char was achieved, but steady state was not reached. There was uncertainty about whether the char obtained was from a previous test. Several notable observations were made during the test, including the presence of yellowish smoke coming out of the chimney and cracks of the reactor, ash particles visible from the top of the chimney, and the auger jamming and flipping the breaker switch. Additionally, a hopper fire occurred during the test.
+To address the issues encountered in this test, the next step proposed is to start the test with an established fire using wood chips instead of rice straw. It is suggested that wood chips may provide a more sustainable heat source compared to the quickly burning straw.
+The provided information does not include any specific data from the thermocouples. If there is any thermocouple data available, it would be helpful to analyze it to gain further insights into the temperature profiles and behavior during the test.</t>
+  </si>
+  <si>
+    <t>Hot Test #78 - 5/26/22
+Reaction successful or not: 0
+Explanation: The test was not successful due to several issues including the hopper fire, auger jamming, and the inability to achieve steady state. The presence of yellowish smoke and ash particles indicates incomplete combustion and potential issues with the reactor design or operating conditions.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to test the combustion process and machine design using rice straw as the biomass. However, the test encountered several issues and did not reach a steady state. Here are some observations and next steps:
+Observations:
+1. Yellowish smoke was observed coming out of the chimney and cracks of the reactor.
+2. Ash particles were visible coming from the top of the chimney.
+3. The auger was jamming and flipping the breaker switch.
+4. The hopper caught fire.
+5. The use of a propane blower reduced the amount of smoke coming through the chimney.
+Next Steps:
+1. The next test will start with an established fire using wood chips instead of straw. This is because the straw may burn too quickly, making it difficult to sustain heat.
+2. It is recommended to investigate and address the issues with the auger jamming and the hopper catching fire.
+3. Further analysis of the thermocouple data is needed to understand the temperature distribution and any potential correlations with the observed issues.
+Please note that without access to the detailed data and experimental setup, it is challenging to provide a comprehensive analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 79 - 5/31/22 
@@ -438,6 +1011,33 @@
     <t>Hot Test # 79 - 5/31/22: 1</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment involved testing the combustion of biomass (specifically rice straw) in a newly designed small-sized reactor. The reactor was set at a 30° configuration, and woodchips were used to ignite the biomass. The primary blowers provided air (oxygen) to the reactor zone, while the secondary blowers removed volatiles through the chimney.
+During the experiment, approximately 0.9kg of char was achieved, but steady state was not reached. Most of the char was from the woodchips, although there was also a good amount of straw char. The test had to be stopped due to hopper fires caused by insufficient packing of the rice straw, allowing oxygen to flow into the hopper and ignite the flame. Minimal ash and smoke were observed coming from the chimney.
+The reactor maintained a temperature of around 240°F, but the test could not be sustained. The hopper caught fire twice, indicating the need for better packing of the biomass to prevent oxygen ingress. The char produced appeared to be well done.
+The next steps suggested include continuously packing the rice straw in order to prevent hopper fires caused by oxygen ingress. It is also mentioned that thermocouple data was collected, but the details of the thermocouple history are not provided.
+If you have any specific questions or require further analysis of the experiment, please let me know.</t>
+  </si>
+  <si>
+    <t>Hot Test #79 - 5/31/22
+Yield: ~0.9kg of char (mostly from woodchips)
+Thermocouple history: Not provided
+Note: The test had to be stopped due to hopper fires caused by insufficient packing of rice straw, leading to oxygen flow and ignition.</t>
+  </si>
+  <si>
+    <t>Hot Test #79 - 5/31/22
+Reaction successful or not: 0
+Reason: The test was not able to be sustained due to hopper fires caused by insufficient packing of rice straw, leading to oxygen flow and ignition in the hopper.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment involves testing the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment uses a hopper to input biomass, an auger to carry the biomass into the reactor, and primary blowers to provide air (oxygen) to the reactor zone. Secondary blowers remove volatiles through a chimney. Thermocouples are used to measure temperature at different places.
+In the example hot test, the secondary blower speed was set to 5. However, it is not mentioned in the example whether the secondary blower speed was specified or not.
+The objective of the experiment is to gain a complete understanding of the combustion process and machine design by testing different hypotheses. In the example hot test, the hypothesis was to run a test using rice straw with the reactor in a 30° configuration, while using woodchips to ignite. The settings for the hot test included primary blower speed of 3000, secondary blower speed of 2000, and auger speed of 10 rpm. The reactor was set at 30° and the reactor exit was a black bag. A large chimney was used.
+The outcome of the hot test was the achievement of approximately 0.9kg of char, but steady state was not reached. Most of the char was from the woodchips, although there was also a good amount of straw char. The test had to be stopped due to hopper fires caused by rice straw not being packed tightly enough or fast enough, leading to oxygen flowing into the hopper and igniting the flame. Minimal ash and smoke were observed coming from the chimney.
+Notable observations included the reactor maintaining a decently high temperature (around 240°F), but the test could not be sustained. The hopper caught fire twice. Low amounts of smoke and ash were observed coming from the chimney. The char produced looked well done.
+The next steps mentioned in the example were to continuously pack the rice straw in the next test to prevent oxygen from entering and causing hopper fires.
+No information is provided about the thermocouple history.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 80 - 6/1/22 
 Personnel: Austin, Gabriella, Eymon, Cerise, Charu (Austin was playing supervisory role) 
 Hypothesis: To run a hot test using rice straw with the reactor in a 30° configuration, while using the woodchips to ignite. Investigate if aggressively feeding the hopper will help prevent hopper fire 
@@ -454,6 +1054,10 @@
  </t>
   </si>
   <si>
+    <t>Reaction successful or not: 0
+Explanation: The hot test was not successful due to multiple issues including auger jamming, hopper fire, knocking/screeching noises from the reactor body, and inability to reach steady state.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 81- 6/6/22 
 Personnel: Austin, Gabriella, Eymon, Cerise, Charu, Elliot, Shadi(Austin was playing supervisory role) 
 Hypothesis: To run test with mulched rice straw to prevent auger jamming and hopper fires. Ensure straw is fed aggressively into the hopper and packed.  
@@ -470,6 +1074,33 @@
 </t>
   </si>
   <si>
+    <t>Auger speed: 10 rpm</t>
+  </si>
+  <si>
+    <t>reaction successful or not: 0</t>
+  </si>
+  <si>
+    <t>Primary blower speed: 3000
+Secondary blower speed: 2000
+Auger speed: 10 rpm
+Reactor temperature: 30°C
+Reactor exit: Black bag
+Chimney: Large
+Notable observations:
+- Auger jammed and stopped 3 times, requiring reverse direction operation
+- Hopper caught on fire
+- Knocking/screeching noises from reactor body
+- Could not reach steady state
+- Electrical issue investigated
+Next steps:
+- Replace the breaker to ensure it is not the problem
+- Try feeding the mulch at a faster rate
+- Disassemble the machine to investigate a mechanical issue</t>
+  </si>
+  <si>
+    <t>Secondary blower speed: 2000 rpm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 82 – 06/07/22 
 Personnel: Austin, Gabriella, Eymon, Cerise, Charu, Elliot, Shadi(Austin was playing supervisory role) 
 Hypothesis: To run a test with rice hulls to compare its performance against rice straw. Wanted to reduce auger jams.  
@@ -483,6 +1114,26 @@
 Replace the braker to ensure that it is not the problem (with respect to jamming). Potentially run blowers at faster rates to maintain high temperatures.  
 Thermocouple history: 
 </t>
+  </si>
+  <si>
+    <t>Hot Test #82 – 06/07/22 
+Yield: N/A
+Notable Observations:
+- Buildup of rice hull char within the reactor caused the temperature to gradually decrease over time.
+- No notable problems with jamming, but occasionally the auger stopped turning and needed to be restarted.
+- Knocking/screeching noises coming from reactor body.
+- Potentially reached a steady state, but the temperature was much too cold.
+- Electrical issue is investigated (similar to previous hot test).
+Next Steps:
+- Replace the breaker to ensure that it is not the problem (with respect to jamming).
+- Potentially run blowers at faster rates to maintain high temperatures.</t>
+  </si>
+  <si>
+    <t>Reaction successful or not: 0
+Explanation: The buildup of rice hull char within the reactor caused a decrease in temperature over time, indicating that the combustion process was not successful in maintaining high temperatures.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the thermocouple history is not mentioned in the example hot test.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 83 – 06/13/22 
@@ -503,6 +1154,37 @@
 	 </t>
   </si>
   <si>
+    <t>The auger speed for the hot test was 6 rpm.</t>
+  </si>
+  <si>
+    <t>Hot Test #83 – 06/13/22
+Outcome: N/A (No yield reported)
+Notable Observations:
+- The motor kept spinning while the auger was stopped for about 5 seconds.
+- Auger trips in the beginning using woodchips.
+- Some ash coming out of the chimney.
+- No significant smoke after the rice hulls went down.
+- Rice hulls building up very high in the reactor.
+- Smoke coming out of cracks.
+- Mixed char, first barrel around 16 kg, second barrel around 12 kg.
+Next Steps:
+- Use fewer woodchips at a time or push woodchips through the combustion chamber instead of pushing them through the reactor.
+- Investigate what could be causing possible jamming while rice hulls are being fed into the reactor.</t>
+  </si>
+  <si>
+    <t>Primary blower speed: 4000
+Secondary blower speed: 2000
+Auger speed: 6 rpm
+Reactor temperature: 30°C
+Reactor exit: Black bag
+Chimney: Large
+Outcome: The experiment was not successful. There was a lot of buildup in the reactor body from the rice hulls, but no jamming occurred. Smoke was observed towards the end of the experiment. The motor kept spinning while the auger was stopped for about 5 seconds. The auger initially tripped using woodchips. Some ash was coming out of the chimney. After the rice hulls went down, there was no significant smoke. The rice hulls built up very high in the reactor, and smoke was coming out of cracks. The mixed char in the first barrel was around 16 kg, and in the second barrel, it was around 12 kg.
+Next steps: The next steps include using fewer woodchips at a time or pushing woodchips through the combustion chamber instead of the reactor. It is also important to investigate the possible causes of jamming while rice hulls are being fed into the reactor.</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for the hot test was 2000.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 84 – 07/08/22 
 People: Austin, Elliot, Shadi, Yiyang, Bernard 
 Hypothesis: This is the first test with the new auger. Wanted to see how this auger would perform.  
@@ -516,6 +1198,19 @@
 Next Steps: 
 We could potentially find a way to block off the chimney to keep biomass moving through the reactor without buildup. We could potentially switch the augers – having the slow pitch auger at the bottom and the fast pitch auger at the top. To reduce the smoke, emitting from the cracks in the reactor, we will need to line it.  
  </t>
+  </si>
+  <si>
+    <t>The auger speed for this hot test was 6.</t>
+  </si>
+  <si>
+    <t>Reaction successful or not: 0
+Explanation: The test was not successful due to the buildup of rice hulls in the reactor, which caused excessive smoke and blocked the chimney, leading to smoke escaping through cracks in the reactor hull.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test is 4000.</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for this hot test is 3000.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 85 – 07/12/22 
@@ -534,6 +1229,38 @@
 Is the new auger affecting the amount of air getting from hopper to the combustion zone? We ended shutting it down b/c the fire descended to the hopper underneath.  
 Kevin’s recommendation – If the same person (e.g. Austin) had been shoving biomass, have the same person shove to see if human is a factor here. If Austin can’t be there, then work on other things, such as having the same (Gabriella/Eymon) people shove but increase the auger speed for wood chips.  
 </t>
+  </si>
+  <si>
+    <t>The auger speed for the hot test #85 was 6.</t>
+  </si>
+  <si>
+    <t>Hot Test #85 – 07/12/22
+Yield: N/A
+Notable Observations:
+- Thermocouple 5 and 6 were switched (need to transpose when creating data)
+- Fire was extremely hot, a lot of air but not a lot of fuel
+- Lack of woodchips may have been due to bridging in auger and lack of flow
+- Auger jams less, though friction between reactor walls and auger parts persists
+Next Steps:
+- Try to figure out how to increase flowability of woodchips so there is more fuel for the amount of air being pushed into the machine. Solutions could include speeding up the auger or using smaller/less fibrous woodchips.
+- Investigate if the new auger is affecting the amount of air getting from the hopper to the combustion zone. The fire descended to the hopper underneath, so this needs to be addressed.
+- Kevin's recommendation is to have the same person (e.g. Austin) shove biomass to see if the human factor is influencing the results. If Austin is unavailable, then consider having the same people (Gabriella/Eymon) shove biomass but increase the auger speed for wood chips.</t>
+  </si>
+  <si>
+    <t>Hot Test #85 - 07/12/22
+Output char quality: N/A
+Explanation: The experiment did not report the output char quality, so there is no information available to determine the quality of the biochar produced in this test.</t>
+  </si>
+  <si>
+    <t>Hot Test #85 - 07/12/22
+Reaction successful or not: 0
+Reason: The reaction was not successful because there were not enough woodchips for the amount of air being pushed into the machine, resulting in high temperatures but not enough material being burned.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the hot test #85 was 2000.</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for this experiment was 3000.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 86 – 07/13/22 
@@ -556,6 +1283,33 @@
  </t>
   </si>
   <si>
+    <t>Based on the information provided, it seems that the main issue in this hot test was the jamming of the auger. The auger flights, particularly on the left side, were packed tightly and caused the auger to stop running multiple times during the test. This resulted in a failure of the experiment, as the auger was unable to run continuously.
+Additionally, yellow smoke was observed emitting from cracks in the reactor, indicating incomplete combustion. The reactor fire also had difficulty being maintained at certain points during the test. Practically no biochar was collected, with only ash being obtained at the end.
+The auger itself was found to be significantly warped, with a large gap between the new auger and the welded piece on the top auger. This suggests that auger warping occurs more quickly than anticipated.
+To address these issues, the most important next step would be to fix the gap between the auger flights. This could potentially be achieved by adjusting the design or materials used for the auger. It may also be beneficial to test different biomass feedstocks to assess the impact of the gap on the overall performance.
+Additionally, further investigation into the causes of the jamming and incomplete combustion should be conducted. This could involve analyzing the properties of the biomass, such as size, moisture content, and composition, as well as examining the airflow and temperature distribution within the reactor.
+Overall, the next steps should focus on improving the design and operation of the auger system to ensure continuous and efficient biomass combustion, as well as addressing the issues related to reactor performance and biochar production.</t>
+  </si>
+  <si>
+    <t>Reaction successful or not: 0
+Explanation: The hot test was a failure due to multiple issues including the auger jamming and stopping, tight packing of woodchips in certain areas of the auger flights, yellow smoke emitting from cracks in the reactor, difficulty in maintaining the reactor fire, and minimal biochar collected at the end of the test.</t>
+  </si>
+  <si>
+    <t>Based on the information provided, it seems that the main issue in this hot test was the jamming of the auger. The auger flights, particularly on the left side, were packed tightly and caused the auger to stop running multiple times during the test. This resulted in a failure of the experiment, as the auger was unable to run continuously.
+Additionally, yellow smoke was observed emitting from cracks in the reactor, indicating incomplete combustion. The reactor fire also had difficulty being maintained at certain points during the test. 
+Practically no biochar was collected at the end of the test, with only ash being collected. This suggests that the biomass was not effectively converted into biochar.
+The auger itself was found to be significantly warped, with a large gap between the new auger and the welded piece on the top auger. This warping may have contributed to the jamming issues experienced during the test.
+Based on these observations, the next steps would involve fixing the gap between the auger flights to prevent jamming. It may also be beneficial to test a different biomass to assess the impact of the auger gap on the overall process. Additionally, further investigation into the causes of auger warping should be conducted, as it appears to occur more quickly than anticipated.
+The provided picture observations and video of the jam could be helpful in analyzing the issues and identifying potential solutions.</t>
+  </si>
+  <si>
+    <t>Based on the information provided, it seems that the main issue in this hot test was the jamming of the auger. The auger flights, particularly on the left side, were packed tightly, leading to frequent jams and the need to remove biomass and run the auger backwards to clear the jam. This suggests that the design of the auger or the feeding mechanism may need to be modified to prevent jamming.
+Additionally, yellow smoke emitting from cracks in the reactor indicates incomplete combustion, which could be due to insufficient oxygen supply or improper mixing of biomass and air. The difficulty in maintaining the reactor fire during some portions of the test further supports this observation.
+The lack of biochar collected at the end of the test and the presence of ash instead suggest incomplete conversion of biomass to biochar. This could be due to the inefficient combustion process or the high temperature causing excessive ash formation.
+The significant warping of the auger, with a noticeable gap between the new auger and the welded piece on the top auger, is another issue that needs to be addressed. Auger warping can affect the feeding and combustion process, leading to further jamming and incomplete combustion.
+Based on these observations, the next steps should include fixing the gap between the auger flights to prevent jamming and testing different biomass types to assess the impact of the gap on the overall performance. Additionally, further investigation into the combustion process, oxygen supply, and mixing of biomass and air should be conducted to optimize the design and operation of the reactor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 87 – 07/15/22 
 People: Austin, Shadi, Elliot, Yiyang 
 Hypothesis:  Use woodchips again to see if we can stop the consistent jamming.  
@@ -568,6 +1322,41 @@
 Next Steps: 
 Look into making smaller woodchips to possibly prevent jamming. Or we should try to use different biomasses and restocks and avoid big woodchips. Also, we could lower the reactor angle to prevent the pilling of woodchips and rice hulls. 
  </t>
+  </si>
+  <si>
+    <t>Hot Test #87 – 07/15/22
+People: Austin, Shadi, Elliot, Yiyang
+Hypothesis: Use woodchips again to see if we can stop the consistent jamming.
+Settings: Primary 2500, Secondary 4000, auger 6, Reactor at 30°, reactor exit black bag. Large chimney. Primary air at B10/B12.
+Outcome: Not good. Auger jammed about 7 times even before it was lit. There was lots of smoke coming from the body from the reactor. The char was well charred.
+Notable Observations:
+- Auger jammed multiple times
+- Some noises coming from reactor after we would reverse the motor to stop jamming
+- Woodchips started pulling up like the rice hulls causing smoke from the chimney
+Next Steps:
+- Look into making smaller woodchips to possibly prevent jamming.
+- Try using different biomasses and restocks to avoid big woodchips.
+- Lower the reactor angle to prevent the piling of woodchips and rice hulls.</t>
+  </si>
+  <si>
+    <t>Primary blower speed: 2500
+Secondary blower speed: 4000
+Auger speed: 6
+Reactor temperature: 30°C
+Reactor exit: Black bag
+Chimney: Large
+Primary air: B10/B12
+Notable observations:
+- Auger jammed multiple times
+- Noises coming from reactor after reversing the motor to stop jamming
+- Woodchips started pulling up like rice hulls, causing smoke from the chimney
+Next steps:
+- Investigate making smaller woodchips to prevent jamming
+- Explore using different biomasses and restocks, avoiding large woodchips
+- Lower the reactor angle to prevent piling of woodchips and rice hulls</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for this hot test is 4000.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 88 – 07/16/22 
@@ -590,6 +1379,36 @@
  </t>
   </si>
   <si>
+    <t>Based on the provided information, here is an example answer:
+The experiment conducted on July 16, 2022, aimed to test the hypothesis that moving the primary blower position down two notches (from B10/B12 to B4/B6) would resolve the issue of wood chip jamming. The feedstock used was wood chips collected from the City of Berkeley.
+The results of the experiment showed that the conveyance of wood chips was initially very slow, and the auger had to be stopped multiple times for the reaction to catch up. White smoke started emerging from the chimney, accompanied by the loss of a visible flame. Eventually, after approximately 1.5 hours, the charred wood chips started piling up below the chimney section, leading to more frequent motor tripping. This accumulation of wood chips caused the channels for air flow to be blocked, resulting in more backflow through the hopper. The thermocouple readouts were also observed to be anemic throughout the process.
+The output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%. It was noted that parts of the char output were not fully charred. The input flow rate of wood chips was around 50 kg/h, which slowed down over time.
+Other observations included the absence of hot embers sliding down to the hopper region during the hopper fire and the minimal emission of ashes from the chimney. The reaction zone initially aimed to be halfway through S4 but advanced closer to the base of the chimney as the test progressed. Hot gases were observed flowing in two directions through the S6 port at the chimney, indicating that the reaction persisted beyond the chimney region.
+During the first half of the test, only one secondary blower was operational due to command issues with the other blower (blower C). However, the connections of blower C were replaced, and it was put back into service for the latter half of the test.
+The next steps suggested in the experiment report include testing a more flowable material (e.g., rice hulls) to determine if the accumulation problem persists, lowering the reactor angle to 15 degrees to prevent char from falling backward, considering the impact of the auger design on wood chip compression, and repositioning the primary blowers to a higher circumferential position to address potential flow constriction issues.
+Please note that this is just an example answer based on the provided information, and further analysis and investigation may be required to fully understand the combustion process and machine design.</t>
+  </si>
+  <si>
+    <t>Input flow rate: 50 kg/hour</t>
+  </si>
+  <si>
+    <t>Output flow rate: 7.5 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test # 88 – 07/16/22
+Yield: 15%</t>
+  </si>
+  <si>
+    <t>reaction successful or not: 0
+Explanation: The experiment was not successful because the wood chips jammed the reactor, causing slow conveyance, white smoke, and eventually a hopper fire. The thermocouple readouts were anemic and the char output was mixed.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the primary objective of the experiment was to resolve the issue of wood chip jamming by moving the primary blower position down. However, the results of the experiment showed that the conveyance of wood chips was very slow initially, and the auger had to be stopped multiple times for the reaction to catch up. Eventually, the charred wood chips started piling up below the chimney section, causing motor tripping and a hopper fire. The white smoke observed in the chimney and hopper may have been caused by blocked air flow channels due to the piling wood chips. The thermocouple readouts were anemic throughout the process. The char output was mixed, with some parts not fully charred. The input flow rate of wood chips was approximately 50 kg/h, which slowed over time, and the output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%.
+Other observations include no hot embers sliding down to the hopper region during the hopper fire, very few ashes emitted from the chimney, the reaction zone advancing closer to the base of the chimney over time, and hot gases flowing in two directions from the lower and upper sectors of the reactor.
+The next steps suggested in the experiment include testing a more flowable material with increased hydrostatic head to address the accumulation problem below the chimney, lowering the reactor angle to 15 degrees to prevent char from falling backwards, testing a new 6'' auger or running the reaction at high temperatures to mitigate the accumulation effect, and repositioning the primary blowers to a higher circumferential position to address potential flow constriction caused by ash/char accumulation in the NPT pipe.
+Example Answer: The experiment aimed to resolve wood chip jamming by moving the primary blower position down two notches. However, the results showed slow conveyance of wood chips, frequent auger stops, and the formation of a pile of charred wood chips below the chimney section. This led to motor tripping and a hopper fire. The white smoke observed in the chimney and hopper may have been caused by blocked air flow channels due to the piling wood chips. The thermocouple readouts were anemic, and the char output was mixed. The input flow rate of wood chips was approximately 50 kg/h, which slowed over time, and the output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%. The next steps suggested include testing a more flowable material with increased hydrostatic head, lowering the reactor angle, testing a new 6'' auger, and repositioning the primary blowers to a higher circumferential position.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 89 – 07/18/22 
 People: Shadi, Charu, Vidyut, Kevin 
 Hypothesis: Wood chip jamming may be resolved if we move the primary blower circumferentially up.  
@@ -605,6 +1424,44 @@
 Another direction to explore is to switch to rice husks (which we have some left), to try to see if the same setup as today would solve the “accumulation” issue described there. Given that rice husks are more flowable than wood chips, we could reasonably test it at S10, which is one notch above our regular B10/B12 position. We could possibly do another rice husk test at S4, but our potential concern with this horizontal location is that, based on past experience, the rice husk charring doesn’t seem to proceed too well, and sometimes a stable steady state cannot be reached when the primary air is injected horizontally into the reactor. Plus hopper smoke is more likely at S4.  
 A third thing we could test is that, if we repeat one of the previous hot tests (e.g. #88, 7/16/22) that xresult in the “accumulated” biomass below the chimney, but keep the primary air very high, is there a minimum flow rate at which, despite the growing blockage of the NPT tube leading into the reactor chamber, the primary blowers are still capable of delivering a minimum flow needed to stably maintain the reaction? This could be tested by ramping the primary air to 8700 RPM at B4/B6. However, this may not be a realistic experiment given the significant risk for exacerbated hopper smoke and fire.  
  </t>
+  </si>
+  <si>
+    <t>Based on the provided information, here is an example answer:
+The experiment conducted in Hot Test #89 aimed to resolve the issue of wood chip jamming by moving the primary blower circumferentially up. The primary blower position was moved from B4/B6 to S4. However, the desired positions of S8 or S9 could not be achieved due to stuck NPT ports. The auger motor was set at 6 RPM with a 50% duty cycle in the latter half of the test. The primary air was initially set higher and gradually reduced to 2000 RPM, while the secondary air was gradually increased to 7000 RPM. The inclination of the reactor was set at 30 degrees.
+The feedstock used in this test was wood chips collected from the City of Berkeley. Throughout the experiment, the reaction conditions were adjusted to control the temperature and smoke production. Initially, the reaction ran cold with high accumulation below the chimney, consisting of charred and uncharred wood. The biomass had to be repeatedly lit, and thick smoke was observed from both the chimney and the hopper. It appeared that the reaction was primarily occurring underneath the chimney, resembling the primary reaction zone rather than the secondary combustion chamber. However, the auger did not jam or trip during the test.
+To improve the reaction conditions, the auger speed was reduced by running the motor at 6 RPM for 50% of the time. This led to a hotter and less smoky steady state, where the accumulation problem below the chimney was resolved. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone. The feedstock in this zone was well-charred, and the level of biomass reduced to or below the auger flight level. The hopper smoke also improved by diligently filling the voids and eliminating any smoking. Towards the end of the test, the hopper was filled to full height, further reducing hopper smoke.
+The experiment also highlighted some potential factors contributing to hopper smoke, such as the position of the primary blower. It was suggested that moving the primary blower circumferentially one notch down, to positions like S8, S9, or S10, could be tested in the future. The variable pitch auger was also considered as a possible cause of the accumulation problem, but it was observed that the reduction in biomass volume below the chimney allowed sufficient space for primary air to escape into the chimney.
+The feedrates and yields were analyzed for the faster and slower sections of the test. In the faster section, the char output was approximately 28.7 kg/h, and the biomass feed was around 96.1 kg/h, resulting in a yield of 29.8%. In the slower section, the char output was about 29.1 kg/h, and the biomass feed was approximately 71.8 kg/h, giving a yield of 41%. The quality of the char showed slight inhomogeneity, possibly due to the position of the primary blower.
+Based on the observations and results of this experiment, it was concluded that the hypothesis of wood chip jamming being resolved by moving the primary blower circumferentially up was supported. However, further validation is recommended by repeating a previous hot test that resulted in biomass accumulation below the chimney and observing the slanted pipe leading from the primary blower to the reactor input. Additionally, testing with rice husks and exploring the minimum flow rate needed to maintain the reaction despite blockage of the NPT tube were suggested as future directions for investigation.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the input flow rate for the hot test is not explicitly mentioned. Therefore, the answer is N/A.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the output flow rate for the hot test is not explicitly mentioned. Therefore, the answer is N/A.</t>
+  </si>
+  <si>
+    <t>Hot Test #89 – 07/18/22
+Yield: [29.8%, 41%]</t>
+  </si>
+  <si>
+    <t>Hot Test #89 - 07/18/22
+Reaction successful or not: 1
+Explanation: The reaction was initially running too cold and smoky, but after reducing the auger speed and adjusting the primary blower position, the reaction became hotter and less smoky, resulting in a steady state with well-charred biomass and reduced accumulation below the chimney.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, here is an example answer:
+The primary blower speed for Hot Test #89 was not explicitly mentioned in the experiment description. Therefore, the answer would be N/A (not applicable).
+Please note that this answer is based on the information provided and may not reflect the actual experimental conditions.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, here is an example answer:
+The primary objective of the experiment was to resolve the issue of wood chip jamming in the reactor by moving the primary blower circumferentially up. The experiment involved moving the primary blower position from B4/B6 to S4. However, the desired positions of S8 or S9 could not be achieved due to stuck NPT ports. The auger motor was set at 6 RPM with a 50% duty cycle in the latter half of the experiment. The primary air was initially set higher and gradually reduced to 2000 RPM, while the secondary air was gradually increased to 7000 RPM. The inclination of the reactor was set at 30 degrees.
+The feedstock used in the experiment was wood chips collected from the City of Berkeley. Initially, the reaction ran very cold and there was a high accumulation of mixed charred and uncharred wood below the chimney. The biomass had to be repeatedly lit, and thick smoke was observed from both the chimney and the hopper. The auger did not jam or trip during the experiment. The reactor consumed a significant amount of wood chips (around 96 kg/h), making it challenging to maintain the feed rate.
+To address the cold and smoky reaction, the auger speed was reduced to a 50% duty cycle at 6 RPM. This led to a second steady state with higher temperature and less smoke, where the accumulation problem below the chimney was resolved. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone. The hopper smoke also improved as voids were filled more diligently. Towards the end of the experiment, the hopper was filled to full height, eliminating hopper smoke.
+The experiment yielded two sections, a faster section and a slower section. In the faster section, the char out was approximately 28.7 kg/h, and the biomass feed was around 96.1 kg/h, resulting in a yield of 29.8%. In the slower section, the char out was approximately 29.1 kg/h, and the biomass feed was around 71.8 kg/h, resulting in a yield of 41%.
+The hypothesis that wood chip jamming could be resolved by moving the primary blower circumferentially up was supported by the experiment. However, further validation is required by repeating a previous hot test that resulted in biomass accumulation below the chimney and observing the slanted pipe leading from the primary blower to the reactor input. It is suggested to test this hypothesis with wood chips when more stock is available. Additionally, exploring the use of rice husks as a feedstock and testing different primary blower positions could provide further insights into the combustion process and machine design.
+One potential direction for future experiments is to investigate the minimum flow rate at which the primary blowers can stably maintain the reaction despite the growing blockage of the NPT tube leading into the reactor chamber. However, caution should be exercised due to the risk of hopper smoke and fire.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 90 – 07/19/22 
@@ -633,6 +1490,72 @@
 </t>
   </si>
   <si>
+    <t>The experiment had an auger speed of 6 rpm.</t>
+  </si>
+  <si>
+    <t>Hot Test #90 – 07/19/22
+Staff: Charu, Vidyut, Eymon
+Biomass: Rice husk
+Hypothesis to test: Circumferentially raising the primary air blower position will prevent biomass from falling into the air ducting elbow and thus reduce pressure loss of air entering the reactor. This will enable air to mix better within the biomass bed, devolatilize biomass more, and hence reduce the height of the biomass/char accumulating in the chimney.
+Observations:
+- Char accumulated in the chimney, causing it to become completely packed. This occurred even when the air inlet ducts were not filled with char.
+- The auger jammed due to char accumulation at the chimney, even when the biomass level in the hopper was low.
+- Increasing the secondary air blower speed to 8000 rpm increased devolatilization and prevented auger jamming.
+- Char fell back near the hopper, potentially from the accumulated char in the chimney, but the rate of fall back did not compensate for the rate of accumulation in the chimney.
+- The output was highly undercharred, indicating a shorter residence time in the hot zone.
+- Consistent smoke was observed from the hopper, likely due to char falling back.
+- Chimney emissions were clean.
+- Positive pressure was maintained throughout the reactor, including the chimney.
+Takeaways:
+- Accumulation in the chimney for rice husks is due to gravity and aggravated by the smaller pitch of the variable pitch auger, not due to char accumulating in the air ducting.
+- To investigate: 
+  1. Does reducing the angle of inclination to 15 degrees address the issues of chimney build-up, auger jamming, and hopper smoke?
+  2. Does increasing the primary air blower speed from 3000 rpm to a higher value lead to more severe and even charring?
+  3. Does bringing the primary air blower back towards the hopper (at the same circumferential height) increase the hot region residence time and devolatilize the biomass more before it reaches the chimney? This may help in volumetric reduction of biomass prior to reaching the chimney.
+Other:
+- Char completely filled up until the chute height. The weight of the scale value for rice husks at which the drum becomes full has been noted for future reference.
+- All NPT couplings have been opened, except for one (2nd from the chimney, 2nd from the lowest circumferential position, towards the side facing the shed).
+Example Hot Test: [N/A]</t>
+  </si>
+  <si>
+    <t>Hot Test #90 - 07/19/22
+Staff: Charu, Vidyut, Eymon
+Biomass: Rice husk
+Hypothesis to test: Circumferentially raising the primary air blower position will prevent biomass from falling into the air ducting elbow and thus reduce pressure loss of air entering the reactor. This will enable air to mix better within the biomass bed, devolatilize biomass more, and hence reduce the height of the biomass/char accumulating in the chimney.
+High-level summary:
+- Char accumulated in the chimney, causing jamming of the auger even when the biomass level in the hopper was low.
+- Increasing the secondary air flow rate to 8000 rpm increased devolatilization and prevented auger jamming.
+- Char fell back near the hopper, but the rate of fall back did not compensate for the rate of accumulation in the chimney.
+- Output was highly undercharred, possibly due to a short hot zone length and lower residence time.
+- Consistent smoke was observed from the hopper, caused by char falling back.
+- Chimney emissions were clean, and there was positive pressure throughout the reactor.
+Takeaway:
+- Accumulation in the chimney is due to gravity and aggravated by the smaller pitch of the variable pitch auger, not due to char accumulating in the air ducting.
+- Investigate if reducing the angle of inclination to 15 degrees addresses the issues of chimney build-up, auger jamming, and hopper smoke.
+- Investigate if increasing primary air from 3000 to a higher value leads to more severe and even charring.
+- Investigate if bringing the primary air back towards the hopper (at the same circumferential height) increases the hot region residence time and devolatilizes the biomass more before reaching the chimney, helping in volumetric reduction of biomass.
+Other:
+- Char completely filled up until the chute height, and the weight of the scale value for rice husks at which the drum becomes full has been noted for future reference.
+- NPT couplings have been opened, except for one (2nd from chimney, 2nd from the lowest circumferential position, towards the side facing the shed).</t>
+  </si>
+  <si>
+    <t>Hot Test #90 - 07/19/22
+Reaction successful or not: 0
+Reason: The accumulation of char in the chimney, undercharring of the final output, and the jamming of the auger indicate that the combustion process was not successful.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the experiment is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Based on the information provided, it seems that the experiment is focused on understanding the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment involves testing different hypotheses related to the combustion process and machine design.
+In this specific hot test, the objective is to test the hypothesis that circumferentially raising the primary air blower position will prevent biomass from falling into the air ducting elbow, reduce pressure loss of air entering the reactor, improve air mixing within the biomass bed, increase devolatilization of biomass, and reduce the height of biomass/char accumulating in the chimney.
+The experiment was conducted using rice husk as the biomass. The initial parameters selected for the experiment were: auger speed of 6 rpm (50% duty cycle with a 12-inch pitch auger), primary air blower speed of 3000 rpm, secondary air blower speed of 4000 rpm, and an angle of inclination of 30 degrees.
+The high-level summary of the experiment indicates that char accumulated in the chimney, causing the auger to jam. Increasing the secondary air blower speed to 8000 rpm helped increase devolatilization and prevent auger jamming. Char also fell back near the hopper, but the rate of fall back did not compensate for the rate of accumulation in the chimney. The output was undercharred, possibly due to a short hot zone length and lower residence time. Smoke was observed from the hopper, which was attributed to char falling back. The chimney emissions were clean, and there was positive pressure throughout the reactor.
+Based on the observations, it is concluded that accumulation in the chimney is due to gravity and the smaller pitch of the variable pitch auger. It is not caused by char accumulating in the air ducting. To further investigate the issue of chimney buildup, auger jamming, and hopper smoke, the experiment suggests reducing the angle of inclination to 15 degrees, increasing primary air from 3000 to a higher value, and bringing the primary air back towards the hopper at the same circumferential height to increase hot region residence time and devolatilize the biomass more before it reaches the chimney.
+Other notes from the experiment include the complete filling of char in the chute height and the weight of the scale value for rice husks at which the drum becomes full.
+In summary, the experiment provides insights into the combustion process and machine design for biomass to biochar formation. It highlights the challenges of chimney buildup, auger jamming, undercharred output, and hopper smoke. The experiment suggests potential solutions to address these issues and outlines further investigations to gain a complete understanding of the process.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test #91 – 07/20/22 
 Staff: Elliot, Vidyut, Eymon, Bernard 
 Biomass: Rice husk 
@@ -658,6 +1581,75 @@
 We were unable to open the stuck NPT couplings (S9 and S8) even with longer wrenches. </t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers provide air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment described is to achieve uniform charring and prevent auger tripping. The hypothesis being tested is that a lower rpm (duty cycle) of the auger will increase residence times and lead to more even charring. The experiment also mentions a constraint related to the smoke coming out of the hopper, which is not being addressed due to time constraints.
+The initial parameters for the experiment include an auger speed of 6 rpm with a 50% duty cycle, primary air blower at 3000 rpm, secondary air blowers at 4000 rpm, and an angle of inclination of 30 degrees. The experiment reports that char did not accumulate in the chimney as much as in previous tests, resulting in the auger not tripping. Evenly charred output was achieved, but there was consistent smoke from the hopper due to the char falling back due to the reactor's angle of inclination. Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to a higher pile of char under the chimney. The experiment also mentions negative pressure in the chimney as desired.
+The take-away from the experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system. The experiment suggests investigating the effects of reducing the angle of inclination to 15 degrees to address chimney build-up, auger jamming, and hopper smoke. Additionally, the experiment proposes exploring the impact of increasing primary air from 3000 rpm to a higher value for a duty cycle greater than 50% to achieve more severe and even charring. Another pathway of investigation mentioned is bringing the primary air back towards the hopper to increase hot region residence time and devolatilize the biomass more before it reaches the chimney.
+Lastly, the experiment mentions difficulties in opening stuck NPT couplings (S9 and S8) even with longer wrenches.
+Based on this information, it appears that the experiment is well-designed and provides valuable insights into the combustion process and machine design for biomass to biochar conversion. Further investigations and adjustments to the experimental parameters can help optimize the process and address the observed issues.</t>
+  </si>
+  <si>
+    <t>Hot Test #91 – 07/20/22
+Input flow rate: N/A
+Summary of the experiment:
+- The objective of the experiment was to achieve uniform charring and prevent auger tripping.
+- The hypothesis tested was that a lower rpm (duty cycle) would increase residence times and lead to more even charring.
+- The parameters initially selected were: Auger-6 rpm (50% duty cycle with 12 inch pitch auger), Primary air-3000 rpm, secondary air: 4000 rpm, angle of inclination: 30 degrees.
+- The primary air blower position was S10, and the secondary air blower positions were T3 and T5.
+- The experiment resulted in char not accumulating in the chimney to the same extent as previous tests, preventing the auger from tripping.
+- The output achieved was evenly charred.
+- Consistent smoke was observed from the hopper, which was attributed to the char falling back due to the angle of inclination of the reactor.
+- Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to the higher pile of char under the chimney.
+- Negative pressure was observed in the chimney as desired.
+- The takeaway from the experiment was that a lower duty cycle of the auger solved the issues of uneven charring and char accumulation in the chimney, as it reduced the rate at which biomass is drawn into the system.
+Pathways of investigation for future experiments:
+1. Does reducing the angle of inclination to 15 degrees address the issues of chimney build-up, auger jamming, and hopper smoke?
+2. For a duty cycle greater than 50%, does increasing the primary air from 3000 to a higher value lead to more severe and even charring? (for the same blower position)
+3. Does bringing the primary air back towards the hopper (but at the same circumferential height) increase the hot region residence time and devolatilize the biomass more before it reaches the chimney? This might help in volumetric reduction of biomass prior to reaching the chimney. (to be done once NPT coupling is detached)
+Other notes:
+- The NPT couplings (S9 and S8) were stuck and could not be opened even with longer wrenches.</t>
+  </si>
+  <si>
+    <t>Hot Test #91 – 07/20/22
+Yield: N/A
+Summary:
+- The experiment aimed to achieve uniform charring and prevent auger tripping.
+- The hypothesis tested was that a lower rpm (duty cycle) would increase residence times and lead to more even charring.
+- The parameters used were: Auger-6 rpm (50% duty cycle with 12-inch pitch auger), Primary air-3000 rpm, secondary air-4000 rpm, angle of inclination-30 degrees.
+- The primary air blower position was S10, and the secondary air blower positions were T3 and T5.
+- The char did not accumulate in the chimney as much as in previous tests, preventing the auger from tripping.
+- Evenly charred output was achieved.
+- Consistent smoke was observed from the hopper due to the char falling back due to the angle of inclination of the reactor.
+- Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to the higher pile of char under the chimney.
+- Negative pressure was observed in the chimney as desired.
+- The takeaway was that a lower duty cycle of the auger solved the issues of uneven charring and char accumulation in the chimney.
+- Pathways of investigation suggested for future tests include reducing the angle of inclination to 15 degrees, increasing primary air from 3000 to a higher value for a &gt;50% duty cycle, and bringing the primary air back towards the hopper to increase hot region residence time and devolatilize the biomass more before it reaches the chimney.
+- The NPT couplings (S9 and S8) were unable to be opened even with longer wrenches.
+Note: The yield value was not reported in the provided information.</t>
+  </si>
+  <si>
+    <t>Hot Test #91 - 07/20/22
+Reaction successful or not: 1
+Reason: The lower rpm (duty cycle) of the auger at 6 rpm and 50% duty cycle resulted in more even charring and prevented the auger from tripping. The char did not accumulate in the chimney as much as in previous tests, and the output was evenly charred. However, there was consistent smoke from the hopper due to the char falling back due to the angle of inclination of the reactor. The chimney emissions were mostly clean, but there was consistent ember emission, possibly due to the higher pile of char under the chimney. The negative pressure in the chimney was as desired. Overall, the lower duty cycle of the auger solved the issues of uneven charring and char accumulation in the chimney.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers provide air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment described is to achieve uniform charring and prevent auger tripping. The hypothesis being tested is that a lower rpm (duty cycle) of the auger will increase residence times and lead to more even charring. The experiment also mentions a constraint related to the smoke coming out of the hopper, which is not being addressed due to time constraints.
+The initial parameters for the experiment include an auger speed of 6 rpm with a 50% duty cycle, primary air at 3000 rpm, secondary air at 4000 rpm, and an angle of inclination of 30 degrees. The positions of the primary and secondary air blowers are also specified.
+The high-level summary of the experiment indicates that char did not accumulate in the chimney to the same extent as previous tests, preventing auger tripping. Evenly charred output was achieved, but there was consistent smoke from the hopper due to the char falling back due to the reactor's angle of inclination. Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to a higher pile of char under the chimney. The experiment also mentions negative pressure in the chimney as desired.
+The take-away from the experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system.
+The experiment suggests several pathways of investigation for further testing. These include reducing the angle of inclination to 15 degrees to address chimney build-up, auger jamming, and hopper smoke. Another pathway is to investigate if increasing the primary air from 3000 rpm to a higher value for a duty cycle greater than 50% leads to more severe and even charring. Additionally, bringing the primary air back towards the hopper at the same circumferential height could increase hot region residence time and devolatilize the biomass more before it reaches the chimney, potentially aiding in volumetric reduction of biomass.
+Lastly, the experiment mentions that the NPT couplings (S9 and S8) were stuck and could not be opened, even with longer wrenches.</t>
+  </si>
+  <si>
+    <t>Based on the information provided, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger to carry the biomass into the reactor, thermocouples to measure temperature, primary blowers for supplying air (oxygen), and secondary blowers for removing volatiles through a chimney. The objective of the experiment is to gain a complete understanding of the combustion process and machine design by testing different hypotheses.
+In the example hot test mentioned, the objective was to achieve uniform charring and prevent auger tripping. The hypothesis being tested was that a lower rpm (duty cycle) of the auger would increase residence times and lead to more even charring. The experiment used rice husk as the biomass and initially selected parameters included a 6 rpm auger with a 50% duty cycle, primary air at 3000 rpm, secondary air at 4000 rpm, and an angle of inclination of 30 degrees.
+The high-level summary of the test indicates that char did not accumulate in the chimney to the same extent as previous tests, resulting in the auger not tripping. The output achieved even charring, but there was consistent smoke from the hopper due to the char falling back due to the reactor's angle of inclination. Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to a higher pile of char under the chimney. The negative pressure in the chimney was as desired.
+The takeaway from the test was that a lower duty cycle of the auger solved the issues of uneven charring and char accumulation in the chimney, as it reduced the rate at which biomass was drawn into the system. The experiment suggests further investigations, such as reducing the angle of inclination to address chimney build-up and hopper smoke, increasing primary air for more severe and even charring, and bringing the primary air back towards the hopper to increase hot region residence time and devolatilize the biomass more before reaching the chimney.
+Additionally, the experiment mentions difficulties in opening stuck NPT couplings (S9 and S8) even with longer wrenches.
+Overall, the experiment aims to optimize the biomass combustion process and machine design by testing different parameters and hypotheses.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 92 – 07/21/22 
 Staff: Elliot, Vidyut, Charu, Bernard 
 Biomass: Rice husk 
@@ -683,6 +1675,42 @@
 Rice husks have been completely utilized </t>
   </si>
   <si>
+    <t>The experiment conducted on July 21, 2022, aimed to achieve uniform charring and prevent auger tripping during the biomass to biochar combustion process. The hypothesis tested was that increasing the primary blower rpm from 3000 to 6000 while keeping the auger at 100% duty cycle at 6 rpm would lead to even charring.
+The initially selected parameters were as follows: Auger speed - 6 rpm (100% duty cycle with a 12-inch pitch auger), primary air blower rpm - 6000, secondary air blower rpm - 4000, and angle of inclination - 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
+The high-level summary of the experiment includes the following observations:
+1. Char did not accumulate in the chimney to the same extent as in previous tests, and the auger did not trip at all. A strong flame was observed within the chimney throughout the test.
+2. Evenly charred output was achieved, which appeared to be more homogeneous compared to a previous test conducted on July 20, 2022, where the auger speed was reduced to 50% duty cycle.
+3. Smoke from the hopper was reduced by piling the biomass higher.
+4. Chimney emissions were mostly clean, but consistent ember emission was observed. This could be due to the higher pile of char under the chimney, which is then blown off directly by the secondary air blowers. The ember emission did not significantly decrease even after reducing the secondary air blower rpm to 4000.
+5. Negative pressure was observed in the chimney as desired.
+The key takeaway from this experiment is that a higher primary air value solves the issues of uneven charring, char accumulation in the chimney, and auger motor tripping.
+The suggested pathways of investigation for further experiments are as follows:
+1. Test whether reducing the angle of inclination to 15 degrees addresses the issues of chimney build-up, auger jamming, and hopper smoke.
+2. Investigate whether bringing the primary air back towards the hopper (at the same circumferential height) increases the hot region residence time and devolatilizes the biomass more before it reaches the chimney. This may help in volumetric reduction of biomass prior to reaching the chimney. This investigation should be done once the stuck NPT couplings (S9 and S8) are detached.
+It is noted that the NPT couplings (S9 and S8) were unable to be opened even with longer wrenches.
+Lastly, it is mentioned that the rice husks have been completely utilized in this experiment.</t>
+  </si>
+  <si>
+    <t>Hot Test #92 - 07/21/22: 
+Reaction successful: 1 
+Explanation: Increasing the primary blower rpm from 3000 to 6000, while keeping the auger at 100% duty cycle at 6 rpm, led to even charring and prevented auger tripping. The char did not accumulate in the chimney as much as in previous tests, and a strong flame was observed within the chimney throughout the test. The output was evenly charred and more homogeneous compared to a previous test. The smoke from the hopper was reduced by piling the biomass higher. The chimney emissions were mostly clean, although there was consistent ember emission, possibly due to the higher pile of char under the chimney. The negative pressure in the chimney was as desired. The takeaway is that a higher primary air value solves the issues of uneven charring, char accumulation in the chimney, and auger motor tripping.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on July 21, 2022, aimed to achieve uniform charring and prevent auger tripping during the biomass to biochar combustion process. The hypothesis tested was that increasing the primary blower rpm from 3000 to 6000, while keeping the auger at 100% duty cycle at 6 rpm, would lead to even charring.
+The initial parameters selected for the experiment were as follows: auger speed of 6 rpm with a 100% duty cycle and a 12-inch pitch auger, primary air blower rpm of 6000, secondary air blower rpm of 4000, and an angle of inclination of 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
+The high-level summary of the experiment's results is as follows:
+1. Char did not accumulate in the chimney to the same extent as in previous tests, and the auger did not trip at all. A strong flame was observed within the chimney throughout the test.
+2. The output achieved even charring, which appeared to be more homogeneous compared to a test conducted on July 20, 2022, where the auger speed was reduced to a 50% duty cycle.
+3. Smoke from the hopper was reduced by piling the biomass higher.
+4. Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to the higher pile of char under the chimney, which was blown off directly by the secondary air blowers. This emission did not significantly decrease even after reducing the secondary air blower rpm to 4000.
+5. Negative pressure was observed in the chimney as desired.
+The key takeaway from the experiment is that a higher primary air value solves the issues of uneven charring and char accumulation in the chimney, thereby preventing auger motor tripping.
+The suggested pathways of investigation for further experiments are:
+1. Test whether reducing the angle of inclination to 15 degrees addresses the issues of chimney build-up, auger jamming, and hopper smoke.
+2. Investigate whether bringing the primary air back towards the hopper (at the same circumferential height) increases the hot region residence time and improves devolatilization of the biomass before it reaches the chimney. This may help in volumetric reduction of the biomass prior to reaching the chimney. This investigation should be conducted once the stuck NPT couplings (S9 and S8) are detached.
+It is also noted that the NPT couplings (S9 and S8) were unable to be opened, even with longer wrenches. Additionally, the experiment utilized rice husks completely.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot test #93 – 08/26/22 
 Staff: Austin, Troy 
 Biomass: Woodchips from bags in the shed, probably city of Berkeley source 
@@ -695,6 +1723,19 @@
 Next steps: 
 Investigate why the breaker is no longer tripping fully. 
 See if the auger to body interference can be fixed. </t>
+  </si>
+  <si>
+    <t>The experiment conducted in this hot test had a hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment encountered some issues. The reactor jammed during the lighting phase and could not be unjammed. There was also an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in it running for a short time before jamming again. Additionally, there was a high pitched whine before the motor stopped, indicating possible overload. On the positive side, there was no bridging in the new hopper, although it was not filled very full.
+The next steps would be to investigate why the breaker is not tripping fully and to determine if the interference between the auger and the body can be fixed.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this experiment is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on hot test #93 encountered several issues. The main objective was to test the hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment faced a major setback as the reactor jammed during the lighting phase and could not be unjammed. 
+Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in it running for a brief moment before jamming again. A high pitched whine was observed before the motor stopped, indicating possible overload, although the exact cause remains unclear.
+On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its maximum capacity due to the aforementioned issues.
+The next steps should include investigating the cause of the incomplete tripping of the breaker and finding a solution to fix the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the combustion process and the functionality of the machine design.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 94 – 09/01/22 
@@ -755,6 +1796,71 @@
 Answer: N/A</t>
   </si>
   <si>
+    <t>Based on the provided information, here are some observations and potential areas for further investigation:
+1. Bridging issue: Despite enlarging the hopper, the bridging issue still persists. It is suggested to lower the hopper temperature to 15 degrees and observe if bridging improves. This could help determine if temperature plays a role in the bridging phenomenon.
+2. Auger jamming: Initially, jamming occurred after the reactor was lit for a while. It is important to investigate the cause of jamming, which could be occurring higher up in the reactor zone, possibly at the transition above the chimney. Visual inspection and further analysis of the reactor design in this area may provide insights into the jamming issue.
+3. Hopper smoke/fire: The fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire and/or start smoking. Adjusting the primary/secondary air flow rates seemed to help with smoke mitigation, but the issue returned when the blower RPM was increased. Further investigation is needed to understand the dynamics of the hopper smoke/fire issue and its relationship with the solid level at the chimney position.
+4. Output rate and mass yield: The output rate of 33 kg/h implies a mass yield of 80%, which seems incorrect. It is recommended to double-check the output rate measurement and investigate the wavy feature observed in the scale logging. This could indicate a potential issue with the scale or measurement system.
+5. Char quality: The obtained char showed variations in charring levels, with some parts undercharred (brownish) at around 60-80% charred. It would be beneficial to investigate the factors influencing char quality, such as residence time, temperature distribution, and feedstock characteristics. This could help optimize the process parameters for consistent and desired char quality.
+Overall, further experimentation and analysis are needed to address the observed issues and gain a complete understanding of the combustion process and machine design.</t>
+  </si>
+  <si>
+    <t>Hot Test #94 – 09/01/22
+Yield: N/A
+Summary:
+- The hypothesis of enlarging the hopper to address the bridging issue did not resolve the problem. The next step is to lower the hopper temperature to 15 degrees and observe if bridging improves.
+- The hypothesis of moving the primary air blowers from S10 to S4 to reduce jamming was initially successful. However, jamming occurred after the reactor was lit for a while. The issue resolved itself after waiting for some time. It is suggested to be more patient in such cases.
+- Lighting the reactor was easy, and a strong fire was observed through S10 and the cracks at the base of the chimney. The chimney remained clean throughout the experiment.
+- Severe jamming occurred in both directions after the reactor was lit for a while. The jamming was not visually observed at the inlet, indicating it may have occurred higher up in the reactor zone, possibly at the transition above the chimney. Jamming was accompanied by a grinding sound or sporadic jumps in the motion of the auger.
+- The hopper experienced smoke/fire after an initial period when the auger was stuck. It is suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the base to ignite or smoke. Idling or lowering the primary/secondary air helped mitigate the smoke, but it returned when the blower RPM was increased. Fire and char were observed being conveyed through the crack at the base of the chimney, indicating a high solid level that may have blocked the passage of primary air towards the chimney.
+- The hot test was shut down prematurely due to low wood chip supply and the intention to save some for a 15-degree test.
+- The input feed rate was approximately 41 kg/h, and the output rate was approximately 33 kg/h, suggesting a mass yield of 80%, which seems incorrect. The output rate needs to be double-checked. The scale logging also exhibited a wavy feature, indicating a potential issue with its functionality.
+- The obtained biochar showed undercharred parts (brownish) with around 60-80% charred sections.
+Note: The provided information does not include the yield value.</t>
+  </si>
+  <si>
+    <t>Hot Test #94 - 09/01/22
+Hypothesis:
+- Enlarging the hopper will address the bridging issue.
+- Moving the primary air blowers to the S4 position will reduce the jamming issue.
+Summary:
+- Bridging issue still persists, next step is to lower the hopper temperature to 15 degrees and observe if bridging improves.
+- Auger jamming was initially observed but resolved itself once the reactor got hot.
+- Lighting was easy and a strong fire was observed.
+- Severe jamming occurred after the reactor was lit, possibly at the transition above the chimney.
+- Hopper smoke/fire was observed, possibly caused by the fire propagating downwards towards the hopper.
+- The solid level at the chimney position was very high, potentially blocking the passage of primary air towards the chimney.
+- The hot test was shut down prematurely due to low wood chip supply.
+Detailed Observations:
+- Lighting was easy and a strong fire was observed.
+- Severe jamming occurred after the reactor was lit, possibly at the transition above the chimney.
+- Hopper smoke/fire was observed, possibly caused by the fire propagating downwards towards the hopper.
+- The solid level at the chimney position was very high, potentially blocking the passage of primary air towards the chimney.
+- The hot test was shut down prematurely due to low wood chip supply.
+- Input feed rate was about 41 kg/h and output rate was about 33 kg/h, implying a mass yield of 80% which seems incorrect.
+- The scale logging seems to have a wavy feature, indicating a potential issue with its functionality.
+- The obtained biochar was undercharred in some parts, around 60-80% charred.
+Reaction successful or not: 0</t>
+  </si>
+  <si>
+    <t>Based on the provided information, here are some observations and potential explanations:
+1. Bridging issue: Despite enlarging the hopper, the bridging issue still persists. The next step suggested is to lower the hopper temperature to 15 degrees and see if bridging improves. This indicates that the size of the hopper may not be the only factor contributing to the bridging issue, and temperature could also play a role.
+2. Auger jamming: Initially, no jamming was observed when feeding chunky wood chips in cold flow. However, severe jamming occurred after the reactor was lit for a while. This suggests that the jamming issue may be related to the temperature of the reactor. It is mentioned that the jamming resolved itself once the reactor got hot, indicating that the temperature increase helped alleviate the jamming. However, the exact cause of the jamming, such as the transition above the chimney or other factors, needs further investigation.
+3. Hopper smoke/fire: After the auger was stuck for a long period, it is suspected that the fire from the reactor region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire and/or start smoking. Lowering the primary/secondary air seemed to help with smoke mitigation, but the issue returned when the blower RPM was increased. This suggests that the airflow and temperature control in the reactor may need to be optimized to prevent the fire/smoke propagation towards the hopper.
+4. Output rate and yield: The input feed rate was approximately 41 kg/h, while the output rate was about 33 kg/h, implying a mass yield of 80%. However, it is mentioned that the output rate needs to be double-checked as it may not be accurate. Additionally, the scale logging shows a wavy feature, indicating a potential issue with the scale's proper functioning. This needs to be addressed to ensure accurate measurement of the output rate and yield.
+5. Char quality: The obtained char showed variations in charring levels, with some parts undercharred (brownish) at around 60-80% charred. This suggests that the combustion process may not be uniform throughout the reactor, leading to inconsistent char quality. Further investigation is needed to identify the factors contributing to this variation and optimize the process for consistent char production.
+Overall, these observations provide insights into the combustion process and machine design. Further experimentation and analysis are required to address the identified issues and optimize the biomass to biochar formation process in the reactor.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, here are some observations and potential explanations:
+1. Bridging issue: Despite enlarging the hopper, the bridging issue still persists. The next step could be to lower the hopper temperature to 15 degrees and observe if bridging improves.
+2. Auger jamming: Initially, no jamming was observed when feeding chunky wood chips in cold flow. However, after the reactor was lit for a while, severe jamming occurred in both directions. This jamming could be happening higher up in the reactor zone, possibly at the transition above the chimney where the reactor cross-section changes from rectangular to circular. It is important to investigate this further to identify the exact cause of jamming.
+3. Hopper smoke/fire: After the auger was stuck for a long period, it is suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to ignite or start smoking. Idling or lowering the primary/secondary air seemed to help with smoke mitigation, but the issue returned when the blower RPM was increased. It is important to investigate the solid level at the chimney position and check the ports S1 and S6 to understand the extent of blockage and its impact on the hopper smoke/fire issue.
+4. Rates and yield: The input feed rate was approximately 41 kg/h, while the output rate was about 33 kg/h, suggesting a mass yield of 80%. However, this yield seems incorrect and needs to be double-checked. Additionally, the scale logging shows a wavy feature, indicating a potential issue with its proper functioning.
+5. Char quality: Upon inspection, it was found that some parts of the obtained char were undercharred (brownish) and only around 60-80% charred. This suggests that the combustion process may not be achieving complete char formation. Further investigation is required to understand the factors contributing to incomplete char formation.
+To gain a complete understanding of the combustion process and machine design, it is recommended to continue testing different hypotheses and carefully analyze the data collected from each experiment.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 95 – 09/02/22 
 People: Camila, Troy, Kevin (with Austin starting the hot test) 
 Hypothesis: Compared to 7/20/22, if we lower from 30 deg to 15 deg, we can stop the hopper smoke/fire.  
@@ -767,6 +1873,17 @@
 Given that we had a much smaller oil drum this time, it quickly became full but we were unaware of it. The reactor probably ran for around 20-30 minutes with the oil drum full.  
 Inputs and Outputs: Input feed rate was around 33 kg/h. Superficially, the char looked incompletely charred b/c the top layer is from after shutting down the reactor; if we dug deeper, we saw pretty well charred consistency, around 90-100%.  
  </t>
+  </si>
+  <si>
+    <t>Input flow rate: 33 kg/h</t>
+  </si>
+  <si>
+    <t>Hot Test #95 – 09/02/22
+Reaction successful or not: 0
+Explanation: The hopper fire/smoke persisted despite lowering the temperature from 30°C to 15°C, indicating that the hypothesis was not successful in stopping the hopper smoke/fire.</t>
+  </si>
+  <si>
+    <t>The primary blower position was set at S10. The primary air setpoint was initially set at 3000, and the secondary air was set at 4000. The feedstock used was rice hulls. The experiment observed that the hopper fire/smoke persisted, indicating the need to eliminate the variable pitch for rice husks. The char level below the chimney remained high throughout the experiment, despite attempts to address it by pausing the auger or inserting a rod into the reaction zone. Increasing the primary air only worsened the smoke from the hopper. The experiment ran for approximately 20-30 minutes with the oil drum full. The input feed rate was around 33 kg/h, and the char appeared to be around 90-100% charred.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 96 – 09/04/22 
@@ -785,6 +1902,22 @@
 It doesn’t look like our output scale is working. We also changed drum after we shut the reaction down (around t = 11.4) but we don’t see this registered as a sensible signal below.  
 Compared to the hot test of 9/3/2022 with rice hulls, the results has higher percentage of biochar  (approx 70%) 
  </t>
+  </si>
+  <si>
+    <t>Hot Test #96 – 09/04/22
+Input flow rate: 69.1 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test # 96 – 09/04/22
+Yield: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test #96 - 09/04/22: 
+Reaction successful or not: 0 
+Explanation: The smoke from the hopper persisted despite changing the position of the primary blower, and the experiment had to be stopped due to running out of dry wood chips.</t>
+  </si>
+  <si>
+    <t>The primary blower position in this hot test was S6.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 97 – 09/23/22 
@@ -809,6 +1942,41 @@
 For next time observe the impact of lowering the speed of the blower on the final result of biochar </t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the hot test experiment was generally successful, with the exception of some issues with wood chips going back to the hopper and a fire in the hopper that caused the test to end prematurely. The observations indicate that the flames inside the reactor were good throughout the test, but no steady state was achieved. The biochar produced was recorded as 12 kg and appeared to be well charred.
+Based on these observations, some suggestions for future experiments could be:
+1. Start moving the auger more quickly after lighting the fire to ensure a continuous flow of biomass through the reactor.
+2. Consider reducing the primary air (oxygen) supply, as the biomass used was very dry and may not require as much oxygen for combustion.
+3. Ensure that the hopper is filled adequately to avoid low chip levels and potential air holes that could cause the reaction to move backward.
+4. Reduce the angle of the prototype setup to help the reaction move forward more efficiently.
+5. Investigate the impact of lowering the speed of the blower on the final result of biochar production.
+By implementing these suggestions and conducting further experiments, it will be possible to gain a better understanding of the combustion process and optimize the machine design for biomass to biochar formation.</t>
+  </si>
+  <si>
+    <t>Hot Test #97 - 09/23/22
+Input flow rate: 45.1 kg/h</t>
+  </si>
+  <si>
+    <t>Hot Test #97 - 09/23/22
+Output flow rate: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test #97 – 09/23/22
+Yield: 12 kg of biochar</t>
+  </si>
+  <si>
+    <t>Hot Test #97: 0
+Reason: The hot test was not successful due to the fire in the hopper and the recurrent issue of burning wood pieces going back to the hopper.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the hot test experiment was generally successful, with the exception of the fire in the hopper. Here are some suggestions for future experiments:
+1. Start moving the auger more quickly after lighting the fire: This can help ensure a continuous flow of biomass through the reactor and prevent any potential issues with the hopper.
+2. Potentially reduce the primary air (oxygen) input: Since the biomass used in the experiment was very dry, it may be possible to reduce the amount of primary air supplied to the reactor. This can be tested to see if it has any impact on the combustion process and biochar formation.
+3. Ensure the hopper is filled properly: It is important to fill the hopper adequately to avoid low biomass levels and potential air holes that can cause the reaction to move back. This can help maintain a steady flow of biomass through the reactor.
+4. Consider reducing the angle of the auger: Lowering the angle of the auger can potentially help the reaction move forward more efficiently. This can be tested to see if it improves the overall performance of the system.
+5. Observe the impact of lowering the speed of the secondary blower: In future experiments, it may be beneficial to investigate the effect of reducing the speed of the secondary blower on the final result of biochar. This can help optimize the process and potentially improve the quality of the biochar produced.
+Overall, these suggestions can help improve the understanding of the combustion process and machine design, as well as optimize the production of biochar from biomass.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 98 – 09/24/22 
 People: Camila, Austin, Kanages 
 Hypothesis: Compared to 09/23/22, if we reduce lighting time and primary blower, we can stop the hopper smoke/fire 
@@ -831,6 +1999,57 @@
 We could increase secondary blowers speed to increase secondary combustion </t>
   </si>
   <si>
+    <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
+Observations:
+1. Black smoke in the chimney and periodic appearance of smoke in the hopper.
+2. Flow of chips that end up not being charred (mixing problem).
+3. No complete char achieved, indicating incomplete combustion.
+4. No steady state achieved with the parameters.
+Possible Explanations:
+1. The reduced lighting time and primary blower speed may have resulted in insufficient oxygen supply, leading to incomplete combustion and the formation of black smoke.
+2. The mixing problem may be due to inadequate agitation or uneven distribution of biomass in the reactor.
+Recommendations:
+1. Analyze possible scenarios and conduct further experiments to find a balance between temperature, smoke production, and char formation.
+2. Consider adjusting the position of the blowers to improve air distribution and ensure sufficient oxygen supply.
+3. Decrease the angle of the prototype to enhance mixing and biomass distribution.
+4. Increase the speed of the secondary blowers to promote secondary combustion and improve overall combustion efficiency.
+These recommendations aim to address the observed issues and optimize the combustion process for biomass to biochar formation. Further experimentation and analysis will be necessary to validate these suggestions and achieve the desired outcomes.</t>
+  </si>
+  <si>
+    <t>Hot Test # 98 – 09/24/22
+Yield: 19.80 kg (biochar)</t>
+  </si>
+  <si>
+    <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
+Observations:
+1. Black smoke in the chimney and periodic appearance of smoke in the hopper.
+2. Flow of chips that end up not being charred (mixing problem).
+3. Incomplete char formation and no steady state achieved.
+4. Biochar recorded was partially charred/under charred.
+Possible Explanations:
+1. The reduced lighting time and primary blower speed may have caused incomplete combustion, leading to the formation of black smoke.
+2. The mixing problem could be due to inadequate mixing of the biomass in the reactor, resulting in some chips not being fully charred.
+3. The changes in settings may have disrupted the combustion process, preventing the attainment of a steady state.
+4. The partial char formation could be a result of incomplete combustion or suboptimal operating conditions.
+Recommendations:
+1. Analyze possible scenarios and conduct further experiments to understand the reasons behind the smoke in the chimney and hopper. Adjust the lighting time and primary blower speed to find a balance between avoiding smoke and achieving complete combustion.
+2. Improve the mixing mechanism to ensure better contact between the biomass and oxygen. This could involve modifying the auger design or introducing additional mixing elements.
+3. Investigate the impact of the prototype angle on the combustion process. Adjust the angle if necessary to optimize the char formation.
+4. Increase the secondary blower speed to enhance secondary combustion and improve overall combustion efficiency.
+5. Monitor and control the temperature more effectively to achieve a steady state and optimize the char formation.
+6. Consider conducting additional tests with different feedstocks to evaluate their impact on the combustion process and char quality.
+By implementing these recommendations and conducting further experiments, you can gain a better understanding of the combustion process and machine design, and potentially improve the efficiency and quality of biochar production in the reactor.</t>
+  </si>
+  <si>
+    <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
+1. Mixing problem: The flow of chips that end up not being charred indicates a mixing problem. This could be due to inadequate mixing of the biomass in the reactor. To address this, you can consider improving the design of the auger or introducing additional mixing mechanisms to ensure better contact between the biomass and oxygen.
+2. Incomplete combustion: The lack of complete char formation suggests incomplete combustion. This could be caused by the changes in the settings, such as reducing the lighting time and primary blower speed. To achieve better combustion, you can experiment with different settings, such as adjusting the primary and secondary air ratios, to optimize the oxygen supply and temperature distribution in the reactor.
+3. Steady state configuration: The periodic appearance of smoke in the hopper and cracks in the reaction zone indicates a lack of steady state configuration. This could be due to the imbalance between the air supply and biomass feed rate. To achieve a steady state, you can consider adjusting the feed rate of biomass and the air supply to maintain a consistent temperature and avoid excessive smoke or fumes.
+4. Balance between temperature and smoke: To find a balance between temperature and smoke, it is important to analyze the possible scenarios causing these issues. This can be done by monitoring the temperature profiles at different locations in the reactor and correlating them with the appearance of smoke or fumes. Adjustments can then be made to the air supply, biomass feed rate, or reactor design to achieve the desired balance.
+5. Reactor design modifications: Moving the blowers up, decreasing the angle of the prototype, or increasing the secondary blower speed are potential modifications to consider. These changes can affect the airflow patterns, mixing, and combustion efficiency in the reactor. It is recommended to test these modifications one at a time to understand their individual effects on the combustion process and machine performance.
+Overall, a systematic approach of analyzing the experimental data, identifying the root causes of the observed issues, and making targeted modifications to the experimental setup will help in gaining a better understanding of the combustion process and improving the machine design.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 99 – 09/26/22  
 People: Camila, Austin, Kanages, Kevin 
 Hypothesis: Increased secondary air to address black smoke issue; moved one of the blowers up one notch circumferentially to address hopper white smoke issue 
@@ -853,6 +2072,47 @@
 Flow Rates: By cumulative output (28.1 kg) and input (92.5 kg), the mass yield is about 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield is about 12%. The output mass scale is exhibiting the same weird undulating behavior, and we’re not sure if we trust the readout for the output mass flow. 
 Input feed rate graph:  
  . Example Answer: 1</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to address issues related to black smoke and white smoke during the biomass combustion process. The experiment involved adjusting the position of the secondary air blowers and the primary blower, as well as using a newly refurbished six-inch pitch auger and a prototype setup at a 35-degree angle.
+The experiment observed that the reactor ran very hot throughout, and white ash was visible against the blue sky, indicating a potentially worse outcome compared to previous tests. Puffs of black smoke were occasionally seen from the chimney, leading to a gradual reduction in primary air. However, it was noted that the primary and secondary air blowers were switched on the right-hand side, resulting in an inconclusive outcome. White smoke was still observed near the hopper, and it was suspected that frequent poking into the hopper may have helped reduce the smoke.
+Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
+Flow rates were measured, and two different calculations of mass yield were obtained. One calculation based on cumulative output and input mass yielded a mass yield of about 28%, while another calculation based on output and input mass flow rates yielded a mass yield of about 12%. It was also mentioned that the output mass scale exhibited strange undulating behavior, raising doubts about the accuracy of the readout for the output mass flow.
+Unfortunately, the provided information does not include any specific question or hypothesis to address. If you have any specific questions or hypotheses related to this experiment, please let me know, and I will be happy to assist you further.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the output flow rate for this hot test is 7.97 kg/h.</t>
+  </si>
+  <si>
+    <t>Hot Test #99 – 09/26/22
+Yield: [28%, 12%]
+In this hot test, the objective was to address the black smoke issue by increasing the secondary air and adjusting the position of one of the blowers. However, the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome.
+The reactor ran very hot throughout the experiment, and white ash was visible against the blue sky, indicating a worse outcome compared to the previous test. Puffs of black smoke were occasionally seen from the chimney, leading to a gradual reduction of primary air. White smoke still emerged from cracks close to the hopper and through the hopper, suggesting that frequent poking into the hopper may have helped with the smoke issue.
+Detailed observations revealed that some parts of the wood chip pile were more wet, especially inside.
+The mass yield was calculated using two different methods. By cumulative output (28.1 kg) and input (92.5 kg), the mass yield was approximately 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield was approximately 12%. The output mass scale exhibited weird undulating behavior, raising doubts about the accuracy of the readout for the output mass flow.
+Unfortunately, the input feed rate graph is not provided in the given information.</t>
+  </si>
+  <si>
+    <t>Hot Test #99 - 09/26/22
+Reaction successful or not: 0
+Reason: The reactor ran very hot throughout, with white ash visible against the blue sky, indicating incomplete combustion and poor biochar quality. Puffs of black smoke were occasionally seen from the chimney, suggesting incomplete combustion and inefficient air distribution. The primary and secondary air blowers were switched on the right-hand side, leading to an inconclusive outcome. White smoke continued to emerge from cracks close to the hopper, indicating incomplete combustion and potential issues with the hopper design. The wetness of some parts of the wood chip pile may have contributed to the incomplete combustion. The mass yield calculations show inconsistencies, raising doubts about the accuracy of the output mass flow measurement.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. In the example hot test mentioned, the hypothesis was to increase secondary air to address black smoke issues and adjust the position of one blower to address white smoke issues from the hopper.
+The experiment settings included the primary blower positioned at S5 on the right side, while the left side primary blower remained at S10 due to a stuck viewing port NPT plug. The primary air setpoint was initially 3000 rpm during start-up, then reduced to 2500 and 2200 rpm. The secondary air remained at 4000 rpm throughout. A mega chimney without any mesh at the top was used, and a newly refurbished six-inch pitch auger was employed in a 35-degree setup.
+The feedstock used in this particular test was pine tree wood chips from Anahim Lake, Canada. The reactor ran at a high temperature throughout the experiment. White ash was observed, although it was not easily visible against a white wall but was noticeable against the blue sky. Puffs of black smoke occasionally emerged from the chimney, leading to a gradual reduction in primary air. However, it was later discovered that the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome. White smoke was still observed near the hopper cracks and through the hopper, and it was suspected that frequent poking into the hopper to avoid voidage may have contributed to the smoke.
+Detailed observations included the presence of wetter parts inside the wood chip pile. Flow rates were calculated based on cumulative output and input mass, indicating a mass yield of approximately 28%. However, when considering output mass flow and input mass, the mass yield was estimated to be around 12%. The output mass scale exhibited unusual undulating behavior, raising doubts about the reliability of the readout for output mass flow.
+Unfortunately, the example answer provided does not specify the specific information or question for which an answer is expected.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. In the example hot test mentioned, the hypothesis was to increase the secondary air to address black smoke issues and adjust the position of one blower to address hopper white smoke issues.
+The experiment settings include the position of primary blowers, the speed of primary and secondary blowers, the use of a mega chimney without mesh, and the setup of a newly refurbished six-inch pitch auger at a 35-degree angle. The feedstock used in this particular test was pine tree wood chips from Anahim Lake, Canada.
+The summary of the test indicates that the reactor ran very hot throughout the experiment. White ash was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were observed from the chimney occasionally, leading to a gradual reduction in primary air. However, it was later discovered that the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome. White smoke was still observed near the hopper, and it was suspected that frequent poking into the hopper may have helped reduce smoke.
+Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
+Flow rates were measured based on cumulative output and input mass, indicating a mass yield of about 28%. However, when considering output and input mass flow rates, the mass yield was estimated to be around 12%. The output mass scale exhibited unusual undulating behavior, raising doubts about the accuracy of the readout.
+Unfortunately, the example answer provided does not include any specific question or request for analysis. If you have any specific questions or need further analysis of the experiment data, please let me know.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 100 – 09/27/22  
@@ -868,6 +2128,31 @@
 We recorded a total of 27.45 kg of char. Biochar was not fully charred at the top. However, a subsequent picture showing a spread of biochar from start to finish shows the middle section as well charred. The end section was less well charred due to possible mixing with uncharred wood chips being conveyed out.   
 Suggestions: 
 To achieve a steady hot test for tomorrow’s demo we plan on working as a team, each having a specific role. Conducting a interval system, poking the hopper to avoid bridging and aiming for steady state temperature for fully charred charr. We aim to not have much black nor white smoke throughout the test. </t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, primary and secondary blowers for oxygen supply and volatile removal, and thermocouples for temperature measurement.
+In the example hot test, the auger speed was set at 5. However, in another hot test, the auger speed was not mentioned. The hypothesis for the hot test was to correct the wiring for primary/secondary blowers and agitate the hopper to run the test smoothly without any smoke.
+During the hot test, the primary blower positions were adjusted, and the primary and secondary air were initially set at idle. The feedstock used was pine tree wood chips from Anahim Lake, Canada. The test started with a slow start due to the position of lighting up, but after adjusting the primary blower position, the combustion was enhanced. However, black smoke was observed from the chimney periodically. The primary blower speed was then changed to 2500 rpm, which helped reduce the smoke, but white smoke appeared at the hopper. It was found that the white smoke was due to biomass/biochar accumulating below the chimney level, leading to blockage of flow channels. To address this, an interval system of running the auger and blowers for a certain period and then stopping them temporarily was implemented. The interval system was adjusted to cool down the process, and a total of 27.45 kg of biochar was recorded.
+Based on the observations, suggestions for achieving a steady hot test include working as a team with specific roles, implementing the interval system, poking the hopper to avoid bridging, and aiming for a steady-state temperature for fully charred biochar. The goal is to minimize black and white smoke throughout the test.
+In summary, the experiment aims to understand the combustion process and machine design for biomass to biochar formation. The example hot test provided insights into the adjustments made to the blower positions, air supply, and interval system to improve the combustion process and minimize smoke.</t>
+  </si>
+  <si>
+    <t>Hot Test #100 – 09/27/22
+Yield: 27.45 kg of char
+Based on the observations and suggestions provided, it seems that the hot test did not report the yield value.</t>
+  </si>
+  <si>
+    <t>Hot Test #100 - 09/27/22:
+Reaction successful or not: 0
+Reason: The hot test experienced slow lighting, black smoke from the chimney, and white smoke from the hopper, indicating incomplete combustion and blockage of flow channels. The biochar was not fully charred, possibly due to mixing with uncharred wood chips.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the hot test was initially set at 5 (S5) and later changed to 2500 rpm.</t>
+  </si>
+  <si>
+    <t>The hot test conducted on this day had some challenges, including slow lighting and the occurrence of black and white smoke. The primary blower position was adjusted to improve combustion, but black smoke was still observed periodically. It was determined that the white smoke was not due to voidage below the hopper, but rather due to biomass/biochar accumulation below the chimney level, causing blockage of flow channels. To address this, the primary and secondary blowers were reduced to 1300 rpm whenever white smoke arose. Additionally, an interval system of running the auger at 6, primary at 2000, and secondary at 3000 rpm for 3 minutes, followed by 3 minutes off at 0 rpm for all blowers, was implemented. This system was later adjusted to 3 minutes on and 1 minute off. 
+Detailed observations included the presence of ember within the ports after slow lighting, the need to poke the hopper frequently to avoid bridging, and the tripping of the auger motor. A total of 27.45 kg of char was recorded, with the top section of the biochar not fully charred. However, the middle section showed good charring, while the end section was less well charred possibly due to mixing with uncharred wood chips. 
+To improve the hot test for the next day's demo, the team plans to work together with specific roles assigned. They will implement the interval system, poke the hopper to prevent bridging, and aim for a steady state temperature to achieve fully charred biochar. The goal is to minimize the occurrence of black and white smoke throughout the test.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
@@ -885,6 +2170,52 @@
 Upon changing the first full drum (during steady state), the char looks well done:  
 Next Steps: 
 A hypothesis could be done on the impact of hopper-poking on white smoke from the hopper. Our initial hypothesis seemed to be that the white smoke from the hopper may arise due to increasing voidage as the biomass bridges over the hopper, which hopper-poking can resolve. However, our newer observation seems to suggest that the white smoke may be better attributed to the blockage of flow path in the region below the chimney.  One way to test this is to stop hopper-poking, and observe the difference there is on hopper white smoke, which can be measured by the statistics of auger on and auger off time intervals.  </t>
+  </si>
+  <si>
+    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12. The average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82.
+To plot these intervals, you can create a bar chart or a histogram. The x-axis will represent the intervals and the y-axis will represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
+Regarding the hypothesis on the impact of hopper-poking on white smoke from the hopper, it seems that the initial hypothesis of increasing voidage causing white smoke may not be accurate. The newer observation suggests that the white smoke may be due to blockage of the flow path below the chimney. To test this hypothesis, you can stop hopper-poking and observe the difference in hopper white smoke. This can be measured by analyzing the statistics of auger on and auger off time intervals.</t>
+  </si>
+  <si>
+    <t>Hot Test #101 (Ulkatcho demo day 1) – 09/28/22
+Input flow rate: 55.38 kg/hr
+Output flow rate: 10.48 kg/hr
+Yield: 18.9%
+Total input: 203.8 kg
+Total output: 41.0 kg
+Yield (accumulated): 20.1%
+Average interval for running the auger without smoke and issues: 10.5 minutes
+Standard deviation for running the auger without smoke and issues: 2.12 minutes
+Average interval for stopping the auger for 3 minutes: 3 minutes
+Standard deviation for stopping the auger for 3 minutes: 2.82 minutes
+Next Steps: 
+- Test the impact of hopper-poking on white smoke from the hopper
+- Observe the difference in hopper white smoke by stopping hopper-poking
+- Measure the statistics of auger on and auger off time intervals to assess the impact of hopper-poking</t>
+  </si>
+  <si>
+    <t>Example Hot Test:  + Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
+Output flow rate: 10.48 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test #101 (Ulkatcho demo day 1) – 09/28/22
+Yield: 20.1% (by accumulation)
+The average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12.
+The average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82.
+Please note that the provided information does not mention any specific data related to hopper white smoke.</t>
+  </si>
+  <si>
+    <t>Hot Test #101 (Ulkatcho demo day 1) - 09/28/22:
+Reaction successful or not: 1
+Explanation: The hot test ran smoothly for four hours with active control of the process to minimize smoke. The only issue was the char outlet material catching fire at the end, which can be fixed for future tests.</t>
+  </si>
+  <si>
+    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes, with a standard deviation of 2.12 minutes. The average interval for stopping the auger for an interval of 3 minutes is 2.82 minutes.
+To plot these intervals, you can create a bar chart or a histogram. The x-axis can represent the intervals, and the y-axis can represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
+For the next steps, the hypothesis could be tested by stopping hopper-poking and observing the difference in hopper white smoke. The statistics of auger on and auger off time intervals can be used to measure the difference.</t>
+  </si>
+  <si>
+    <t>The hypothesis for the impact of hopper-poking on white smoke from the hopper is that the white smoke may be better attributed to the blockage of flow path in the region below the chimney, rather than increasing voidage as the biomass bridges over the hopper. To test this hypothesis, the hopper-poking can be stopped and the difference in hopper white smoke can be observed by measuring the statistics of auger on and auger off time intervals.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 102 (Alkali Lake) – 10/05/22 
@@ -903,6 +2234,35 @@
 Suggestions: 
 Conditions and chips used today are different from those in Anahim Lake, which must be taken into consideration for the setup to obtain a steady state hot test. For next hot test we aim to be quicker when lighting the fire, as well as implementing interval system based on analysis previously done 
  </t>
+  </si>
+  <si>
+    <t>Did the experiment have an output flow rate? If yes, please provide the value. If no or not enough information is available, answer 'N/A'.</t>
+  </si>
+  <si>
+    <t>Hot Test # 102 (Alkali Lake) – 10/05/22 
+Yield: 20.22 kg of biochar output.</t>
+  </si>
+  <si>
+    <t>Reaction successful or not: 0
+Explanation: The hot test encountered several inconveniences, including technical issues with the motor bracket, power supply, and PLC connection. The reaction descended into the hopper and a steady state temperature was not achieved. The biochar output was also lower than expected.</t>
+  </si>
+  <si>
+    <t>Primary blower speed: S10 (farther from electric box), S5 (closest to electric box)
+Secondary blower speed: Idle initially (1300 rpm), then 3000 rpm (primary) and 4000 rpm (secondary)
+Feedstock: Douglas Fir wood chips from Williams Lake, Canada
+Summary:
+- The hot test encountered several inconveniences, including a loose bolt, dismantled power supply, and unreliable connection between the PLC and computer.
+- The reaction descended into the hopper, leading to the shutdown of the hot test.
+- The biochar collection system using the new chute worked smoothly.
+- The fire took too long to light, causing the reaction to go back to the auger.
+- Steady-state temperature was not achieved despite reaching high temperatures.
+- The biochar output was lower than expected, totaling around 20.22 kg.
+- The new chute did not catch fire, confirming its adequacy.
+- The chips used were dry, dusty, and fluffy, resulting in faster and hotter burning.
+Suggestions:
+- Consider the differences in conditions and chips used compared to the setup in Anahim Lake for obtaining a steady-state hot test.
+- Aim to be quicker when lighting the fire in the next hot test.
+- Implement an interval system based on previous analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 103– 10/6/22  
@@ -929,6 +2289,13 @@
  </t>
   </si>
   <si>
+    <t>Hot Test #103 – 10/6/22
+Yield: 40 kg of biochar</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test was not mentioned in the provided information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 104– 10/7/22  
 People: Camila and Austin 
 Hypothesis: By putting both primary blowers to S5 position and taping the airholes in the hopper, we can eliminate excessive flames front from descending to the bottom of the reactor. 
@@ -950,6 +2317,53 @@
 For the demo day  on October 10-11, 2022 we suggest we run with these settings as it seems most appropriate for William's Lake chips to run smoothly through the reactor. The aim is to find the balance between a “nonsmokey” in hopper hot test and obtaining fully charred results. </t>
   </si>
   <si>
+    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
+- Primary blowers at 2,200 rpm
+- Secondary blowers at 3,000 rpm
+- Aluminum tape covering any possible airholes
+- Input feed rate of 110.2 kg
+This setup seemed to operate smoothly with minor smoke and resulted in reasonably consistent char. However, when the primary blowers were reduced to 1,700 rpm, backflow occurred and the resulting char was less consistent.
+For the demo day on October 10-11, 2022, it is recommended to use the suggested settings as they appear to be most appropriate for the Douglas Fir wood chips from William's Lake. The aim is to find a balance between minimizing smoke in the hopper and obtaining fully charred results.</t>
+  </si>
+  <si>
+    <t>Hot Test #104 – 10/7/22
+Input flow rate: 110.2 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test # 104– 10/7/22
+Output flow rate: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test #104 – 10/7/22
+Yield: N/A
+The experiment did not report the yield of biochar produced.</t>
+  </si>
+  <si>
+    <t>Hot Test #104 - 10/7/22
+Output char quality: 0.7
+Explanation: The output char quality was reasonably consistent at 2,200 primary/3,000 secondary RPM, but less consistent at 1,700 primary/3,000 secondary RPM, comprising both black char and medium brownish/torefied char.</t>
+  </si>
+  <si>
+    <t>Hot Test #104 - 10/7/22
+Reaction successful: 0
+Explanation: The reaction was not successful because when running at 1,700 rpm (primary) and 3,000 rpm (secondary), backflow occurred and greater smoke came out of the hopper, indicating incomplete charring of the biomass.</t>
+  </si>
+  <si>
+    <t>Based on the observations and results from the hot test, it is suggested to run the demo with the following settings: 
+- Primary blower speed: 2,200 rpm
+- Secondary blower speed: 3,000 rpm
+- Aluminum tape covering any possible airholes in the hopper
+These settings seemed to provide a smooth operation with minor smoke. The resulting biochar at these settings was of reasonable consistency. However, when the primary blower speed was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar at this lower speed was less consistent, comprising both black char and medium brownish/torefied char.
+The aim for the demo is to find a balance between minimizing smoke in the hopper and obtaining fully charred results. Therefore, it is recommended to use the settings mentioned above for the demo on October 10-11, 2022, as they seem most appropriate for the Douglas Fir wood chips from William's Lake to run smoothly through the reactor.</t>
+  </si>
+  <si>
+    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
+- Primary blower speed: 2,200 rpm
+- Secondary blower speed: 3,000 rpm
+These settings seemed to provide a smooth operation with minor smoke. The resulting biochar at these settings was of reasonable consistency. However, when the primary blower speed was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar at this setting was less consistent, comprising both black char and medium brownish/torefied char.
+The aim for the demo is to find a balance between minimizing smoke in the hopper and obtaining fully charred results. Therefore, it is recommended to use the settings of 2,200 rpm for the primary blower and 3,000 rpm for the secondary blower for the demo on October 10-11, 2022.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 105 – 10/10/22  
 People: Camila, Austin, Kanages, Kevin, and Marian 
 Hypothesis: Replication of hot test #104 for Esket demo day 1 
@@ -967,6 +2381,19 @@
 Next Steps: We are somewhat skeptical about the efficacy of rigorous poking (which is a physically tiring activity) on reducing hopper smoke. Tomorrow we could try the same again but with slightly less rigorous poking. From our experience, in a bridged area, the bridge should collapse with mild poking. If poking requires significant force, then the area underneath is probably already mostly filled.  </t>
   </si>
   <si>
+    <t>The auger speed for the hot test #105 is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Hot Test #105: 1
+The hot test was successful as there were no major issues observed during the experiment. The hopper smoke was found to be correlated with wind gusts, suggesting an air-curtaining effect, which can be resolved by adding a cowling on top of the chimney. The feedstock flowability was slightly less compared to previous tests, but it did not cause significant backflow or hopper smoke. The origination of flammable volatiles was primarily from below the chimney, indicating incomplete devolatilization. The biochar level was high on the right-hand side, potentially causing blockage, but there was a consistent flow on the left-hand side. The pressure level was mostly negative, but occasional flames and embers were observed, possibly due to wind gusts. Overall, the hot test was successful with minor observations and improvements for future experiments.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the hot test #105 was set at S5, which corresponds to a speed of 5.</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for the hot test #105 is not mentioned in the provided information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 106 – 10/11/22  
 People: Camila, Austin, Kanages, Kevin, and Marian 
 Hypothesis: Replication of hot test #104 for Esket demo day 2 
@@ -976,6 +2403,30 @@
 The char in the first drum looks relatively well done.  
 The photo below illustrates the char when spread on the ground. The first drum started from the bottom-right and proceeded to the top-left. Then we overlaid the second drum directly above the starting point of the first drum in one large pile.  
 </t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned is Hot Test #106, conducted on 10/11/22. The participants involved in the experiment are Camila, Austin, Kanages, Kevin, and Marian.
+The specific hypothesis for Hot Test #106 is the replication of Hot Test #104 for Esket demo day 2. The experimental settings include primary blowers at S5 on the right and S10 on the left. The left-side primary blower was moved from S5 to S10 to investigate if it could mitigate the observed hopper smoke. The primary blower operates at 2200 rpm, while the secondary blower operates at 3000 rpm. A mega chimney was used without any mesh at the top. The experiment utilized a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
+The feedstock used in this experiment is Douglas Fir wood chips from Williams Lake, Canada. The experiment summary indicates that the test performed well initially, but after 1-2 hours, hopper smoke started to appear. Various attempts were made to mitigate the smoke, including vigorous poking, idling the air/stopping the auger temporarily, and moving the left-side primary blower from S5 to S10. However, these measures did not have a significant effect. The char in the first drum appeared relatively well done.
+The provided information does not include an example answer. If you have any specific questions or require further assistance, please let me know.</t>
+  </si>
+  <si>
+    <t>Reaction successful or not: 0
+Explanation: The hot test did not meet the criteria for a successful reaction due to the presence of hopper smoke and the inability to mitigate it effectively.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing various hypotheses. The example hot test mentioned is Hot Test #106, conducted on 10/11/22, with participants named Camila, Austin, Kanages, Kevin, and Marian.
+The hypothesis for this hot test is to replicate Hot Test #104 for Esket demo day 2. The settings for this test include the primary blower at S5 on the right and S10 on the left. The left-side primary blower was moved from S5 to S10 to investigate if it could reduce the observed hopper smoke. The primary blower operates at 2200 rpm, and the secondary blower at 3000 rpm. A mega chimney was used without any mesh at the top. The experiment utilized a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
+The feedstock used for this test was Douglas Fir wood chips from Williams Lake, Canada. The experiment summary indicates that the test performed well initially, but after 1-2 hours, hopper smoke started to appear. Attempts were made to mitigate the smoke by poking the biomass vigorously or temporarily idling the air or stopping the auger. However, these measures did not have a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide substantial improvement. The char in the first drum appeared to be relatively well done.
+The provided information does not include an example answer. If you have any specific questions or require further assistance, please let me know.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems like you are conducting combustion experiments using a small-sized reactor for biomass to biochar formation. The experiments involve inputting biomass into the reactor using a hopper and burning it with the help of an auger. The volatiles are removed through a chimney, and the resulting biochar is collected at the other end of the auger. Thermocouples are used to measure temperature at different locations.
+The objective of these experiments is to gain a complete understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned involves replicating a previous test (hot test #104) for Esket demo day 2. The settings for this test include primary blowers at different speeds (S5 on the right and S10 on the left), a primary auger speed of 2200 rpm, and a secondary blower speed of 3000 rpm. The feedstock used is Douglas Fir wood chips from Williams Lake, Canada.
+During the test, the system performed well initially, but after 1-2 hours, hopper smoke started to appear. Various measures were taken to mitigate the smoke, such as poking the biomass vigorously, idling the air or stopping the auger temporarily, but none of them had a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide much improvement. The char in the first drum appeared to be relatively well done.
+The provided information does not include an example answer, so if you have any specific questions or need assistance with analyzing the data or drawing conclusions from the experiment, please let me know.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 107 10/13/22  
@@ -994,6 +2445,32 @@
 Adjust blowers in response to very high temperature. Maybe try 2000 rpm. </t>
   </si>
   <si>
+    <t>The auger speed for this hot test was not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Hot Test #107 10/13/22
+Yield: N/A
+Summary:
+The hot test operated smoothly with minimal issues. The temperatures rose quickly, possibly due to minimum poking. There was occasional smoke in the hopper, which may be related to the position of the primary blowers. The biochar produced was unevenly charred despite the high temperatures.
+Detailed Observations:
+- Smoke was observed coming out of the outflow collar.
+- The temperature reached a plateau during the test, indicating high temperatures.
+- The biochar was found to be unevenly charred despite the high temperatures.
+Suggestions:
+- Pay close attention to the hopper throughout the process.
+- Adjust the blowers in response to very high temperatures, possibly trying a lower RPM of 2000.</t>
+  </si>
+  <si>
+    <t>Hot Test #107: 1
+Reason: The reaction was successful because the temperatures reached very high levels and there was smoke coming out of the outflow collar, indicating combustion.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test was set at S10.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 108 11/12/22  
 People: Hope, Troy, Austin. 
 Hypothesis: Pretesting reactor for public demo on 11/14 
@@ -1007,6 +2484,16 @@
   </si>
   <si>
     <t>N/A: Not enough information</t>
+  </si>
+  <si>
+    <t>The auger speed for this hot test was 6 rpm.</t>
+  </si>
+  <si>
+    <t>Hot Test #108: 1
+The reaction was successful with a value of 1 because the newly installed power supply was working, the lighting procedure was followed, and the test went smoothly overall. However, a steady state was not reached due to the test being shut down early to conserve biomass chips.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test was 10 (S10).</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 109 11/14/22  
@@ -1020,6 +2507,21 @@
 It was quite cold on the day of the test which seems to have slowed down the lighting phase. The reactor was lit following the same procedure as the previous test, but when the auger was run after 8 minutes there was not a sustained flame in the main reaction zone. After a couple minutes no flames were visible through the side port, so lighter fluid was added to restart the reaction. It turned out that was all that was required, as there was enough flame higher up in the reactor to ignite the newly introduced lighter fluid. We then let it sit for another 11 minutes, and upped the primaries to 4000, to give the reaction time to establish. From there it seemed things were progressing as planned, but about 15 minutes later the auger motor unexpectedly stopped. The breaker did not seem to be tripped, and cycling the breaker, as well as re-enabling the motor in Codesys did not fix the problem. None of the wires nor the motor controller were hot. Finally, after 10-15 minutes the breaker was cycled one more time, and the auger started moving. Overall a very confusing condition. We ran for another 40 minutes or so before shutting things down. 
 Suggestions: 
 My (Austin) suspicion is that the breaker might be worn out, and not tripping properly in an overcurrent situation. I suggest we replace the motor breaker and see if it solves the “ghost tripping” problem. </t>
+  </si>
+  <si>
+    <t>Based on the detailed observations provided, it seems that the auger motor experienced an unexpected stoppage during the test, referred to as a "ghost trip" situation. The breaker did not appear to be tripped, and cycling the breaker and re-enabling the motor did not resolve the issue immediately. However, after 10-15 minutes, cycling the breaker once more allowed the auger to start moving again.
+One suggestion to address this problem is to replace the motor breaker. It is possible that the breaker may be worn out and not tripping properly in an overcurrent situation, leading to the motor stopping without the breaker being triggered. By replacing the motor breaker, it can be determined if this solves the "ghost tripping" problem.
+It is important to note that this suggestion is based on the provided information, and a thorough examination of the equipment and further troubleshooting may be necessary to fully understand and resolve the issue.</t>
+  </si>
+  <si>
+    <t>reaction successful or not: 0
+Explanation: The test did not go smoothly due to issues with lighting the reactor and the auger motor unexpectedly stopping, indicating a failure in achieving the desired combustion process.</t>
+  </si>
+  <si>
+    <t>The suggestion is to replace the motor breaker to see if it solves the "ghost tripping" problem.</t>
+  </si>
+  <si>
+    <t>Replace the motor breaker to see if it solves the "ghost tripping" problem.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 110 02/01/23 
@@ -1038,6 +2540,14 @@
 Suggestions: Moving forward we have work to do troubleshooting the blowers, scale and thermocouples. By working on these areas we can move forward and run a hot test as a baseline for variable pitch auger. </t>
   </si>
   <si>
+    <t>Input flow rate: 24.654 kg/hour</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test is S10. The secondary blowers C and D are not controlled, with C running at around 8000 rpm and D not reading in Codesys. The auger was run at 6 rpm. The experiment used a small chimney without any mesh at the top. The prototype setup had a 30-degree angle and a small barrel. The feedstock used was woodchips from Cloverdale.
+During the hot test, there were some issues with the procedure. Lighting the chips from S9 may have influenced the amount of smoke in the hopper. The open ports caused negative pressure, and running the primary blowers at a higher speed generated positive pressure through the open ports. The experiment ended when the hopper caught fire. The input feed rate was around 24.654 kg/h, and the output feed rate fluctuated between 1 and 2. The scale used for measuring the output weight was not working properly and requires further troubleshooting. Despite the scale issue, the output appeared to be well-charred.
+Moving forward, it is suggested to troubleshoot the blowers, scale, and thermocouples. By addressing these areas, a hot test can be run as a baseline for a variable pitch auger.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 111 02/02/23 
 People: Kevin, Rod, Camila and Dylan 
 Hypothesis: Run reactor at lower angle (15°) to test whether the auger will jam less, more or the same as Hot Test #110 
@@ -1049,7 +2559,15 @@
 Flames could be seen at the top of the chimney. Blower rpm was increased to counteract this. </t>
   </si>
   <si>
-    <t>Auger Speed</t>
+    <t>[output char quality, 0.5] The output char quality is moderate (0.5) because although there were improvements in reducing fire in the hopper and less scraping between the auger and the base of the reactor, the motor breaker tripped multiple times and lots of woodchips were getting stuck.</t>
+  </si>
+  <si>
+    <t>Hot Test #111: 
+Reaction successful or not: 0 
+Explanation: The reaction was not successful as the auger jammed frequently, the motor breaker tripped multiple times, and flames were observed at the top of the chimney, indicating incomplete combustion.</t>
+  </si>
+  <si>
+    <t>Blower C was controlled.</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,9 +2945,11 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1446,874 +2966,2125 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="238" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="404" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="404" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" t="s">
+        <v>191</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L31" t="s">
+        <v>198</v>
+      </c>
+      <c r="M31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" t="s">
+        <v>221</v>
+      </c>
+      <c r="M35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" t="s">
+        <v>226</v>
+      </c>
+      <c r="M36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L39" t="s">
+        <v>242</v>
+      </c>
+      <c r="M39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s">
+        <v>250</v>
+      </c>
+      <c r="M40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" t="s">
+        <v>264</v>
+      </c>
+      <c r="M42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L43" t="s">
+        <v>270</v>
+      </c>
+      <c r="M43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" t="s">
+        <v>273</v>
+      </c>
+      <c r="M44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L45" t="s">
+        <v>281</v>
+      </c>
+      <c r="M45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="340" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L46" t="s">
+        <v>286</v>
+      </c>
+      <c r="M46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="340" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>289</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L47" t="s">
+        <v>291</v>
+      </c>
+      <c r="M47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L48" t="s">
+        <v>297</v>
+      </c>
+      <c r="M48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L49" t="s">
+        <v>303</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L50" t="s">
+        <v>307</v>
+      </c>
+      <c r="M50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>311</v>
+      </c>
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L52" t="s">
+        <v>315</v>
+      </c>
+      <c r="M52" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Hot_Tests.xlsx
+++ b/Hot_Tests.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihaowang/PycharmProjects/Takachar/Takachar-GPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731E372-1593-0546-9C5D-084883C3B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB87F00F-05A5-D548-B682-0DA4C1C93E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="377">
   <si>
     <t>Hot Test</t>
   </si>
@@ -81,15 +81,6 @@
 Input feedrate was about 37.4 kg/h.  </t>
   </si>
   <si>
-    <t>Example Answer: 1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Input flow rate: 37.4 kg/h</t>
   </si>
   <si>
@@ -102,6 +93,9 @@
   </si>
   <si>
     <t>The input feedrate for the experiment was approximately 37.4 kg/h.</t>
+  </si>
+  <si>
+    <t>Input Material: PG&amp;E chips</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 62- 4/1/22  
@@ -133,12 +127,6 @@
  </t>
   </si>
   <si>
-    <t>Based on the provided information, the answer for the hot test would be N/A (Not enough information).</t>
-  </si>
-  <si>
-    <t>Example Answer: 0</t>
-  </si>
-  <si>
     <t>Based on the provided information, the experiment was conducted to compare the behaviors of the reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the Indian and Californian reactors may have contributed to the difficulties observed.
 During the experiment, only rice husks were tested, and the auger speed was initially set to 6 and later increased to 8. The primary blowers were adjusted from 4000 to 3000, while the secondary blowers remained at 5000. The results showed that coconut shells did not convey well, possibly due to deformed auger blades. Rice husks, on the other hand, conveyed smoothly without getting stuck.
 Observations from Gabriella indicated that the initial igniting process was challenging, but it was eventually successful by starting the fire with wood chips and using lighter fluid, a propane torch, and a bernzomatic torch. Smoke escaped through the hopper and cracks in the system, and there was a need to continuously replenish rice hulls to maintain oxygen cutoff at the entrance of the hopper. Bridging occurred, leading to excess white smoke and a pale-yellow color in the hopper.
@@ -177,6 +165,25 @@
 The output feedrate and yield were not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%.
 The next steps involve replacing Blower D and continuing to run hot tests with the remaining three blowers in place.
 Example Answer: The experiment involved comparing the behaviors of the newly designed reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The experiment encountered difficulties with coconut shells, possibly due to deformed auger blades. Rice husks conveyed smoothly, and the cyclic peaks in the data indicated different auger speeds at 6 RPM and 8 RPM. Smoke escaped through the hopper and cracks in the system, and attempts to decrease the temperature resulted in flames coming out of the system cracks. The output feedrate and yield were not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%. The next steps involve replacing Blower D and continuing to run hot tests with the remaining three blowers in place.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the objective of the experiment was to compare the behavior of the newly designed reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the California and Indian reactors may have contributed to the difficulties observed in the Indian reactor.
+During the experiment, only rice husks were tested, and it was observed that they conveyed smoothly without getting stuck, even when the hopper was full. However, coconut shells did not convey well and it was suggested that the auger blades may have been deformed.
+The experiment also involved replicating the Indian reactor by adjusting the positions of the primary blowers. Smoke was observed escaping from the hopper and cracks throughout the system, likely due to the proximity of the combustion chamber to the hopper. Bridging occurred, indicated by excess white smoke and a change in color of the smoke.
+Observations from Gabriella indicated that the initial igniting process was challenging, but eventually successful. Smoke continued to escape through the hopper and cracks, and there was a need to continuously replenish rice hulls to ensure sufficient oxygen supply. Flames were observed coming from the cracks in the hopper, and attempts were made to decrease the temperature by adjusting the blowers. However, flames started coming out of the system cracks when the blowers were lowered, and the system shut down when a fire occurred in the wires of Blower D.
+The output rate was not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%.
+The next steps include replacing Blower D and continuing to run hot tests with the remaining three blowers in place.
+Based on the provided information, it is not clear what specific question or analysis you would like me to address. Please let me know if there is any specific aspect of the experiment or data that you would like me to focus on.</t>
+  </si>
+  <si>
+    <t>The objective of this hot test was to compare the behaviors of the reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the California and Indian reactors may have contributed to the difficulties in conveying the biomass in the Indian reactor.
+In this test, only rice husks were tested, and the auger speed, primary blower position, and secondary blower position were adjusted to replicate the Indian reactor conditions. The results showed that the rice husks conveyed smoothly, with occasional unpleasant noises but no sticking. However, coconut shells did not convey well and were excavated from the reactor.
+The cyclic peaks observed in the temperature data indicated that the auger speed had an impact on the combustion process. At 6 RPM, the measured auger speed was 1.48 minutes per revolution, while at 8 RPM, the frequency of cyclic peaks increased. Visual observation is needed to confirm if each cycle corresponds to one full auger revolution.
+Smoke was observed escaping from the hopper and cracks throughout the system, likely due to the proximity of the combustion chamber to the hopper. Bridging occurred during the test, indicated by excess white smoke and a change in color of the smoke. Continuous replenishment of rice husks was necessary to prevent ignition in the hopper.
+Flames were observed coming from the cracks in the hopper, particularly where the hopper and combustion chamber meet facing the sky. Lowering the blowers to 3000/4000 temporarily decreased the flame, but flames started coming out of the system cracks in three places. When the blowers were raised back to 4000/5000, the flames eventually went out.
+The flame became strong once steady state was reached, and the char appeared homogenized at the end of the run. However, the fire running too hot caused complications, including a fire in the wires of Blower D, resulting in the shutdown of the entire system. The damaged blower was unplugged, and the remaining blowers and auger were used to convey the remaining char out.
+The output feedrate was not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, giving a yield of 13%. At 8 RPM, the output rate was around 5.7 kg/h, giving a yield of 34%.
+The next steps include replacing Blower D and continuing to run hot tests with three blowers in place.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 63- 4/2/22  
@@ -240,6 +247,12 @@
 The next steps suggested in the test report are to redo the test after replacing the rectangular profile of the reactor with a circular one to see if the motor works any harder as a result.</t>
   </si>
   <si>
+    <t>The motor angle for this hot test is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The input material for this hot test was rice husks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 64 - 4/4/22  
 Personnel: Austin and Kevin 
 Objective: 
@@ -308,6 +321,12 @@
     <t>The secondary blower speed for the hot test is not mentioned in the provided information.</t>
   </si>
   <si>
+    <t>The motor angle for Hot Test #64 is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The input material for Hot Test #64 was rice.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 65 - 4/5/22  
 Personnel: Austin and John 
 Objective: 
@@ -327,12 +346,6 @@
  </t>
   </si>
   <si>
-    <t>Example Answer: N/A</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>The example hot test described in the provided information is Hot Test #65 conducted on 4/5/22. The objective of this test was to repeat Hot Test #64 but with the primary blower positioned at the lowest possible position, right at the rectangular-circular transition (at B4 and B6). The hypothesis was that by starting the hot zone earlier, there would be no compression at the rectangular-circular transition, resulting in a smoother running process.
 The results of the test indicated that the test ran more smoothly and achieved a steady state. Opening the NPT ports at the lower sections did not extend the reaction downwards significantly, but the rice husks were not as tightly packed as in the previous test. This suggests that cutting primary air inlets closer to the L-junction could be a potential solution for the Indian MiniTorr.
 Other observations from the test include an input feedrate of 10.3 kg/h and well-charred biochar, possibly slightly overcharred due to the longer effective reaction length with the primary air positioned low.
@@ -363,6 +376,12 @@
   </si>
   <si>
     <t>The example answer for the thermocouple history is not provided in the given text.</t>
+  </si>
+  <si>
+    <t>The experiment was conducted to test the hypothesis that moving the primary blowers to a lower position in the reactor body would prevent jamming and compression of the biomass at the rectangular-circular transition. The test ran smoothly and achieved a steady state. The rice husks were not as tightly packed as in the previous test, indicating that the new blower position helped to decrease compression. The char produced was well-charred, but slightly overcharred, possibly due to the longer effective reaction length with the primary air in a lower position.
+The experiment used rice hulls as the primary fuel, but started with a half bucket of wood chips to aid in the lighting process. The goal was to observe the effects of the new blower position on the compression of rice hulls at the transition section. The test went well, with no jamming observed. The reactor reached a steady state, although the test had to be stopped before reaching the full steady state. There was minimal visible smoke throughout the test. The ash production varied, with periods of heavier ash and periods of little to no ash.
+The next steps include repeating the same experiments with chopped rice straws or other types of straws. Additionally, unlocking the stuck NPT ports at the middle positions (B7 and B9) would allow for further testing and finding a potential optimal position for the primary blowers. The charring at the end of the test will also be monitored to see if it resembles the homogeneous charring observed with the primary air in a lower position or the uneven charring observed with the primary air in a higher position.
+The thermocouple history was not provided in the given information.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 66 - 4/7/22  
@@ -407,6 +426,20 @@
 Example Answer: The experiment conducted in Hot Test #66 aimed to find a happy medium between previous tests by unlocking stuck NPT ports at positions B7 and B9. The results showed that the reaction tapered off and eventually died, and the rectangular-circular transition became jam-packed. The interpretation suggests that insufficient reaction leads to jam-packed rice husks, making it harder to light/react and further cooling the reaction. The next steps proposed are to repeat the test with the leaks plugged up and to also repeat the test from the previous experiment (#65) to observe if the reaction would meet the same fate as #64 or #66 if run for a longer time period.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to optimize the combustion process and machine design for biomass to biochar formation. The experiment involves testing different hypotheses by varying the primary blower position and observing the resulting charring and reaction performance.
+In the specific hot test #66, the objective was to find a happy medium between the previous two tests by unlocking the stuck NPT ports at positions B7 and B9. The researchers wanted to observe the performance of the motor with the primary air at the newly unlocked position and evaluate the extent of charring at the end. They noted that in previous tests, very high or very low primary air positions resulted in uneven charring or jam-packed rice husks.
+The results of the test indicated that the reaction eventually died in both attempts. Initially, the reactor ran hot but smoke started emerging from cracks near the rectangular-circular transition. To avoid excessive smoke, the researchers increased the auger speed, which caused the reaction to taper off and eventually die. In the second attempt, the rectangular-circular transition became jam-packed.
+Based on the interpretation of the results, it was hypothesized that the reaction needs to be at an optimal position in the reactor. When the reaction is too high or too low, it leads to issues such as jam-packed rice husks or uneven charring. Insufficient reaction leads to the rice husks not being volumetrically reduced and becoming jam-packed, which further hampers the reaction.
+The next steps proposed by the researchers include repeating test #66 with the leaks plugged up to address the issue of smoke limiting the ability to increase the primary blower RPM. They also suggest repeating test #65 to further evaluate its long-term performance and determine if it would meet the same fate as test #64 or #66.
+In summary, the objective of the experiment is to optimize the combustion process and machine design for biomass to biochar formation. The researchers are testing different hypotheses by varying the primary blower position and observing the charring and reaction performance. The results indicate the need for finding an optimal position to avoid issues such as jam-packed rice husks and uneven charring.</t>
+  </si>
+  <si>
+    <t>In this hot test, the objective was to find a happy medium between the previous two tests by adjusting the primary air blower position. The researchers wanted to observe the extent of charring at the end of the reaction and determine if it resembled the homogeneous charring observed in the test with low primary air or the uneven charring observed in the test with high primary air.
+However, the results of the test were not successful. In both tests conducted, the reaction eventually died. In the first test, the reactor ran hot initially but smoke started emerging from cracks near the rectangular-circular transition. To avoid excessive smoke, the researchers increased the auger speed, which caused the reaction to taper off and eventually die. In the second test, the primary air blower RPM was reduced, but again the reaction tapered off and the rectangular-circular transition became jam-packed.
+Based on the interpretation of the previous tests, it is hypothesized that insufficient reaction leads to the rice husks in the rectangular-circular transition not being volumetrically reduced, resulting in them becoming jam-packed. This packed rice husks then become harder to react, further cooling the reaction.
+The next steps proposed by the researchers include repeating test #66 with the leaks plugged up to address the issue of smoke limiting the ability to increase the primary blower RPM. Additionally, they suggest repeating test #65 to determine if the reaction would eventually meet the same fate as test #64 or #66 if run for a longer time period.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 67 - 4/15/22 
 Personnel: Austin and Gabriella 
 Objective: Run the first hot test with hay in the round body, and compare that with the hay hot test in India. 
@@ -445,6 +478,29 @@
   </si>
   <si>
     <t>The secondary blower speed for this hot test is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Input Material: hay
+Amount of Input Material: ~3kg
+Amount of Biochar Collected: 0.9kg
+Issues Encountered: 
+- Flow issues with the hay, resulting in slow feeding rate
+- Hay clumped together and charred all the way through
+- Hay caught fire in the hopper, limiting the test duration
+- Auger struggled to move the mass of hay
+- Thermocouple 6 fell out and other thermocouples had sporadic high readings
+- Thick white smoke and flame shot out of the hopper
+- Hay sticks together even after being charred
+Observations and Recommendations:
+- Hay needs to flow better, possibly by chopping it or changing the location of blowers
+- Start-up ignition may require additional wood chips
+- Address the issue of hay clumping together
+- Ensure proper functioning of thermocouples
+- Investigate and resolve the issue of thick white smoke and flame shooting out of the hopper
+Next Steps:
+- Consider chopping the hay in future tests
+- Explore moving the location of blowers to improve motion
+- Address the issue of hay smothering the flame and containing it strictly inside the system</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 68- 4/20/22 
@@ -536,6 +592,32 @@
 Overall, the experiment provides valuable insights into the challenges faced during the combustion process and machine design. Further experimentation and analysis can help in refining the system and achieving better results.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the combustion experiments with rice straw biomass did not go as expected. The hay material used for the experiments did not flow well and tended to stick together, causing difficulties in moving it through the system. This resulted in the hay catching fire in the hopper, which was extinguished with water.
+To address the issue of poor flowability of the hay, some possible solutions were suggested. One option is to have teeth on the auger to grab the hay and improve its movement. However, this would require redesigning the system. Another suggestion is to investigate why the hay is sticking to itself and find ways to break this cohesion. If the sticking is due to static electricity, using a dryer sheet-like material could potentially reduce the cohesion. Alternatively, preheating the hay before introducing it into the system might help break up the sticking.
+To further improve the experiments, it is recommended to run the auger for a longer duration (30+ minutes) with wood chips to heat up the system before introducing the rice straw biomass. This would ensure that the system reaches a higher temperature and is better prepared for the combustion process.
+Overall, the observations and suggestions provided by Gabriella indicate the need for modifications in the experimental setup to address the flowability issues of the hay biomass and improve the sustainability of the combustion process.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice straw
+Observations:
+- The experiment started with using straws instead of wood chips.
+- The flame went out and the reactor did not heat up significantly.
+- Wood chips were added to the side port and relit, which resulted in the reactor warming up for a while before cooling down again.
+- Smoke was observed from both the chimney and hopper simultaneously.
+- The hopper caught fire and had to be extinguished with water.
+- Rice straw was not flowable and required jamming to make it flow.
+- The fiber length of the chopped rice straws was around 2 inches on average.
+- When a big hopper was filled, the content sagged but did not flow out.
+- The rice straw was very compressible compared to other materials.
+- The auger occasionally struggled to move the biomass.
+- Hay was used in a separate test and required multiple ignitions to sustain the flame.
+- The hay did not flow well and tended to stick together.
+- The hay caught fire in the hopper in both tests.
+- The lack of flowability of the hay may be causing it to not move through the system fast enough.
+- Possible solutions suggested include adding teeth to the auger to grab the hay, finding a way to reduce the cohesion of the hay, or preheating the hay to break up its attraction.
+Next Step: Heat up the reactor more with wood chips for 30+ minutes before introducing rice straws.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 69- 4/21/22 
 Personnel: Austin and John 
 We started with wood chips, took a long time to light (maybe due to wet weather, or due to leftover straw doused with water yesterday in there; wet straw could also have clogged up the air inlet ports). It seemed the flame we could see through the side ports weren’t getting enough air. We ramped up eventually to 7000 rpm just trying to get through a possibly clogged port. Then we added a second bucket and relit. Then it was going quite well – good flame established, running at continuous at 6 RPM. Then we started putting in straw, a couple of handfuls at a time and poking into the auger. Seemed to be going reasonably well, keeping the straw level right at the top of the auger (not hopper), then slowly adding more and more. We only added most of the bucket (first bucket). Then a tiny whiff smoke came out of the hopper.  
@@ -576,6 +658,12 @@
     <t>Based on the provided information, the secondary blower speed for this hot test is 3000 RPM.</t>
   </si>
   <si>
+    <t>Based on the provided experiment description, it seems that the combustion process did not go as expected. The experimenters encountered difficulties in lighting the wood chips, possibly due to wet weather or the presence of wet straw that may have clogged the air inlet ports. They had to increase the motor speed to try and overcome the potential clog.
+After adding a second bucket of wood chips and relighting, the combustion process improved, and a good flame was established at a continuous motor speed of 6 RPM. However, when they started adding straw to the auger, the hopper caught fire after 10 minutes. The experimenters attempted to control the fire by dousing it with water while continuing to rotate the auger at higher speeds and reducing the air supply. Despite their efforts, a significant amount of smoke continued to come out of the chimney and other cracks in the machine.
+It is worth noting that when a small ember was present, the entire system ignited, but when there was no ember, no ash was observed coming out of the chimney.
+Based on this information, it appears that the addition of straw to the combustion process caused unexpected and uncontrolled combustion. Further investigation is needed to understand the specific factors contributing to the hopper fire and the excessive smoke production.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 70- 4/22/22 
 Personnel: Austin and Gabriella 
 Moved the primary blowers to the topmost position. When properly flowing, primary 3000, secondary 2500, auger 6. For lighting, primary was 4000. Later we had some chimney smoke and reduced primary to 3000.  
@@ -599,6 +687,9 @@
   </si>
   <si>
     <t>Example Answer: The secondary blower speed for this experiment is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Wood chips (PG&amp;E)</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 71 - 4/25/22 
@@ -661,6 +752,32 @@
     <t>The secondary blower speed for the hot test was not mentioned in the provided information.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to test the hypothesis regarding the location of the primary air in the biomass combustion process. The previous tests with rice straws and circular cross-sections resulted in hopper fire when the primary air was at the bottommost location and biomass sticking when the primary air was at the topmost location. Therefore, the objective of this test was to determine the outcome when the primary air is at the middle location.
+The experiment used PG&amp;E wood chips as the biomass input and set the primary air at 1300. Increasing the primary air beyond 1300 resulted in more smoke from the hopper. The experiment did not experience any jamming and ran smoothly throughout. However, there was cyclic smoke emission from both the chimney and the hopper. The input feed rate was approximately 11 kg/h.
+The experiment did not achieve steady-state conditions, as the temperature went down on its own without changing the blower RPM. Gabriella's observation mentioned that mulched hay was successfully charred during the test, but the auger started to struggle as the test progressed. The smoke emitted from the chimney changed colors intermittently. The feeding of hay into the system required manual assistance and was done gradually to prevent jamming. The auger jamming was accompanied by an increase in smoke, mostly from the hopper.
+Overall, the experiment provided some insights into the combustion process and the behavior of the machine design. However, further investigation and replication of the test are needed to draw more conclusive results.</t>
+  </si>
+  <si>
+    <t>Input Material: PG&amp;E wood chips
+Primary Air Location: Middle
+Secondary Air Speed: 2500 or 3500 (unclear)
+Observations:
+- No jamming occurred during the test.
+- Smoke from the chimney and hopper was observed cyclically.
+- The input feed rate was approximately 11 kg/h.
+- Steady state was not achieved, as the temperature decreased without changing the blower RPM.
+- Mulched hay was successfully charred, with a total of 6.7 kg of char produced.
+- The auger struggled as the test progressed.
+- The flame appeared strong despite temperature readings and smoke indicating otherwise.
+- The system exhibited cyclic behavior, with the auger getting jammed and increasing smoke volume.
+- Blower speed and auger speed changes did not always result in desired changes.
+- The system produced white, black, and yellow smoke at different times.
+- The hay was manually fed into the system, with the tactic of gradually adding it and plugging holes.
+- The system's behavior was influenced by the thickness of smoke, auger struggling, and hopper smoking.
+- The test's replicability is of interest.
+Note: The information provided is based on the given example and may not reflect the complete understanding of the combustion process and machine design. Further analysis and experimentation may be required for a comprehensive understanding.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 72 - 4/26/22 
 Personnel: Austin and John 
 Hypothesis: We replaced the circular cross section with the rectangular cross section in the reactor, while keeping the primary air at the same location (top, or B10/B12). We wanted to observe any differences once the auger-inner wall constrictions are relaxed. Our hypothesis is that by relaxing the auger-inner wall constrictions, unlike the circular cross section previously, the hay would not get stuck. 
@@ -678,9 +795,6 @@
  </t>
   </si>
   <si>
-    <t>Example Hot Test: 1</t>
-  </si>
-  <si>
     <t>Based on the provided information, it seems that the experiment conducted in Hot Test #72 on 4/26/22 had some unexpected outcomes and observations. The experiment aimed to observe any differences in biomass conveyance when the circular cross section of the reactor was replaced with a rectangular cross section, while keeping the primary air at the same location. The hypothesis was that by relaxing the auger-inner wall constrictions, the biomass (hay) would not get stuck.
 The settings for this experiment were a primary air flow rate of 1500 and a secondary air flow rate of 2500. The outcome of the experiment revealed that there were no significant conveyance issues, but there were shudders and signs of friction. The breaker did not blow, and the chimney generally emitted little smoke or ash. However, there was a lot of smoke coming out of cracks and intermittently from the hopper. Inside the reactor, it was very smoky, and substantial flames were observed coming out of the cracks below and above the chimney connector piece. The damper was removed, but it seemed to be acting as if it was still present.
 Upon inspection, it was found that the chimney might have been blocked by charred rice straw, which was easily dislodged. "Furry formations" were observed stuck on the inner wall of the oil drum, indicating that the rice straw char was light and easily aerated. The mesh at the top of the chimney was also found to have some char lodged between the wires, but not many wires were clogged. However, there was an accumulation of fine char dust in the chimney elbow, particularly at the secondary blower outlets. The secondary blowers were clogged by mostly uncharred straw, which may have affected their P-Q profile. The primary blowers were also clogged, but to a lesser extent. The side NPT ports (S8) were filled with char dust, more so on the IFM side than the opposite side.
@@ -698,6 +812,13 @@
 Further investigation revealed that the mesh at the top of the chimney had some rice straw char lodged between the wires, but they fell out easily and did not cause significant clogging. However, there was an accumulation of fine char dust in the chimney elbow near the secondary blower outlets, which may have been clogged char that fell down or recirculated into a dead zone.
 Both secondary blowers were found to be clogged by mostly uncharred straw, which may have affected their P-Q profile. The primary blowers were also clogged, but to a lesser extent. The side NPT ports (S8) were filled with char dust, more so on the IFM side than the opposite side.
 The next step in the experiment is to remove the chimney mesh and conduct the same hot test to investigate if the clogged chimney mesh was causing the smoke from the hopper.
+Unfortunately, the provided information does not include any details about the thermocouple history.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment involved testing a rectangular cross-section reactor design with relaxed auger-inner wall constrictions. The objective was to observe any differences in biomass conveyance compared to the previous circular cross-section design. The primary blowers were set at 1500 and the secondary blowers at 2500. 
+The outcome of the experiment indicated that there were no significant conveyance issues, but there were shudders and signs of friction. Smoke was observed coming out of cracks and intermittently from the hopper. Flames were also observed coming out of cracks below and above the chimney connector piece. The damper was removed, but it still acted as if it was present. 
+Upon inspection, it was found that the chimney mesh had rice straw char lodged between the wires, but they fell out easily and there were not many clogged mesh wires. However, there was an accumulation of fine char dust in the chimney elbow at the secondary blower outlets. The secondary blowers were clogged by uncharred and charred straws, which may have affected their P-Q profile. The primary blowers were also clogged, but to a lesser extent. The side NPT ports were filled with char dust, more so on the IFM side.
+The next step in the experiment is to remove the chimney mesh and conduct the same hot test to investigate if it was causing the smoke from the hopper. 
 Unfortunately, the provided information does not include any details about the thermocouple history.</t>
   </si>
   <si>
@@ -742,6 +863,14 @@
     <t>Based on the provided information, the example answer for the thermocouple history is not available.</t>
   </si>
   <si>
+    <t>In this hot test, the experimenters conducted the combustion experiment without the chimney mesh to test the hypothesis that it was causing the hopper smoke. The primary blowers were set at the same positions as before, and the reactor profile was rectangular. The input material used was 1.5 bucketfuls of eucalyptus wood chips. 
+During the test, the experimenters observed that the wood chips in the flame zone were filled almost to the top through the cracks of the chimney base, which was not seen in previous tests. They speculated that this might be due to manually packing the wood chips more tightly. 
+The flames were quickly established after starting the auger at 6rpm and feeding straw into the reactor. However, there were some small fires in the hopper, which were reduced to a manageable level by increasing the auger speed to 10rpm. The straw had to be continuously pushed into the auger to keep it full and prevent hopper fires. 
+The average feed rate during the experiment was approximately 27 kg/h. When the char outlet was opened at the end of the experiment, there was no smoke, and the straws appeared evenly charred. 
+The next steps mentioned in the hot test include installing a mega chimney and testing it with rice hulls to assess its effectiveness in reducing ash and charred particles coming out of the chimney. 
+No information is provided about the thermocouple history in this hot test.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 74 - 5/4/22 
 Personnel: Austin and Gabriella  
 Hypothesis: To see if moving primary blowers to the middle position with the round body can create a happy medium of flow vs, smoke. 
@@ -755,19 +884,7 @@
 </t>
   </si>
   <si>
-    <t>Example Answer: 
-Hot Test #74 - 5/4/22: 1 (smoke)</t>
-  </si>
-  <si>
-    <t>Hot Test #74 - 5/4/22: 1</t>
-  </si>
-  <si>
-    <t>Hot Test #74 - 5/4/22
-Outcome: 0 (no smoke)
-Notable observations:
-- Woodchips: The wood chips used as fuel did not flow easily or compact enough, leading to air pockets and sparse area coverage. This resulted in a lack of fuel and allowed smoke to escape easily.
-- Smoke: During the ignition process, smoke from the hopper was white, while smoke from the chimney was a greenish brown to black color. Increasing the secondary blowers helped reduce the smoke, but it did not completely stop until rice hulls were added to the reactor.
-- Thermocouple error: The thermocouple was initially placed too high and was flattened by the auger, causing the auger to struggle. The thermocouple was adjusted to resolve this issue.</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>The auger speed for the hot test #74 was 6 rpm.</t>
@@ -801,27 +918,6 @@
 </t>
   </si>
   <si>
-    <t>Example Hot Test:  + Hot Test # 75 - 5/5/22 
-Personnel: Austin and John 
-Hypothesis: The larger chimney should reduce ash and ember flow with woodchips as it did with rice hulls. 
-Settings: Primary 4000&gt;2500&gt;3000 Secondary 3000 auger 6 Angle 45 Round body 
-Outcome:  
-Overall, the hypothesis was confirmed. Through various stages of operation, including times where many burning embers could be seen flowing inside the reactor, no large particulates were seen coming from the chimney.  
-Outside of the ash situation however, the hot test did not run particularly smoothly. The day was pretty windy and we had a very hard time controlling smoke. We had the blowers in the middle position (B7, B9) which did not provide enough volumetric reduction in the square to round transition area to prevent jamming. We were also stuck between wanting to raise the primaries to get more reaction in that transition zone, and wanting to keep them lower to prevent smoke from pouring out of the hopper. It also seemed like we couldn’t quite get the reaction hot enough to stop smoke coming from the chimney, and one of our neighbors did come over to complain. We were using a mix of the various wood chips we had on hand, primarily the PG&amp;E chips. They all required pretty constant agitation to keep them flowing through the hopper. 
-Next steps: It might be worth investing some time in getting the ProFire working again to prevent future complaints.  
-Thermocouple history: 
-. Example Answer: 1</t>
-  </si>
-  <si>
-    <t>Hot Test # 75 - 5/5/22
-Outcome: 1 (smoke)
-Based on the information provided, the hot test resulted in smoke coming from the chimney.</t>
-  </si>
-  <si>
-    <t>Hot Test # 75 - 5/5/22
-Outcome: 1</t>
-  </si>
-  <si>
     <t>Hot Test # 75 - 5/5/22
 Personnel: Austin and John
 Hypothesis: The larger chimney should reduce ash and ember flow with woodchips as it did with rice hulls.
@@ -842,6 +938,12 @@
     <t>Based on the provided information, it seems that the experiment was conducted to test the hypothesis that a larger chimney would reduce ash and ember flow with woodchips, similar to what was observed with rice hulls. The experiment involved using a primary blower with settings of 4000&gt;2500&gt;3000, a secondary blower with a setting of 3000, an auger speed of 6, an angle of 45, and a round body. 
 The outcome of the experiment confirmed the hypothesis, as no large particulates were observed coming from the chimney during various stages of operation, even when burning embers were flowing inside the reactor. However, the experiment did not run smoothly due to windy conditions and difficulty in controlling smoke. The blowers' positions (B7, B9) did not provide enough volumetric reduction in the square to round transition area, leading to jamming. The challenge of balancing the primary blower settings to increase reaction in the transition zone while preventing smoke from pouring out of the hopper was also mentioned. The reaction temperature was not hot enough to completely stop smoke from the chimney, resulting in a complaint from a neighbor. The wood chips used, primarily PG&amp;E chips, required constant agitation to maintain flow through the hopper. 
 The suggested next step is to invest time in getting the ProFire working again to prevent future complaints. Unfortunately, no information about the thermocouple history was provided.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, primary blowers for oxygen supply, secondary blowers for volatile removal, and thermocouples for temperature measurement.
+In the example hot test, the hypothesis was that a larger chimney would reduce ash and ember flow with woodchips, similar to what was observed with rice hulls. The settings for this test included specific values for primary blowers, secondary blowers, auger speed, and motor angle. The outcome of the test confirmed the hypothesis, as no large particulates were observed coming from the chimney during various stages of operation.
+However, the hot test did not run smoothly due to windy conditions and difficulties in controlling smoke. The blowers' position and the reaction temperature were challenging to optimize, resulting in smoke pouring out of the hopper and a neighbor complaint. The wood chips used required constant agitation to maintain flow through the hopper. The next steps suggested investing time in getting the ProFire working again to prevent future complaints.
+Unfortunately, the provided information does not include any specific data or values from the thermocouples.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 76 - 5/20/22 
@@ -889,6 +991,16 @@
 Unfortunately, the provided information does not include any data or values for the thermocouple history.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and primary and secondary blowers for air supply and volatile removal, respectively. Thermocouples are used to measure temperature at different locations.
+In the example hot test, the hypothesis was to sustain the primary blower speeds at 2000 rpm and the secondary blower speeds at 3500 rpm to achieve optimal amounts of char. However, the outcome of the test indicated that a steady state could not be achieved. The reactor became full, reducing air flow and cooling down. Rice hulls got stuck in the reactor body, causing the flame to be higher up and emitting smoke from various locations. The auger had to be reversed to unjam the reactor. Only about 50% of the rice hulls were charred, indicating that the hypothesis was not confirmed.
+Notable observations included the emission of light gray smoke from the hopper, reactor body, and bottom of the chimney, as well as occasional large clouds of white smoke from the chimney. The flames were higher up in the reactor body than usual, possibly due to the amount of biomass added. The reactor body and thermocouple 4 gradually cooled down over time, resulting in less optimal char production.
+The suggested next steps include conducting tests with variable blower speeds (increasing primaries) to assess the possibility of operating even when the reactor body is full, or performing the reaction at a lower angle.
+Unfortunately, no information is provided regarding the thermocouple history.</t>
+  </si>
+  <si>
+    <t>The thermocouple history for this hot test is not provided in the given information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 77 - 5/23/22 
 Personnel: Eymon, Austin, Gabriella, Cerise, Kevin 
 Hypothesis: Using rice straws to replicate the smoke coming out of the chimney the India team is experiencing. 
@@ -902,10 +1014,6 @@
  </t>
   </si>
   <si>
-    <t>Hot Test # 77 - 5/23/22
-Outcome: 1</t>
-  </si>
-  <si>
     <t>Error:{"error":{"code":502,"message":"Bad gateway.","param":null,"type":"cf_bad_gateway"}}</t>
   </si>
   <si>
@@ -927,6 +1035,17 @@
   </si>
   <si>
     <t>Based on the provided information, it seems that the thermocouple history is missing or not mentioned in the example. The thermocouple measurements are crucial for understanding the temperature distribution within the reactor during the combustion process. It would be helpful to have data from the thermocouples to analyze the temperature profiles and identify any potential issues or variations in the experiment.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the thermocouple history is missing or not provided. The thermocouples are mentioned as measuring the temperature at different places, but there is no data or observations mentioned regarding the temperature measurements from the thermocouples.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the experiment involved testing the combustion process in a small-sized reactor for biomass to biochar formation. The objective was to gain a complete understanding of the combustion process and machine design by testing different hypotheses. In this specific hot test (#77), the personnel involved were Eymon, Austin, Gabriella, Cerise, and Kevin.
+The hypothesis for this test was to use rice straws to replicate the smoke that the India team was experiencing. The settings for the primary blower, secondary blower, and auger were 4000 rpm, 3000 rpm, and 10 rpm, respectively.
+The outcome of the test was that the chimney smoke experienced by the India team could not be replicated due to differences in the design of the prototype at RFS. The test had to be stopped because the hopper caught fire, possibly due to an ember falling into the hopper section. Smoke and some ashes were observed coming out from the chimney, as well as smoke escaping from cracks.
+Notable observations included the absence of a hopper, with rice straws being manually fed instead. The inability to replicate the chimney smoke was attributed, in part, to the new square section design.
+The next steps recommended were to replicate a similar design to the India team's prototype in order to produce the chimney smoke they were experiencing. Additionally, the reasons for the chimney smoke and possible solutions were to be identified.
+No information was provided regarding the thermocouple history.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 78 - 5/26/22 
@@ -945,9 +1064,6 @@
 </t>
   </si>
   <si>
-    <t>Hot Test # 78 - 5/26/22: 1</t>
-  </si>
-  <si>
     <t>Based on the provided information, it seems that the experiment involved testing the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment specifically focused on running a hot test using rice straw as the biomass, with the reactor set at a 30° configuration.
 The settings of the experiment included primary blowers set at 3000, secondary blowers set at 4000, and the auger rotating at 10 rpm. The reactor exit was connected to a black bag, and a large chimney was used. The weather conditions during the test were described as partly cloudy, very windy, and chilly.
 The outcome of the test indicated that approximately 2kg of char was achieved, but steady state was not reached. There was uncertainty about whether the char obtained was from a previous test. Several notable observations were made during the test, including the presence of yellowish smoke coming out of the chimney and cracks of the reactor, ash particles visible from the top of the chimney, and the auger jamming and flipping the breaker switch. Additionally, a hopper fire occurred during the test.
@@ -972,6 +1088,18 @@
 2. It is recommended to investigate and address the issues with the auger jamming and the hopper catching fire.
 3. Further analysis of the thermocouple data is needed to understand the temperature distribution and any potential correlations with the observed issues.
 Please note that without access to the detailed data and experimental setup, it is challenging to provide a comprehensive analysis.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the experiment involved conducting a hot test using rice straw as the biomass in a 30° configuration. However, the test encountered several issues and did not reach a steady state. The notable observations include yellowish smoke coming out of the chimney and cracks of the reactor, visible ash particles from the chimney, auger jamming and flipping the breaker switch, and a hopper fire. To mitigate the smoke issue, a propane blower was used to burn through the side port. 
+The next step suggested is to conduct the next test using wood chips instead of straw, as the straw may burn too quickly and not sustain the required heat. 
+Unfortunately, the provided information does not include any specific data or measurements from the thermocouples.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the hot test conducted with rice straw in the reactor at a 30° configuration resulted in several observations and issues. Notably, there was a hopper fire, ash particles were visible from the chimney, yellowish smoke was emitted, and the auger experienced jamming. To mitigate the smoke, a propane blower was used through the side port.
+For the next test, it is suggested to use wood chips instead of straw to establish a more sustainable and controllable fire. This is because straw may burn too quickly, making it difficult to maintain a steady state of heat.
+To gain a complete understanding of the combustion process and machine design, it is recommended to analyze the thermocouple data. The thermocouples should be placed at different locations within the reactor to measure temperature variations. By analyzing the temperature profiles, it will be possible to identify any hotspots, temperature gradients, or other patterns that can provide insights into the combustion process and reactor performance.
+Additionally, it would be beneficial to investigate the cause of the hopper fire and the auger jamming. This could involve examining the design and operation of the hopper and auger system, as well as considering any potential issues with the biomass feedstock.
+Overall, by systematically analyzing the experimental data, addressing the observed issues, and testing different hypotheses, a comprehensive understanding of the combustion process and machine design can be achieved.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 79 - 5/31/22 
@@ -991,26 +1119,6 @@
  </t>
   </si>
   <si>
-    <t>Example Hot Test:  + Hot Test # 79 - 5/31/22 
-Personnel: Austin, Gabriella, Eymon, Cerise, Charu (Austin was playing supervisory role) 
-Hypothesis: To run a hot test using rice straw with the reactor in a 30° configuration, while using the woodchips to ignite. 
-Settings: Primary 3000, Secondary 2000, Auger 10 rpm. Reactor at 30°, reactor exit black bag. Large chimney  
-Outcome: ~0.9kg of charr was achieved, however steady state was not and most of the char was from the woodchips, although there was a good amount of straw char as well. Test had to be stopped due to continuing hopper fires as rice straw was not being packed tight enough or fast enough, leading to oxygen flowing into the hopper and igniting the flame in the hopper. Minimal ash and smoke was observed coming from the chimney. 
-Pushing biomass down vertically rather than up 
-We attempted a second hot test (a continuation of the prior test while the temperature was hot), but the second attempt was not being put quickly enough. Fire inside the hopper 
-Notable Observations:  
-Reactor maintained a decently high temp (around 240 F), but we were not able to sustain the test. 
-Hopper caught fire twice 
-Low amounts of smoke and ash coming from chimney. 
-The char looks well done: 
-Next Steps: The next test with rice straw we will make sure to continuously pack the rice straw in order to prevent oxygen from entering and starting hopper fires. 
-Thermocouple history: 
- . Example Answer: N/A</t>
-  </si>
-  <si>
-    <t>Hot Test # 79 - 5/31/22: 1</t>
-  </si>
-  <si>
     <t>Based on the provided information, it seems that the experiment involved testing the combustion of biomass (specifically rice straw) in a newly designed small-sized reactor. The reactor was set at a 30° configuration, and woodchips were used to ignite the biomass. The primary blowers provided air (oxygen) to the reactor zone, while the secondary blowers removed volatiles through the chimney.
 During the experiment, approximately 0.9kg of char was achieved, but steady state was not reached. Most of the char was from the woodchips, although there was also a good amount of straw char. The test had to be stopped due to hopper fires caused by insufficient packing of the rice straw, allowing oxygen to flow into the hopper and ignite the flame. Minimal ash and smoke were observed coming from the chimney.
 The reactor maintained a temperature of around 240°F, but the test could not be sustained. The hopper caught fire twice, indicating the need for better packing of the biomass to prevent oxygen ingress. The char produced appeared to be well done.
@@ -1036,6 +1144,17 @@
 Notable observations included the reactor maintaining a decently high temperature (around 240°F), but the test could not be sustained. The hopper caught fire twice. Low amounts of smoke and ash were observed coming from the chimney. The char produced looked well done.
 The next steps mentioned in the example were to continuously pack the rice straw in the next test to prevent oxygen from entering and causing hopper fires.
 No information is provided about the thermocouple history.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment involved testing the combustion of biomass (specifically rice straw) in a newly designed small-sized reactor. The objective was to understand the combustion process and machine design by testing different hypotheses.
+During the hot test, the reactor was set at a 30° configuration, and woodchips were used to ignite the biomass. The primary blower provided air (oxygen) to the reactor zone, while the secondary blower removed volatiles through the chimney. The auger rotated at 10 rpm to carry the biomass into the reactor.
+The outcome of the test was the production of approximately 0.9 kg of char, with most of it coming from the woodchips. However, steady state was not achieved, and there were issues with hopper fires. It was observed that the rice straw was not packed tightly enough or fast enough, leading to oxygen flowing into the hopper and igniting the flame. Minimal ash and smoke were observed coming from the chimney.
+In the second attempt, the biomass was not being fed quickly enough, and there were again issues with hopper fires. The reactor maintained a temperature of around 240°F but the test could not be sustained.
+The next steps mentioned in the report include continuously packing the rice straw to prevent oxygen from entering and causing hopper fires.
+Unfortunately, no specific information about the thermocouple history was provided in the given text.</t>
+  </si>
+  <si>
+    <t>The thermocouple history was not provided in the given information.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 80 - 6/1/22 
@@ -1101,6 +1220,15 @@
     <t>Secondary blower speed: 2000 rpm</t>
   </si>
   <si>
+    <t>Based on the provided information, the experiment conducted was aimed at testing the hypothesis of using mulched rice straw to prevent auger jamming and hopper fires. The settings for the experiment were as follows: Primary blower at 3000, Secondary blower at 2000, and Auger rotating at 10 rpm. The reactor temperature was set at 30°C, and a large chimney was used for the removal of volatiles.
+The outcome of the experiment indicated that aggressively feeding the mulched straw into the hopper and packing it caused the auger to jam on multiple occasions, even with the use of mulched straw. This led to the need to run the auger in reverse to unjam it. Additionally, hopper fires occurred, possibly due to the intermittent stopping of the auger. The reactor body also produced knocking and screeching noises. The constant tripping of the auger breaker prompted an investigation into electrical issues.
+Notable observations from the experiment include the auger jamming and stopping three times, the hopper catching on fire, knocking and screeching noises from the reactor body, and the inability to reach a steady state. An investigation into the electrical issue was also mentioned.
+The suggested next steps include replacing the breaker to ensure it is not the cause of the problem, trying to feed the mulch at a faster rate, and disassembling the machine to investigate any potential mechanical issues.</t>
+  </si>
+  <si>
+    <t>Input Material: Mulched rice straw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 82 – 06/07/22 
 Personnel: Austin, Gabriella, Eymon, Cerise, Charu, Elliot, Shadi(Austin was playing supervisory role) 
 Hypothesis: To run a test with rice hulls to compare its performance against rice straw. Wanted to reduce auger jams.  
@@ -1134,6 +1262,14 @@
   </si>
   <si>
     <t>Based on the provided information, the thermocouple history is not mentioned in the example hot test.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to compare the performance of rice hulls against rice straw in terms of reducing auger jams. However, the experiment encountered some issues and observations. 
+Firstly, there were knocking and screeching noises coming from the reactor body, which could indicate some mechanical problems or issues with the design. 
+Secondly, the temperature inside the reactor gradually decreased over time, likely due to the buildup of rice hull char. This suggests that the combustion process was not efficient enough to maintain high temperatures. 
+Additionally, there were occasional instances where the auger stopped turning and needed to be restarted, indicating potential issues with the auger mechanism. 
+To address these problems, the next steps include replacing the breaker to ensure it is not causing jamming issues and potentially running the blowers at faster rates to maintain higher temperatures. 
+Unfortunately, no specific information is provided about the thermocouple history, so it is not possible to provide an example answer for that.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 83 – 06/13/22 
@@ -1172,6 +1308,9 @@
 - Investigate what could be causing possible jamming while rice hulls are being fed into the reactor.</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Primary blower speed: 4000
 Secondary blower speed: 2000
 Auger speed: 6 rpm
@@ -1183,6 +1322,21 @@
   </si>
   <si>
     <t>The secondary blower speed for the hot test was 2000.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the experiment with rice hulls in the small-sized reactor was not successful. There was a significant buildup of rice hulls in the reactor, resulting in smoke and potential jamming. The motor continued to spin even when the auger was stopped for a few seconds. Some ash was observed coming out of the chimney, and smoke was also observed coming out of cracks. The mixed char produced in the experiment had a weight of around 16 kg in the first barrel and 12 kg in the second barrel.
+To address these issues and improve the experiment, the following next steps are suggested:
+1. Use fewer woodchips at a time or consider pushing woodchips through the combustion chamber instead of directly through the reactor. This may help prevent jamming during the feeding of rice hulls.
+2. Investigate the possible causes of jamming while rice hulls are being fed into the reactor. This could involve examining the design and operation of the auger system.
+3. Analyze the composition and properties of the produced biochar to understand its quality and potential applications.
+4. Consider modifying the reactor design to minimize the buildup of biomass and improve the overall combustion process.
+5. Conduct further experiments with different biomass feedstocks to evaluate their behavior and performance in the reactor.
+6. Monitor and analyze the temperature profiles at different locations in the reactor using the thermocouples to gain a better understanding of the combustion process.
+7. Investigate the source of smoke coming out of cracks and take measures to prevent it, such as sealing any potential leakage points.
+By implementing these next steps, it is expected that the combustion process and machine design can be better understood, leading to improvements in the reactor's performance and biochar production.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice Hulls</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 84 – 07/08/22 
@@ -1211,6 +1365,17 @@
   </si>
   <si>
     <t>The secondary blower speed for this hot test is 3000.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment involves inputting biomass into the reactor using a hopper and an auger that rotates at a certain speed. The volatiles are removed through a chimney, and the output biochar is collected at the other end of the auger. Thermocouples are used to measure temperature at different places.
+In the specific example hot test described, the hypothesis was to test the performance of a new auger. However, the test was not successful due to the buildup of rice hulls in the reactor, which caused white and yellow smoke to escape through cracks in the reactor hull. The observations noted that the new auger moved faster than previous augers, potentially contributing to the buildup of rice hulls. The next steps suggested include finding a way to block off the chimney to prevent buildup, switching the augers, and lining the reactor to reduce smoke emission.
+To gain a complete understanding of the combustion process and machine design, further experiments can be conducted by testing different hypotheses. These experiments can involve varying parameters such as the speed of the auger, the biomass input rate, the reactor temperature, and the airflow rates. By systematically analyzing the data collected from these experiments, it will be possible to identify the optimal conditions for biomass to biochar conversion and improve the design of the reactor to minimize issues such as buildup and smoke emission.</t>
+  </si>
+  <si>
+    <t>Input Material: rice
+Outcome: Not successful, with lots of buildup in the reactor body from the rice hulls and excessive white and yellow smoke.
+Notable Observations: The new auger moved faster than previous augers, potentially contributing to the buildup of rice hulls. The smoke exited through cracks in the reactor hull.
+Next Steps: Block off the chimney to prevent buildup, switch the augers' positions, and line the reactor to reduce smoke emission.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 85 – 07/12/22 
@@ -1261,6 +1426,24 @@
   </si>
   <si>
     <t>The secondary blower speed for this experiment was 3000.</t>
+  </si>
+  <si>
+    <t>The experiment conducted was aimed at testing a new auger design with wood chips in order to reduce jamming in the reactor. The settings for the experiment included primary blower at 2000, secondary blower at 3000, auger speed at 6, reactor temperature at 30º, and a large chimney for volatile removal. The feedstock used was a pile of leafy, fibrous eucalyptus wood chips, which were manually fed into the reactor by Gabriella and Eymon.
+The outcome of the experiment was not successful as there were not enough wood chips to match the amount of air being pushed into the machine. The high temperatures resulted in an extremely hot fire but did not burn up much material. It was observed that thermocouples 5 and 6 were switched and this needs to be corrected when analyzing the data. Additionally, there was a lack of wood chip flow, possibly due to bridging in the auger and friction between the reactor walls and auger parts. Although the new auger design reduced jamming, the friction issue persisted.
+The next steps suggested include finding ways to increase the flowability of wood chips to provide more fuel for the amount of air being pushed into the machine. Possible solutions could involve increasing the auger speed or using smaller/less fibrous wood chips. It is also important to investigate if the new auger design is affecting the airflow from the hopper to the combustion zone, as the fire descended to the hopper during the experiment. Kevin recommended conducting the experiment with the same person (e.g., Austin) feeding the biomass to determine if human factors play a role. If Austin is unavailable, the experiment can be conducted with the same people (Gabriella/Eymon) but with an increased auger speed for wood chips.</t>
+  </si>
+  <si>
+    <t>Input Material: Wood chips, leafy, fibrous eucalyptus pile (probably)
+Outcome: Overall not successful. The fire was extremely hot, but not burning up much material due to a lack of wood chips for the amount of air being pushed into the machine.
+Notable Observations:
+- Thermocouple 5 and 6 were switched and need to be transposed when creating data.
+- Friction between the reactor walls and auger parts persists, although the new auger jams less.
+- The fire descended to the hopper underneath, leading to the shutdown of the machine.
+Next Steps:
+1. Increase the flowability of wood chips to provide more fuel for the amount of air being pushed into the machine. Possible solutions include speeding up the auger or using smaller/less fibrous wood chips.
+2. Investigate if the new auger is affecting the amount of air getting from the hopper to the combustion zone. The fire descending to the hopper suggests a potential issue.
+3. Test if the person shoving the biomass (e.g., Austin) is a factor in the experiment. If possible, have the same person consistently perform this task. If not, consider increasing the auger speed for wood chips while using the same individuals (Gabriella/Eymon) for shoving.
+4. Consider Kevin's recommendation and explore other factors that may be influencing the combustion process and machine performance.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 86 – 07/13/22 
@@ -1310,6 +1493,25 @@
 Based on these observations, the next steps should include fixing the gap between the auger flights to prevent jamming and testing different biomass types to assess the impact of the gap on the overall performance. Additionally, further investigation into the combustion process, oxygen supply, and mixing of biomass and air should be conducted to optimize the design and operation of the reactor.</t>
   </si>
   <si>
+    <t>Based on the information provided, it seems that the main issue in this hot test was the jamming of the auger. The auger flights, particularly on the left side, were packed tightly, leading to frequent jams and the need to remove biomass and run the auger backwards to clear the jam. Additionally, the auger itself was significantly warped, with a noticeable gap between the new auger and the welded piece on the top auger.
+The yellow smoke emitting from the cracks in the reactor suggests incomplete combustion, which could be due to the difficulty in maintaining a consistent reactor fire during certain portions of the hot test. This could be related to the jamming issue and the inability to feed biomass effectively into the reactor.
+Furthermore, the lack of biochar collected at the end of the hot test and the presence of ash instead indicate that the combustion process was not efficient in converting the biomass into biochar.
+Based on these observations, the next steps would involve addressing the issues with the auger. Fixing the gap between the auger flights is crucial to ensure smooth operation and prevent jamming. Additionally, investigating the cause of the auger warping and finding ways to mitigate it would be important to maintain the performance of the auger over time.
+It is also suggested to test a different biomass to evaluate the impact of the auger gap on the combustion process. This would provide insights into the suitability of the current design for different feedstocks.
+Overall, the objective of gaining a complete understanding of the combustion process and machine design would require further experimentation and modifications to address the issues observed in this hot test.</t>
+  </si>
+  <si>
+    <t>The hot test conducted in this experiment involved using a new auger with wood chips as the feedstock. The objective was to test if increasing the auger speed would reduce jamming. However, the hot test was a failure as the auger was unable to run without jamming and stopping on its own.
+Notable observations from the experiment include:
+- The auger ceased to run 7 times during the test, requiring removal of biomass and running the auger backwards to eliminate the jam.
+- The left side of the auger flights was packed tightly, making it difficult to add more wood chips and potentially contributing to the jams.
+- Yellow smoke was emitting from cracks in the reactor.
+- The reactor fire was hot but had difficulty being maintained at certain points during the test.
+- Very little biochar was collected at the end of the test, mostly ash.
+- The auger was significantly warped, with a significant gap between the new auger and the welded piece on the top auger.
+The next steps suggested include fixing the gap between the auger flights, as it seems to be the most important issue. Additionally, testing a different biomass could help determine the impact of the gap. The rapid warping of the auger is surprising and needs to be addressed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 87 – 07/15/22 
 People: Austin, Shadi, Elliot, Yiyang 
 Hypothesis:  Use woodchips again to see if we can stop the consistent jamming.  
@@ -1357,6 +1559,15 @@
   </si>
   <si>
     <t>The secondary blower speed for this hot test is 4000.</t>
+  </si>
+  <si>
+    <t>The experiment conducted in Hot Test #87 aimed to investigate the possibility of preventing consistent jamming in the reactor by using woodchips. However, the outcome was not successful as the auger jammed multiple times even before it was lit. Additionally, there was a significant amount of smoke coming from the reactor body, although the char was well charred.
+Notable observations from the experiment include the repeated jamming of the auger, noises coming from the reactor when the motor was reversed to stop the jamming, and the woodchips pulling up like rice hulls, resulting in smoke from the chimney.
+Based on these observations, the next steps suggested are to explore the use of smaller woodchips to potentially prevent jamming, consider using different biomasses and restocks to avoid large woodchips, and lower the reactor angle to prevent the piling up of woodchips and rice hulls.
+It is important to note that this example answer is based solely on the provided information and does not take into account any additional knowledge or context.</t>
+  </si>
+  <si>
+    <t>Input Material: Woodchips</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 88 – 07/16/22 
@@ -1409,6 +1620,21 @@
 Example Answer: The experiment aimed to resolve wood chip jamming by moving the primary blower position down two notches. However, the results showed slow conveyance of wood chips, frequent auger stops, and the formation of a pile of charred wood chips below the chimney section. This led to motor tripping and a hopper fire. The white smoke observed in the chimney and hopper may have been caused by blocked air flow channels due to the piling wood chips. The thermocouple readouts were anemic, and the char output was mixed. The input flow rate of wood chips was approximately 50 kg/h, which slowed over time, and the output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%. The next steps suggested include testing a more flowable material with increased hydrostatic head, lowering the reactor angle, testing a new 6'' auger, and repositioning the primary blowers to a higher circumferential position.</t>
   </si>
   <si>
+    <t>Based on the provided information, the experiment conducted in the newly designed small-sized reactor aimed to investigate the combustion process and machine design for biomass to biochar formation. The experiment involved inputting biomass into the reactor using a hopper and an auger, which carried the biomass into the reactor for combustion in the presence of oxygen. The volatiles were removed through a chimney, while the output biochar was collected at the other end of the auger. Thermocouples were used to measure temperature at different locations.
+In the specific hot test described, the hypothesis was that moving the primary blower position down two notches would resolve wood chip jamming. The primary blower position was changed from B10/B12 to B4/B6. Wood chips collected from the City of Berkeley were used as the feedstock.
+The results of the hot test indicated that the conveyance of wood chips was initially slow, and the auger had to be stopped a few times for the reaction to catch up. White smoke started emerging from the chimney, and a visible flame was lost, replaced by smoke and later by higher biomass/char. Charred wood chips started piling up below the chimney section, leading to motor tripping and eventually causing a hopper fire. The white smoke was believed to be caused by blocked air flow channels due to the piling wood chips. The thermocouple readouts were described as anemic. The input flow rate of wood chips was approximately 50 kg/h, which slowed over time, while the output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%.
+Other observations included no hot embers sliding down to the hopper region during the hopper fire and very few ashes emitted from the chimney. The reaction zone initially aimed to be halfway through S4 but advanced closer to the base of the chimney. Hot gases were observed flowing in two directions through the S6 port at the chimney, indicating that the reaction persisted beyond the chimney region. Initially, only one secondary blower was used due to command issues with the other blower, but it was later replaced and put back into service.
+The next steps proposed in the experiment included testing a more flowable material with increased hydrostatic head to address the accumulation problem below the chimney. Additionally, lowering the reactor angle to 15 degrees was suggested to investigate the effect on char falling backwards near the outlet. The possibility of compression effects from the new auger design was also mentioned, and it was suggested to run the reaction at high temperatures to exceed any compression effects. Finally, repositioning the primary blowers to a higher circumferential position, such as S8, S9, or S10, was proposed to test the potential impact of the primary blower position on flow constrictions.
+In summary, the experiment aimed to understand the combustion process and machine design for biomass to biochar formation. The hot test described the results and observations, and proposed next steps to address the wood chip jamming issue and further investigate the machine design.</t>
+  </si>
+  <si>
+    <t>In this hot test, the objective was to resolve the issue of wood chip jamming by moving the primary blower position down two notches. The feedstock used was wood chips collected from the City of Berkeley. 
+The results of the test showed that the conveyance of wood chips was very slow initially, and the auger had to be stopped a few times for the reaction to catch up. White smoke started emerging from the chimney, and the visible flame at the chimney base was replaced by smoke and later by higher biomass/char. The charred wood chips started piling up below the chimney section, causing more frequent motor tripping. Eventually, a hopper fire occurred, and the reactor had to be shut down. The white smoke may have been caused by blocked channels for air flow due to the piling wood chips below the chimney, which also caused more backflow through the hopper. The thermocouple readouts were anemic throughout the process. The char output looked mixed, with some parts not charred. The input flow rate was approximately 50 kg/h, slowing over time, and the output flow rate was approximately 7.5 kg/h, resulting in an average yield of 15%.
+Other observations included no hot embers sliding down to the hopper region during the hopper fire and very few ashes emitted from the chimney. The reaction zone initially started halfway through S4 but advanced closer to the base of the chimney later on. Hot gases were observed flowing in two directions through the S6 port at the chimney, indicating that the reaction persisted well past the chimney region. One of the secondary blowers had command issues initially but was put back into service for the latter half of the test.
+The next steps suggested in the report include testing a more flowable material with increased hydrostatic head to see if the accumulation problem persists, lowering the reactor angle to 15 degrees to test if char near the outlet falls backwards, making a new 6'' auger to test if the accumulation effect is related to the auger design, and repositioning the primary blowers to a higher circumferential position to test if the problem is caused by constricted flow due to ash/char falling into the NPT pipe.
+Overall, the hot test provided insights into the wood chip jamming issue and proposed potential causes and solutions for further investigation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 89 – 07/18/22 
 People: Shadi, Charu, Vidyut, Kevin 
 Hypothesis: Wood chip jamming may be resolved if we move the primary blower circumferentially up.  
@@ -1462,6 +1688,24 @@
 The experiment yielded two sections, a faster section and a slower section. In the faster section, the char out was approximately 28.7 kg/h, and the biomass feed was around 96.1 kg/h, resulting in a yield of 29.8%. In the slower section, the char out was approximately 29.1 kg/h, and the biomass feed was around 71.8 kg/h, resulting in a yield of 41%.
 The hypothesis that wood chip jamming could be resolved by moving the primary blower circumferentially up was supported by the experiment. However, further validation is required by repeating a previous hot test that resulted in biomass accumulation below the chimney and observing the slanted pipe leading from the primary blower to the reactor input. It is suggested to test this hypothesis with wood chips when more stock is available. Additionally, exploring the use of rice husks as a feedstock and testing different primary blower positions could provide further insights into the combustion process and machine design.
 One potential direction for future experiments is to investigate the minimum flow rate at which the primary blowers can stably maintain the reaction despite the growing blockage of the NPT tube leading into the reactor chamber. However, caution should be exercised due to the risk of hopper smoke and fire.</t>
+  </si>
+  <si>
+    <t>Based on the detailed observations and analysis provided, it appears that the hypothesis that moving the primary blower circumferentially up would resolve the wood chip jamming issue was supported by the experiment. By moving the primary blower position from B4/B6 to S4, the accumulation problem below the chimney was controlled and the reaction became more stable.
+The experiment initially faced challenges with a reaction that ran too cold and produced excessive smoke. However, by reducing the auger speed to 50% duty cycle at 6 RPM, the reaction conditions improved. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone below the chimney where the feedstock was well-charred. The hopper smoke also improved by ensuring that all voids were filled with biomass.
+The experiment yielded different results in terms of char output and biomass feed rates in the faster and slower sections. The char yield was 29.8% in the faster section and 41% in the slower section. The quality of the char showed slight inhomogeneity, possibly due to the positioning of the primary blower being too high circumferentially.
+To definitively validate the hypothesis, it is suggested to repeat a previous hot test that resulted in the accumulation problem and observe the slanted pipe leading from the primary blower to the reactor input. This will help visualize how ash and small particles accumulate over time. Additionally, testing with rice husks and exploring the effect of different primary blower positions can provide further insights into resolving the accumulation issue.
+Another potential experiment could involve testing the minimum flow rate at which the primary blowers can stably maintain the reaction despite the growing blockage of the NPT tube leading into the reactor chamber. However, this experiment carries a risk of exacerbated hopper smoke and fire.
+Overall, the experiment provides valuable insights into the combustion process and machine design, highlighting the importance of optimizing the primary blower position and auger speed to achieve a stable and efficient biomass to biochar conversion process.</t>
+  </si>
+  <si>
+    <t>In this hot test, the objective was to resolve the issue of wood chip jamming by moving the primary blower circumferentially up. The settings for the test included moving the primary blower position from B4/B6 to S4, with an auger motor speed of 6 RPM and a 50% duty cycle. The primary air was initially higher and gradually reduced to 2000 RPM, while the secondary air gradually increased to 7000 RPM. The feedstock used was wood chips collected from the City of Berkeley.
+Initially, the reaction ran very cold and there was a high accumulation of mixed charred and uncharred wood below the chimney. The biomass had to be repeatedly lit, and thick smoke came out of both the chimney and the hopper. The auger did not jam or trip during the test. The reactor consumed a large amount of wood chips (around 96 kg/h), making it difficult to keep feeding it. 
+To address the cold and smoky reaction, the auger speed was reduced to 50% duty cycle at 6 RPM. This led to a hotter and less smoky steady state, where the accumulation problem below the chimney did not occur. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone below the chimney with well-charred feedstock. The hopper smoke also improved as voids were filled and the biomass height increased.
+The primary blower position at S4 may have exacerbated the hopper smoke, and it was suggested to test the primary blower at S8 or S9 in the future. The variable pitch auger below the chimney may have contributed to the accumulation problem, but it was not the sole cause. The primary air may have gradually choked up as the test progressed.
+The hot test consisted of two sections, a faster section and a slower section. In the faster section, the char output was 28.7 kg/h with a biomass feed of 96.1 kg/h, resulting in a yield of 29.8%. In the slower section, the char output was 29.1 kg/h with a biomass feed of 71.8 kg/h, resulting in a yield of 41%.
+The hypothesis that wood chip jamming could be resolved by moving the primary blower circumferentially up was supported by the experiment. However, further tests are needed to definitively validate this hypothesis. It was suggested to repeat a previous hot test that resulted in the accumulation problem and observe the slanted pipe leading from the primary blower to the reactor input to visualize the accumulation of ash and small particles over time.
+Other directions for exploration include testing with rice husks to see if the same setup can solve the accumulation issue and testing the minimum flow rate at which the primary blowers can stably maintain the reaction despite blockage in the NPT tube leading into the reactor chamber.
+Overall, this hot test provided insights into the combustion process and machine design, and further experiments are planned to test different hypotheses and optimize the system.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 90 – 07/19/22 
@@ -1556,6 +1800,34 @@
 In summary, the experiment provides insights into the combustion process and machine design for biomass to biochar formation. It highlights the challenges of chimney buildup, auger jamming, undercharred output, and hopper smoke. The experiment suggests potential solutions to address these issues and outlines further investigations to gain a complete understanding of the process.</t>
   </si>
   <si>
+    <t>Based on the information provided, the experiment conducted with rice husk biomass in the small-sized reactor resulted in several observations and issues. The main objective of the experiment was to test the hypothesis that raising the position of the primary air blower circumferentially would prevent biomass from falling into the air ducting elbow, reduce pressure loss of air entering the reactor, improve air mixing within the biomass bed, increase devolatilization, and reduce the height of biomass/char accumulating in the chimney.
+However, the experiment showed that char was still accumulating in the chimney, causing the auger to jam. Increasing the secondary air flow rate helped to alleviate the jamming issue, but char was still falling back near the hopper, indicating that the rate of fall back did not compensate for the rate of accumulation in the chimney. The output was also found to be highly undercharred, suggesting that the residence time in the hot zone was too short.
+The experiment also observed consistent smoke from the hopper, which was attributed to the char falling back. However, chimney emissions were clean, indicating that the combustion process was efficient. The experiment concluded that the accumulation in the chimney was due to gravity and the smaller pitch of the variable pitch auger, rather than char accumulating in the air ducting.
+To further investigate the issues, the experiment proposed reducing the angle of inclination to 15 degrees to address the chimney build-up, auger jamming, and hopper smoke. Increasing the primary air flow rate from 3000 to a higher value was also suggested to achieve more severe and even charring. Additionally, bringing the primary air back towards the hopper at the same circumferential height was proposed to increase the hot region residence time and enhance devolatilization before reaching the chimney.
+Other observations included the complete filling of char up to the chute height and the need to note the weight of the scale value for rice husks at which the drum becomes full for future reference. Some NPT couplings were also opened, except for one.
+In summary, the experiment with rice husk biomass in the small-sized reactor highlighted the challenges of char accumulation in the chimney, auger jamming, undercharred output, and hopper smoke. Further investigations and modifications to the experimental parameters were proposed to address these issues and improve the combustion process and machine design.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice husk
+Hypothesis to test: Circumferentially raising the primary air blower position will prevent biomass from falling into the air ducting elbow and reduce pressure loss of air entering the reactor. This will improve air mixing within the biomass bed, increase devolatilization of biomass, and reduce the height of biomass/char accumulating in the chimney.
+Observations:
+- Char accumulation was observed in the chimney, indicating that the chimney was completely packed. This occurred even when the air inlet ducts were not filled with char.
+- The auger experienced jamming due to char accumulation at the chimney, even when the biomass level in the hopper was low.
+- Increasing the secondary air blower speed to 8000 rpm increased devolatilization and prevented auger jamming.
+- Char was observed falling back near the hopper, potentially from the accumulated char in the chimney. However, the rate of char fall back did not compensate for the rate of accumulation in the chimney.
+- The output was highly undercharred, suggesting that the hot zone length was too short, resulting in a lower residence time.
+- Consistent smoke was observed from the hopper, indicating char falling back. This was visible through the hopper and the open NPT coupling at the chimney.
+- Chimney emissions were clean, and there was positive pressure throughout the reactor, including the chimney.
+Takeaways:
+- Accumulation in the chimney for rice husks is due to gravity and aggravated by the smaller pitch of the variable pitch auger. It is not caused by char accumulating in the air ducting.
+- To address the issue of chimney buildup, auger jamming, and hopper smoke, reducing the angle of inclination to 15 degrees can be investigated.
+- Increasing the primary air from 3000 rpm to a higher value can be explored to determine if it leads to more severe and even charring.
+- Bringing the primary air back towards the hopper (at the same circumferential height) can be tested to increase the hot region residence time and enhance devolatilization before reaching the chimney. This may help in volumetric reduction of biomass prior to reaching the chimney.
+Other:
+- The char completely filled up until the chute height, and the weight of the scale value for rice husks at which the drum becomes full has been noted for future reference.
+- NPT couplings have been opened, except for one specific coupling (2nd from chimney, 2nd from lowest circumferential position, towards the side facing the shed).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test #91 – 07/20/22 
 Staff: Elliot, Vidyut, Eymon, Bernard 
 Biomass: Rice husk 
@@ -1650,6 +1922,21 @@
 Overall, the experiment aims to optimize the biomass combustion process and machine design by testing different parameters and hypotheses.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment conducted on 07/20/22 aimed to achieve uniform charring and prevent auger tripping during biomass combustion. The hypothesis tested was that a lower rpm (duty cycle) of the auger would increase residence times and result in more even charring. The experiment used rice husk as the biomass and maintained a 50% duty cycle of the auger at 6 rpm, despite smoke coming out of the hopper.
+The high-level summary of the experiment indicates that the char did not accumulate in the chimney as much as in previous tests, preventing the auger from tripping. The output achieved even charring, but there was consistent smoke from the hopper due to the char falling back because of the reactor's angle of inclination. The chimney emissions were mostly clean, but there was consistent ember emission, possibly due to a higher pile of char under the chimney.
+The takeaway from the experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system.
+The suggested pathways of investigation for further experiments include reducing the angle of inclination to 15 degrees to address chimney build-up, auger jamming, and hopper smoke. Additionally, increasing the primary air from 3000 rpm to a higher value for a duty cycle greater than 50% could be explored to determine if it leads to more severe and even charring. Another potential investigation is bringing the primary air back towards the hopper (at the same circumferential height) to increase the hot region residence time and devolatilize the biomass more before it reaches the chimney.
+Lastly, it is mentioned that the NPT couplings (S9 and S8) were stuck and could not be opened, even with longer wrenches. This issue may need to be addressed before further experiments can be conducted.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on 07/20/22 aimed to achieve uniform charring and prevent auger tripping in the biomass to biochar formation process. The hypothesis tested was that a lower rpm (duty cycle) of the auger would increase residence times and result in more even charring.
+The initial parameters selected for the experiment were as follows: auger at 6 rpm with a 50% duty cycle and a 12-inch pitch, primary air at 3000 rpm, secondary air at 4000 rpm, and an angle of inclination of 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
+The high-level summary of the experiment indicates that char did not accumulate in the chimney to the same extent as in previous tests, preventing the auger from tripping. The output achieved was evenly charred. However, there was consistent smoke from the hopper, likely due to the char falling back due to the angle of inclination of the reactor. The chimney emissions were mostly clean, but there was consistent ember emission, possibly caused by the higher pile of char under the chimney. The negative pressure in the chimney was as desired.
+The takeaway from this experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system.
+The suggested pathways of investigation for further experiments include reducing the angle of inclination to 15 degrees to address the issues of chimney build-up, auger jamming, and hopper smoke. Additionally, testing whether increasing the primary air from 3000 to a higher value for a duty cycle greater than 50% leads to more severe and even charring can be explored. Finally, bringing the primary air back towards the hopper at the same circumferential height could increase the hot region residence time and devolatilize the biomass more before it reaches the chimney, potentially aiding in volumetric reduction of biomass.
+It is noted that the NPT couplings (S9 and S8) were stuck and could not be opened, even with longer wrenches.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 92 – 07/21/22 
 Staff: Elliot, Vidyut, Charu, Bernard 
 Biomass: Rice husk 
@@ -1711,6 +1998,24 @@
 It is also noted that the NPT couplings (S9 and S8) were unable to be opened, even with longer wrenches. Additionally, the experiment utilized rice husks completely.</t>
   </si>
   <si>
+    <t>The experiment conducted on July 21, 2022, aimed to achieve uniform charring and prevent auger tripping during the biomass to biochar combustion process. The hypothesis tested was that increasing the primary blower rpm from 3000 to 6000 while keeping the auger at 100% duty cycle at 6 rpm would lead to even charring.
+The initial parameters selected for the experiment were as follows: Auger speed - 6 rpm (100% duty cycle with a 12-inch pitch auger), primary air blower rpm - 6000, secondary air blower rpm - 4000, and angle of inclination - 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
+The high-level summary of the experiment's results is as follows:
+1. Char did not accumulate in the chimney to the same extent as in previous tests, and the auger did not trip at all. A strong flame was observed within the chimney throughout the test.
+2. The output achieved even charring, which appeared to be more homogeneous compared to a previous test conducted on July 20, 2022, where the auger speed was reduced to 50% duty cycle.
+3. Smoke from the hopper was reduced by piling the biomass higher.
+4. Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to the higher pile of char under the chimney, which was blown off directly by the secondary air blowers. This emission did not significantly decrease even after reducing the secondary air blower rpm to 4000.
+5. Negative pressure was observed in the chimney as desired.
+The main takeaway from the experiment is that a higher primary air value solves the issues of uneven charring, char accumulation in the chimney, and auger motor tripping.
+The suggested pathways of investigation for further experiments are:
+1. Reducing the angle of inclination to 15 degrees to address the issues of chimney build-up, auger jamming, and hopper smoke.
+2. Bringing the primary air back towards the hopper (at the same circumferential height) to increase the hot region residence time and enhance devolatilization of the biomass before it reaches the chimney. This may help in volumetric reduction of the biomass prior to reaching the chimney. This investigation should be done once the stuck NPT couplings (S9 and S8) are detached.
+It is also mentioned that the stuck NPT couplings could not be opened even with longer wrenches, and the rice husks have been completely utilized in the experiment.</t>
+  </si>
+  <si>
+    <t>Rice husk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot test #93 – 08/26/22 
 Staff: Austin, Troy 
 Biomass: Woodchips from bags in the shed, probably city of Berkeley source 
@@ -1736,6 +2041,18 @@
 Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in it running for a brief moment before jamming again. A high pitched whine was observed before the motor stopped, indicating possible overload, although the exact cause remains unclear.
 On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its maximum capacity due to the aforementioned issues.
 The next steps should include investigating the cause of the incomplete tripping of the breaker and finding a solution to fix the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the combustion process and the functionality of the machine design.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on hot test #93 encountered several issues. The main objective was to test the hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment faced a major setback as the reactor jammed during the lighting phase and could not be unjammed. 
+Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in the motor running for a brief moment before jamming again. A high pitched whine was observed before the motor stopped, indicating a possible overload, although the exact cause of the overload is unclear.
+On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its full capacity due to the jamming issue.
+The next steps should focus on investigating why the breaker is not tripping fully and finding a solution to fix the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the combustion process and the functionality of the machine design.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on hot test #93 encountered several issues. The main objective was to test the hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment faced a major setback as the reactor jammed during the lighting phase and could not be unjammed. 
+Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in it running for a brief moment before jamming again. A high pitched whine was also observed before the motor stopped, indicating a possible overload, although the exact cause remains unclear.
+On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its maximum capacity due to the aforementioned issues.
+The next steps should involve investigating why the breaker is not tripping fully and addressing the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the reactor and to continue testing the hypothesis effectively.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 94 – 09/01/22 
@@ -1757,43 +2074,6 @@
 Here is the input feed rate graph: 
 This is the char we obtained today. As we dug a bit deeper, some parts were undercharred (brownish), around 60-80% charred.  
  </t>
-  </si>
-  <si>
-    <t>Example Hot Test:  + Hot Test # 94 – 09/01/22 
-People: Yiyang, Camila, Troy, Kevin (with Austin starting the hot test) 
-Hypothesis:  
-Compared to 7/18/22, we enlarged the hopper and hypothesize that this will address the bridging issue. 
-Compared to 8/26/22, we moved the primary air blowers from S10 axially down and circumferentially up to the S4 position, and hypothesize that this will reduce the jamming issue. 
-Settings: Primary blower position at S4. Primary air setpoint at 3000 initially, secondary air at 5000. Megachimney was used, without any mesh at the top.  
-Feedstock: Wood chips in the shed – we had a mix of different types fed into the reactor as we went, some chunky, some fibrous, some eucalyptus, and some newly collected by Eymon/Elliot in August from Berkeley.  
-Summary:  
-Compared to 7/18/22, bridging still persists. Next step: lower to 15 deg and see if bridging improves. 
-Compared to 8/26/22, auger jamming was initially an issue, but resolved itself once the reactor got hot. We just have to be more patient.  
-Detailed Observations: 
-Lighting was easy. Once lit, we had a strong fire going when viewed through S10 and the cracks at the base of the chimney. Chimney stayed clean throughout.  
-Jamming: Initially when we fed the chunky wood chips in cold flow prior to lighting the reactor, no jamming was observed. After the reactor was lit for a while (15-20 minutes, or 5-10 minutes after actually starting the auger), severe jamming occurred in both directions, of the non-tripping type described on 8/26/22. No jamming was visually observed at the inlet; we suspect jamming higher up in the reactor zone, possibly at the transition above the chimney where the reactor cross-section transitioned from rectangular to circular. Topping the hopper with more wood chips (to increase the hydrostatic pressure) didn’t help. Waiting a while did help (until around 11:40). After that, the reactor seemed to run smoothly, at 6 RPM, 50% duty cycle (2-min off, 2-min on). Jamming was often accompanied by grinding sound, or auger moving in sporadic jumps (not a smooth motion).  
-Hopper smoke/fire: After an initial long period when the auger was stuck, we suspect that the fire from S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire and/or start smoking. We attempted to address this by idling the primary/secondary air and/or lowering it to 2000/2000, which did seem to help with smoke mitigation, though the smoke/fire returned as soon as we increased the blower RPM. We also observed, in the latter stage of the hot test, through the crack at the base of the chimney, both fire and char being conveyed. This implies that the solid level at the chimney position was very high, and could have blocked the passage of primary air towards the chimney, further exacerbating the hopper smoke/fire issue. We should have investigated this further by opening/checking the ports S1 and S6.  
-We decided to shut down the hot test prematurely (prior to steady state) as we were running low on wood chips and wanted to save some for a 15 deg test.  
-Rates and yield: Input feed rate was about 41 kg/h. Output rate was about 33 kg/h, implying a mass yield of 80% which looks wrong. We need to double check the output rate. Furthermore, the scale logging seems to have a wavy feature which may mean that it is not working properly:  
-Here is the input feed rate graph: 
-This is the char we obtained today. As we dug a bit deeper, some parts were undercharred (brownish), around 60-80% charred.  
-Example Answer: N/A</t>
-  </si>
-  <si>
-    <t>Example Answer: 
-Hot Test #94 - 09/01/22
-Hypothesis:
-1. Enlarging the hopper will address the bridging issue.
-2. Moving the primary air blowers from S10 to S4 will reduce the jamming issue.
-Observations:
-1. Bridging issue still persists compared to the previous test on 7/18/22. Next step is to lower the temperature to 15 degrees and see if bridging improves.
-2. Initially, there was auger jamming when feeding chunky wood chips in cold flow. After the reactor was lit for a while, severe jamming occurred in both directions. The jamming was not visually observed at the inlet, suggesting it may be occurring higher up in the reactor zone, possibly at the transition above the chimney. Topping the hopper with more wood chips did not help, but waiting for some time resolved the jamming issue.
-3. Lighting the reactor was easy, and a strong fire was observed through S10 and the cracks at the base of the chimney. The chimney remained clean throughout the test.
-4. Hopper smoke/fire: After the auger was stuck initially, it is suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire or smoke. Idling or lowering the primary/secondary air helped with smoke mitigation, but increasing the blower RPM caused the smoke/fire to return. Fire and char were observed being conveyed through the crack at the base of the chimney, indicating a high solid level at the chimney position, potentially blocking the passage of primary air towards the chimney.
-5. The hot test was shut down prematurely due to low wood chip supply and the intention to save some for a 15-degree test.
-6. The input feed rate was approximately 41 kg/h, and the output rate was approximately 33 kg/h, suggesting a mass yield of 80%, which seems incorrect. The output rate needs to be double-checked. The scale logging also showed a wavy feature, indicating a potential issue with its functionality.
-7. The obtained biochar showed undercharred parts (brownish) with around 60-80% charred.
-Answer: N/A</t>
   </si>
   <si>
     <t>Based on the provided information, here are some observations and potential areas for further investigation:
@@ -1861,6 +2141,26 @@
 To gain a complete understanding of the combustion process and machine design, it is recommended to continue testing different hypotheses and carefully analyze the data collected from each experiment.</t>
   </si>
   <si>
+    <t>Based on the provided information, here is an example answer:
+The experiment conducted on 09/01/22 aimed to test two hypotheses related to the combustion process and machine design. The first hypothesis was that enlarging the hopper would address the issue of bridging. The second hypothesis was that moving the primary air blowers from S10 to S4 position would reduce the jamming issue.
+During the experiment, it was observed that bridging still persisted despite the enlargement of the hopper. The next step suggested was to lower the hopper angle to 15 degrees and observe if bridging improves.
+Regarding the jamming issue, it was initially observed when feeding chunky wood chips into the reactor. Severe jamming occurred after the reactor was lit for a while, possibly at the transition above the chimney where the reactor cross-section changed from rectangular to circular. Topping the hopper with more wood chips did not help, but waiting for some time resolved the jamming issue. The jamming was often accompanied by a grinding sound or sporadic jumps in the motion of the auger.
+Another observation was the occurrence of smoke/fire in the hopper region. It was suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the base to ignite or smoke. Attempts were made to mitigate the smoke by idling or lowering the primary/secondary air, but the issue returned when the blower RPM was increased. Fire and char were also observed being conveyed through the crack at the base of the chimney, indicating a high solid level that could have blocked the passage of primary air towards the chimney.
+The hot test was shut down prematurely due to low wood chip supply, and the output rate of biochar was not accurately determined. The input feed rate was approximately 41 kg/h, but the output rate needs to be double-checked. Additionally, the scale logging showed a wavy feature, suggesting a potential issue with its functionality.
+The obtained biochar during the experiment was partially undercharred, with some parts appearing brownish and around 60-80% charred.
+Further investigation and adjustments are required to address the issues of bridging, jamming, and hopper smoke/fire, as well as to accurately measure the output rate and ensure the proper functioning of the scale logging system.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on 09/01/22 involved testing two hypotheses related to the machine design and addressing issues encountered in previous experiments. The first hypothesis aimed to address the bridging issue by enlarging the hopper. The second hypothesis aimed to reduce the jamming issue by moving the primary air blowers to a different position.
+The settings for the experiment included the primary blower positioned at S4, with a primary air setpoint of 3000 initially and secondary air set at 5000. A megachimney was used without any mesh at the top.
+The feedstock used for the experiment was wood chips of different types, including chunky, fibrous, eucalyptus, and newly collected wood chips.
+In terms of observations, the experiment found that bridging still persisted despite the enlargement of the hopper. The next step suggested was to lower the hopper temperature to 15 degrees and observe if bridging improves. Regarding the jamming issue, initially, severe jamming occurred after the reactor was lit for a while. The jamming was suspected to occur higher up in the reactor zone, possibly at the transition above the chimney. However, the jamming resolved itself after waiting for some time. The reactor then ran smoothly at 6 RPM and 50% duty cycle.
+The experiment also noted issues with hopper smoke/fire. After the auger was stuck initially, it was suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire or start smoking. Attempts were made to mitigate the smoke by idling or lowering the primary/secondary air, but the smoke/fire returned when the blower RPM was increased. It was observed that fire and char were conveyed through the crack at the base of the chimney, indicating a high solid level at the chimney position. This could have blocked the passage of primary air towards the chimney, exacerbating the hopper smoke/fire issue.
+The experiment was shut down prematurely due to low wood chip supply, and the rates and yield were not accurately determined. The input feed rate was approximately 41 kg/h, and the output rate was approximately 33 kg/h, suggesting a mass yield of 80%, which seemed incorrect. The scale logging also showed a wavy feature, indicating a potential issue with its functionality.
+The obtained biochar from the experiment was found to be undercharred in some parts, with a brownish color, indicating around 60-80% charred biomass.
+Overall, the experiment provided insights into the persistence of bridging and jamming issues, as well as the challenges related to hopper smoke/fire and accurate measurement of rates and yield. Further investigation and modifications are required to address these issues and improve the combustion process and machine design.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 95 – 09/02/22 
 People: Camila, Troy, Kevin (with Austin starting the hot test) 
 Hypothesis: Compared to 7/20/22, if we lower from 30 deg to 15 deg, we can stop the hopper smoke/fire.  
@@ -1884,6 +2184,16 @@
   </si>
   <si>
     <t>The primary blower position was set at S10. The primary air setpoint was initially set at 3000, and the secondary air was set at 4000. The feedstock used was rice hulls. The experiment observed that the hopper fire/smoke persisted, indicating the need to eliminate the variable pitch for rice husks. The char level below the chimney remained high throughout the experiment, despite attempts to address it by pausing the auger or inserting a rod into the reaction zone. Increasing the primary air only worsened the smoke from the hopper. The experiment ran for approximately 20-30 minutes with the oil drum full. The input feed rate was around 33 kg/h, and the char appeared to be around 90-100% charred.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the experiment was conducted to test the hypothesis that lowering the motor angle from 30 degrees to 15 degrees can stop the hopper smoke/fire during biomass combustion for biochar formation. The experiment involved using a newly designed small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples for temperature measurement.
+The experiment was conducted on 09/02/22 with participants Camila, Troy, Kevin, and Austin. The primary blower position was set at S10, with a primary air setpoint of 3000 initially and secondary air at 4000. The feedstock used was rice hulls.
+However, the experiment did not achieve the desired outcome as the hopper fire/smoke persisted. It was observed that the char level below the chimney remained high throughout the experiment. Attempts were made to address this issue by pausing the auger or inserting a rod into the reaction zone, but these measures did not improve the situation. Increasing the primary air only worsened the smoke from the hopper or cracks below the hopper. It was also noted that the reactor ran for approximately 20-30 minutes with the oil drum full, which was not initially realized.
+The input feed rate was around 33 kg/h, and the superficial appearance of the char indicated incomplete charring. However, upon digging deeper, it was observed that the char had a well-charred consistency of around 90-100%.
+Based on these observations, it was concluded that the variable pitch of the auger may need to be eliminated when using rice hulls as they are not very compressible and do not reduce in volume when charred. Further experimentation and modifications to the machine design may be required to address the persistent hopper fire/smoke issue.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice hulls</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 96 – 09/04/22 
@@ -1918,6 +2228,14 @@
   </si>
   <si>
     <t>The primary blower position in this hot test was S6.</t>
+  </si>
+  <si>
+    <t>Hot Test #96 was conducted on 09/04/22 with the following team members: Camila, Yiyang, and Kevin. The hypothesis for this test was compared to the previous test on 9/1/22. The settings for this test were as follows: the primary blower position was set at S4, the primary air setpoint was initially set at 3000, and the secondary air was set at 5000. The megachimney was used without any mesh at the top.
+The feedstock used for this test was wood chips. The summary of the test indicates that smoke from the hopper persisted despite efforts to fully cover it. Changing the primary blower position to S5 did not resolve the smoke issue. However, moving the primary blower position to S6 seemed to significantly improve the hopper smoke condition, although it resulted in worsened chimney ash. Moving the primary blower to S10 caused the hopper smoke to resume. The experiment had to be stopped at this point due to running out of dry wood chips.
+Detailed observations from the test include ensuring that the hopper was fully covered to prevent air flow, but smoke still appeared. Changing the primary blower position helped, but it resulted in ash formation. It was suggested to potentially lower the blower's RPM to avoid underchar results. No jamming occurred during the test. The various ports were visualized, and through S1, vigorous combustion was observed with a high solid level. Through S4, S5, and S10, depending on the position of the primary blower, the observations were inert charred or flaming char.
+The experiment was stopped due to running short on dry wood chips, but the team learned as much as they could. It was noted that during the test, the right S3 did not have an NPT plug but was taped over with aluminum tape, which could have exacerbated the smoke in the lower axial position close to the hopper.
+The inputs and outputs for this test were 69.1 kg/h input. However, it was mentioned that the output scale was not working, and the drum was changed after shutting down the reaction, but it was not registered as a sensible signal.
+In comparison to the hot test on 9/3/2022 with rice hulls, the results of this test showed a higher percentage of biochar, approximately 70%.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 97 – 09/23/22 
@@ -1977,6 +2295,21 @@
 Overall, these suggestions can help improve the understanding of the combustion process and machine design, as well as optimize the production of biochar from biomass.</t>
   </si>
   <si>
+    <t>Based on the provided information, here is an example answer:
+For the next experiment, it is suggested to start moving the auger more quickly after lighting the fire. This can help ensure a smoother combustion process. Additionally, since the biomass used is very dry, it may be possible to reduce the primary air setpoint as the dry biomass may require less oxygen for combustion.
+To avoid chips being low and potential air holes causing the reaction to move back, it is important to fill the hopper completely. This will help maintain a steady flow of biomass into the reactor.
+Lowering the angle of the prototype setup may also be worth considering. This can potentially help the reaction move forward more efficiently.
+Furthermore, it would be beneficial to observe the impact of lowering the speed of the blower on the final result of biochar. This can provide insights into the influence of air flow rate on the combustion process and biochar formation.
+Overall, these suggestions aim to optimize the combustion process and machine design, and further experiments can help gain a better understanding of the underlying combustion process and improve the efficiency of biochar production.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the hot test was conducted using pine tree wood chips as the feedstock. The experiment aimed to achieve a smooth hot test due to the small and dry nature of the wood chips. The primary blower position was set at S10, with a primary air setpoint of 3500 rpm and secondary air at 3500 rpm. The experiment utilized a mega chimney without any mesh at the top and a newly refurbished six-inch pitch auger set up at a 35-degree angle.
+During the hot test, no ash or ember was observed coming out of the chimney. However, a recurrent issue was the occurrence of burning wood pieces going back to the hopper, which eventually led to a fire in the hopper and premature termination of the hot test. The weather conditions varied from sunny to rainy throughout the process.
+Detailed observations revealed that the hopper was not kept full throughout the hot test, resulting in the failure to maintain a steady state. The auger made some noises and shuttered with the wood chips but continued to run without jamming. Good flames were observed inside the reactor from the beginning until the end of the test. The temperature continuously increased until all the chips ran through the reactor.
+A picture was provided, demonstrating burning wood chips at the hopper and air holes. The biochar produced during the hot test weighed a total of 12 kg and appeared to be well charred. The input rate of the biomass was 45.1 kg/h.
+Suggestions for future experiments include starting to move the auger more quickly after lighting the fire, potentially reducing the primary air supply due to the dry nature of the biomass, ensuring the hopper is filled to avoid low chip levels and potential air holes causing the reaction to move backward, and reducing the angle of the auger to facilitate forward movement of the reaction. Additionally, the impact of lowering the speed of the blower on the final result of biochar should be observed in future tests.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 98 – 09/24/22 
 People: Camila, Austin, Kanages 
 Hypothesis: Compared to 09/23/22, if we reduce lighting time and primary blower, we can stop the hopper smoke/fire 
@@ -2050,6 +2383,52 @@
 Overall, a systematic approach of analyzing the experimental data, identifying the root causes of the observed issues, and making targeted modifications to the experimental setup will help in gaining a better understanding of the combustion process and improving the machine design.</t>
   </si>
   <si>
+    <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
+Observations:
+1. Black smoke in the chimney and periodic appearance of smoke in the hopper.
+2. Flow of chips that end up not being charred (mixing problem).
+3. Incomplete char formation and no steady state achieved.
+4. Biochar recorded was partially charred/under charred.
+Possible Explanations:
+1. The reduced lighting time and primary blower speed may have caused incomplete combustion, leading to the formation of black smoke.
+2. The mixing problem could be due to inadequate mixing of the biomass in the reactor, resulting in some chips not being fully charred.
+3. The changes in settings may have disrupted the combustion process, preventing the attainment of steady state conditions.
+4. The partial char formation could be a result of incomplete combustion due to the changes in settings.
+Recommendations:
+1. Find a balance between temperature and air supply to avoid black smoke from the chimney and white smoke from the hopper. This can be achieved by adjusting the primary blower speed and lighting time.
+2. Analyze possible scenarios and work as a team to identify the root causes of the smoke issues and develop strategies to address them.
+3. Consider moving the blowers up to improve the distribution of air and volatiles within the reactor.
+4. Decrease the angle of the prototype to enhance the mixing of biomass and improve char formation.
+5. Increase the speed of the secondary blowers to promote secondary combustion and improve overall combustion efficiency.
+These recommendations aim to optimize the combustion process, improve mixing, and achieve complete char formation. It is important to carefully analyze the data from each experiment and make incremental adjustments to the experimental setup to gain a better understanding of the underlying combustion process and machine design.</t>
+  </si>
+  <si>
+    <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
+Observations:
+1. Black smoke in the chimney and periodic appearance of smoke in the hopper.
+2. Flow of chips that end up not being charred (mixing problem).
+3. No complete char achieved, indicating incomplete combustion.
+4. Temperature "steady state" was obtained once heated up.
+Suggestions:
+1. Find a balance between temperature to avoid black smoke from the chimney and white smoke from the hopper.
+2. Move the blowers up to improve air distribution and combustion.
+3. Decrease the angle of the prototype to improve mixing and char formation.
+4. Increase secondary blowers speed to enhance secondary combustion.
+Possible Explanations and Recommendations:
+1. Black smoke in the chimney and periodic appearance of smoke in the hopper:
+   - This could be due to an imbalance in the air supply. Adjust the primary blower speed and air setpoint to optimize the oxygen supply and reduce smoke formation.
+   - Analyze the combustion process and airflow patterns to identify any areas of poor air distribution. Consider redesigning the reactor or adjusting the blower positions to improve air distribution.
+2. Flow of chips that end up not being charred:
+   - The mixing problem could be caused by the auger design or the angle of the prototype. Consider modifying the auger design to ensure better mixing and contact between the biomass and oxygen.
+   - Decrease the angle of the prototype to improve the flow and mixing of the biomass, ensuring more uniform combustion and char formation.
+3. Incomplete combustion and no complete char achieved:
+   - The incomplete combustion could be a result of the changes in the settings, such as the reduced primary blower speed. Optimize the air supply and adjust the blower settings to ensure sufficient oxygen for complete combustion.
+   - Analyze the temperature profiles and adjust the heating rate to achieve a steady state with complete char formation. This may involve fine-tuning the lighting time, primary blower speed, and other parameters.
+4. Temperature "steady state" achieved once heated up:
+   - Ensure that the reactor is properly insulated to maintain a stable temperature throughout the combustion process. Inspect the insulation and make any necessary improvements to minimize temperature fluctuations.
+Overall, it is important to systematically analyze the combustion process, airflow patterns, and temperature profiles to identify the root causes of the observed issues. By making adjustments to the machine design, blower settings, and operating parameters, it should be possible to optimize the combustion process and achieve better char formation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 99 – 09/26/22  
 People: Camila, Austin, Kanages, Kevin 
 Hypothesis: Increased secondary air to address black smoke issue; moved one of the blowers up one notch circumferentially to address hopper white smoke issue 
@@ -2062,18 +2441,6 @@
  </t>
   </si>
   <si>
-    <t>Example Hot Test:  + Hot Test # 99 – 09/26/22  
-People: Camila, Austin, Kanages, Kevin 
-Hypothesis: Increased secondary air to address black smoke issue; moved one of the blowers up one notch circumferentially to address hopper white smoke issue 
-Settings: Primary blower position at S5 on the right side. On the left side, the viewing port NPT plug remained stuck at S10 and could not be loosened until the very end; therefore for this hot test, primary blower on the left side remained at S10. At the end of the experiment, we realized that primary and secondary blower wires on the right side (enclosure side) were switched. Primary air setpoint at 3000 rpm during start-up, reducing to 2500 and then 2200 rpm. Secondary air remained at 4000 rpm throughout. Mega chimney was used, without any mesh at the top. Newly refurbished six inch pitch auger. Prototype at 35 angle setup. 
-Feedstock: Pine tree from Anahim Lake, Canada wood chips   
-Summary: Reactor ran very hot throughout. White ash, while not visible against a white wall, was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were seen from the chimney occasionally (possibly more on the right side), resulting in gradual reduction of primary air in response. However, the primary and secondary air blowers were switched on the right-hand side, resulting in inconclusive outcome. There was still white smoke emerging from the cracks close to the hopper as well as through the hopper. We suspected that frequent poking into the hopper to avoid voidage may have helped with the smoke.  
-Detailed Observations: Some parts of the wood chip pile were more palpably wet, especially inside. 
-Flow Rates: By cumulative output (28.1 kg) and input (92.5 kg), the mass yield is about 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield is about 12%. The output mass scale is exhibiting the same weird undulating behavior, and we’re not sure if we trust the readout for the output mass flow. 
-Input feed rate graph:  
- . Example Answer: 1</t>
-  </si>
-  <si>
     <t>Based on the provided information, it seems that the experiment was conducted to address issues related to black smoke and white smoke during the biomass combustion process. The experiment involved adjusting the position of the secondary air blowers and the primary blower, as well as using a newly refurbished six-inch pitch auger and a prototype setup at a 35-degree angle.
 The experiment observed that the reactor ran very hot throughout, and white ash was visible against the blue sky, indicating a potentially worse outcome compared to previous tests. Puffs of black smoke were occasionally seen from the chimney, leading to a gradual reduction in primary air. However, it was noted that the primary and secondary air blowers were switched on the right-hand side, resulting in an inconclusive outcome. White smoke was still observed near the hopper, and it was suspected that frequent poking into the hopper may have helped reduce the smoke.
 Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
@@ -2113,6 +2480,16 @@
 Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
 Flow rates were measured based on cumulative output and input mass, indicating a mass yield of about 28%. However, when considering output and input mass flow rates, the mass yield was estimated to be around 12%. The output mass scale exhibited unusual undulating behavior, raising doubts about the accuracy of the readout.
 Unfortunately, the example answer provided does not include any specific question or request for analysis. If you have any specific questions or need further analysis of the experiment data, please let me know.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to address issues related to black smoke and white smoke during the biomass combustion process. The experiment involved adjusting the position of the secondary air blowers and the primary blower, as well as using a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
+The reactor ran very hot throughout the experiment, and white ash was observed, although it was not easily visible against a white wall. However, it was qualitatively worse than the previous test. Puffs of black smoke were occasionally seen from the chimney, particularly on the right side, leading to a gradual reduction in primary air. It was noted that the primary and secondary air blowers were switched on the right-hand side, which resulted in an inconclusive outcome. White smoke was still observed from cracks near the hopper and through the hopper. Frequent poking into the hopper was suspected to have helped with the smoke issue.
+Detailed observations indicated that some parts of the wood chip pile were more wet, especially inside.
+Flow rates were measured based on cumulative output and input mass, indicating a mass yield of about 28%. However, when considering the output mass flow rate and input mass rate, the mass yield was estimated to be about 12%. The output mass scale exhibited strange undulating behavior, raising concerns about the reliability of the readout for the output mass flow.
+Unfortunately, the provided information does not include an example answer. If you have any specific questions or require further analysis of the data, please let me know.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the input material for the hot test #99 on 09/26/22 was pine tree wood chips from Anahim Lake, Canada.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 100 – 09/27/22  
@@ -2153,6 +2530,15 @@
     <t>The hot test conducted on this day had some challenges, including slow lighting and the occurrence of black and white smoke. The primary blower position was adjusted to improve combustion, but black smoke was still observed periodically. It was determined that the white smoke was not due to voidage below the hopper, but rather due to biomass/biochar accumulation below the chimney level, causing blockage of flow channels. To address this, the primary and secondary blowers were reduced to 1300 rpm whenever white smoke arose. Additionally, an interval system of running the auger at 6, primary at 2000, and secondary at 3000 rpm for 3 minutes, followed by 3 minutes off at 0 rpm for all blowers, was implemented. This system was later adjusted to 3 minutes on and 1 minute off. 
 Detailed observations included the presence of ember within the ports after slow lighting, the need to poke the hopper frequently to avoid bridging, and the tripping of the auger motor. A total of 27.45 kg of char was recorded, with the top section of the biochar not fully charred. However, the middle section showed good charring, while the end section was less well charred possibly due to mixing with uncharred wood chips. 
 To improve the hot test for the next day's demo, the team plans to work together with specific roles assigned. They will implement the interval system, poke the hopper to prevent bridging, and aim for a steady state temperature to achieve fully charred biochar. The goal is to minimize the occurrence of black and white smoke throughout the test.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, here is an example answer:
+The motor angle for the hot test conducted on 09/27/22 was not mentioned in the experiment description. Therefore, the answer for the motor angle in this case would be N/A (not applicable).
+It is important to note that the motor angle may have an impact on the combustion process and machine design. Further experiments with different motor angles can be conducted to investigate their effects on the combustion efficiency, temperature distribution, and biochar formation.
+Additionally, the experimenters identified several issues during the hot test, including slow lighting, black smoke from the chimney, and white smoke from the hopper. They hypothesized that correcting the wiring for the blowers and agitating the hopper would help run the test smoothly without any smoke.
+To address the issues, the experimenters adjusted the positions and speeds of the primary blowers, implemented an interval system for running the auger and blowers, and poked the hopper to avoid bridging. These measures helped to minimize smoke generation and cool down the process.
+For tomorrow's demo, the experimenters plan to work as a team with specific roles, continue using the interval system, and aim for a steady-state temperature to achieve fully charred biochar. They aim to minimize both black and white smoke throughout the test.
+Overall, the experimenters are taking a systematic approach to understand the combustion process and machine design by testing different hypotheses and making adjustments based on their observations.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
@@ -2216,6 +2602,14 @@
   </si>
   <si>
     <t>The hypothesis for the impact of hopper-poking on white smoke from the hopper is that the white smoke may be better attributed to the blockage of flow path in the region below the chimney, rather than increasing voidage as the biomass bridges over the hopper. To test this hypothesis, the hopper-poking can be stopped and the difference in hopper white smoke can be observed by measuring the statistics of auger on and auger off time intervals.</t>
+  </si>
+  <si>
+    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes, with a standard deviation of 2.12 minutes. The average interval for stopping the auger for an interval of 3 minutes is 2.82 minutes.
+To plot these intervals, you can create a bar chart or a histogram. The x-axis can represent the intervals, and the y-axis can represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
+For the next steps, the hypothesis could be tested by stopping hopper-poking and observing the difference in hopper white smoke. The statistics of auger on and auger off time intervals can be used to measure the difference. By comparing the intervals before and after stopping hopper-poking, you can determine if there is a significant change in the occurrence of white smoke.</t>
+  </si>
+  <si>
+    <t>The hypothesis for the impact of hopper-poking on white smoke from the hopper is that the white smoke may be better attributed to the blockage of the flow path in the region below the chimney, rather than increasing voidage as the biomass bridges over the hopper. To test this hypothesis, the hopper-poking can be stopped and the difference in hopper white smoke can be observed. This can be measured by analyzing the statistics of the auger on and auger off time intervals.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 102 (Alkali Lake) – 10/05/22 
@@ -2263,6 +2657,11 @@
 - Consider the differences in conditions and chips used compared to the setup in Anahim Lake for obtaining a steady-state hot test.
 - Aim to be quicker when lighting the fire in the next hot test.
 - Implement an interval system based on previous analysis.</t>
+  </si>
+  <si>
+    <t>In this hot test, the biomass feedstock used was Douglas Fir wood chips from Williams Lake, Canada. The experiment encountered several inconveniences, including the motor bracket bolt coming undone, the 12 V power supply being dismantled, and unreliable connection between the PLC and the computer. The hot test was shut down due to the reaction descending into the hopper. However, the biochar collection system put in place by the chute worked smoothly.
+Detailed observations revealed that the fire took too long to light, causing the reaction to descend back into the auger. Although the temperatures reached a sufficient level, a steady state temperature was not achieved. The biochar output was lower than expected, totaling around 20.22 kg. The new chute did not catch fire, confirming that it worked adequately. The chips used were dry, dusty, and fluffy, resulting in faster and hotter burning.
+Suggestions for future hot tests include considering the different conditions and chips used in Anahim Lake, aiming to be quicker when lighting the fire, and implementing an interval system based on previous analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 103– 10/6/22  
@@ -2296,6 +2695,9 @@
     <t>The primary blower speed for this hot test was not mentioned in the provided information.</t>
   </si>
   <si>
+    <t>Input Material: Douglas Fir wood chips from Williams Lake, Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 104– 10/7/22  
 People: Camila and Austin 
 Hypothesis: By putting both primary blowers to S5 position and taping the airholes in the hopper, we can eliminate excessive flames front from descending to the bottom of the reactor. 
@@ -2364,6 +2766,23 @@
 The aim for the demo is to find a balance between minimizing smoke in the hopper and obtaining fully charred results. Therefore, it is recommended to use the settings of 2,200 rpm for the primary blower and 3,000 rpm for the secondary blower for the demo on October 10-11, 2022.</t>
   </si>
   <si>
+    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
+- Primary blowers at 2,200 rpm
+- Secondary blowers at 3,000 rpm
+- Aluminum tape covering any possible airholes
+- Input feed rate of 110.2 kg
+These settings seemed to provide a smooth operation with minor smoke and resulted in reasonably consistent char. However, when the primary blower was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar was less consistent, comprising both black char and medium brownish/torefied char.
+For the demo day on October 10-11, 2022, it is recommended to use the suggested settings as they appear to be most appropriate for the Douglas Fir wood chips from William's Lake. The aim is to find a balance between minimizing smoke in the hopper and obtaining fully charred results.</t>
+  </si>
+  <si>
+    <t>Based on the observations and results from the hot test, it is suggested to run the demo with the following settings for the biomass combustion experiment:
+- Primary blowers at 2,200 rpm
+- Secondary blowers at 3,000 rpm
+- Use aluminum tape to cover any possible airholes
+- Use Douglas Fir wood chips from Williams Lake, Canada as the feedstock
+These settings have shown to provide a smooth operation with minor smoke and reasonable consistency of biochar. It is important to find a balance between minimizing smoke in the hopper and obtaining fully charred results. By following these settings, it is expected that the experiment will run smoothly and provide the desired outcomes during the demo on October 10-11, 2022.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 105 – 10/10/22  
 People: Camila, Austin, Kanages, Kevin, and Marian 
 Hypothesis: Replication of hot test #104 for Esket demo day 1 
@@ -2394,6 +2813,20 @@
     <t>The secondary blower speed for the hot test #105 is not mentioned in the provided information.</t>
   </si>
   <si>
+    <t>Based on the provided information, the example answer would be:
+The motor angle for the hot test was not mentioned in the experiment description. Therefore, the answer is N/A.</t>
+  </si>
+  <si>
+    <t>The experiment conducted was a hot test in a small-sized reactor for biomass to biochar formation. The objective was to replicate a previous hot test and gain a better understanding of the combustion process and machine design. The experiment used Douglas Fir wood chips as the feedstock.
+The hot test was uneventful for the most part. However, there were some observations and findings. The flowability of the wood chips was found to be less compared to previous tests with different wood chips. The question arose whether the level of bridging observed was severe enough to cause backflow and hopper smoke.
+The origination of flammable volatiles was different in this test compared to previous tests. Most of the flames, especially at the beginning, came from below the chimney. However, white smoke was still emitted from the biochar at and above chimney level, indicating incomplete devolatilization.
+The biochar level below the chimney on the right-hand side was high and potentially caused blockage and backflow. On the left-hand side, the biochar level was consistently low, and there was always a visible flame.
+Pressure levels were mostly negative, with air being sucked in at S1. However, there were instances where flames and embers were expelled from the port, possibly due to the air-curtaining effect of wind gusts.
+The hopper smoke was not persistent and seemed to come and go with wind and potential blockage. The efficacy of rigorous poking to reduce hopper smoke was questioned, and it was suggested to try a less rigorous poking approach in future tests.
+The next steps include repeating the test with slightly less rigorous poking and observing the collapse of bridges. If poking requires significant force, it indicates that the area underneath is already mostly filled.
+Overall, the experiment provided insights into the combustion process and machine design, highlighting the importance of feedstock flowability, devolatilization, biochar level, and pressure effects.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 106 – 10/11/22  
 People: Camila, Austin, Kanages, Kevin, and Marian 
 Hypothesis: Replication of hot test #104 for Esket demo day 2 
@@ -2427,6 +2860,20 @@
 The objective of these experiments is to gain a complete understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned involves replicating a previous test (hot test #104) for Esket demo day 2. The settings for this test include primary blowers at different speeds (S5 on the right and S10 on the left), a primary auger speed of 2200 rpm, and a secondary blower speed of 3000 rpm. The feedstock used is Douglas Fir wood chips from Williams Lake, Canada.
 During the test, the system performed well initially, but after 1-2 hours, hopper smoke started to appear. Various measures were taken to mitigate the smoke, such as poking the biomass vigorously, idling the air or stopping the auger temporarily, but none of them had a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide much improvement. The char in the first drum appeared to be relatively well done.
 The provided information does not include an example answer, so if you have any specific questions or need assistance with analyzing the data or drawing conclusions from the experiment, please let me know.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned is #106, conducted on 10/11/22. The test involved replicating hot test #104 for Esket demo day 2.
+The settings for hot test #106 included primary blowers at S5 on the right and S10 on the left. The left-side primary blower was moved from S5 to S10 to investigate the reduction of hopper smoke observed in the previous test. The primary blower was set at 2200 rpm, and the secondary blower at 3000 rpm. A mega chimney was used without any mesh at the top. The experiment utilized a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
+The feedstock used for the experiment was Douglas Fir wood chips from Williams Lake, Canada.
+During the test, the system performed well initially. However, after about 1-2 hours, hopper smoke started to appear. Various measures were attempted to mitigate the smoke, including vigorous poking, idling the air or stopping the auger temporarily, but none had a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide substantial improvement.
+The char in the first drum appeared to be relatively well done. A photo was provided, showing the spread of the char on the ground. The first drum started from the bottom-right and proceeded to the top-left. The second drum was overlaid directly above the starting point of the first drum, forming one large pile.
+Please note that this is just an example answer based on the information provided. Further analysis and interpretation of the experimental results would require more detailed data and observations.</t>
+  </si>
+  <si>
+    <t>The experiment was conducted using Douglas Fir wood chips from Williams Lake, Canada as the feedstock. The primary blowers were set at S5 on the right and S10 on the left, with a primary speed of 2200 rpm and a secondary speed of 3000 rpm. The experiment used a newly refurbished six-inch pitch auger and a prototype setup at a 35-degree angle.
+During the test, the system performed well initially, but after about 1-2 hours, hopper smoke started to appear. The team attempted to mitigate the smoke by vigorously poking the hopper, idling the air or stopping the auger temporarily, but these measures did not have a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide much improvement.
+The char in the first drum appeared to be relatively well done. The photo provided shows the spread of the char on the ground, with the first drum starting from the bottom-right and proceeding to the top-left. The second drum was overlaid directly above the starting point of the first drum, creating one large pile.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 107 10/13/22  
@@ -2471,6 +2918,17 @@
     <t>2000</t>
   </si>
   <si>
+    <t>The experiment conducted a hot test with the primary blowers set at S10. The primary and secondary air were initially set at idle (1300 rpm) and then increased to 2200 rpm and 3000 rpm, respectively. The feedstock used was Douglas Fir wood chips from Williams Lake, Canada.
+During the test, there were a few jams with the motor, but overall, the lighting process ran smoothly without major poking. The temperatures rose to very high levels relatively quickly, possibly due to minimum poking. Smoke in the hopper was rarely observed, which could be attributed to the position of the primary blowers. However, after some time, amber and a bit of smoke were observed. It is predicted that the high temperatures resulted in over-charred biochar.
+Upon examining the temperature profile, it was expected that the biochar would be over-charred. However, when the actual biochar was inspected, it was found to be unevenly charred despite the high temperatures.
+Suggestions for future experiments include being attentive throughout the entire process in the hopper and adjusting the blowers in response to very high temperatures, such as trying a lower speed of 2000 rpm.</t>
+  </si>
+  <si>
+    <t>The input material for this hot test was Douglas Fir wood chips from Williams Lake, Canada.
+Based on the observations, it seems that the high temperatures reached during the test may have resulted in over-charring of the biochar. However, upon inspection, it was found that the biochar was actually unevenly charred despite the high temperatures.
+To address this issue, it is suggested to be attentive throughout the entire process, especially during the hopper stage. Additionally, adjusting the blowers in response to the high temperatures may help. It is recommended to try reducing the primary blower speed to 2000 rpm and observe the effects on the combustion process and biochar formation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 108 11/12/22  
 People: Hope, Troy, Austin. 
 Hypothesis: Pretesting reactor for public demo on 11/14 
@@ -2483,9 +2941,6 @@
 Because the test was so short, there are not many conclusions to be drawn. </t>
   </si>
   <si>
-    <t>N/A: Not enough information</t>
-  </si>
-  <si>
     <t>The auger speed for this hot test was 6 rpm.</t>
   </si>
   <si>
@@ -2494,6 +2949,21 @@
   </si>
   <si>
     <t>The primary blower speed for this hot test was 10 (S10).</t>
+  </si>
+  <si>
+    <t>The experiment was conducted to test the functionality of the newly installed power supply and to determine if any adjustments were needed due to colder ambient temperatures. The test went smoothly, although it was ended before reaching a steady state to conserve biomass chips.
+Observations:
+1. Lighting Procedure: The reactor took slightly longer to light, but it did not significantly affect the lighting procedure. The procedure involved stopping the auger, using charcoal lighter fluid for ignition, waiting for 2-3 minutes, running the auger for 1 minute, and then stopping the auger for an additional 5 minutes before starting at the operating speed of 6 rpm.
+2. Change in Primary Blower Speed: In this test, the primary blowers were lowered to 2200 rpm, which was different from previous tests where the primaries were lowered when the auger was started.
+Conclusions:
+Due to the short duration of the test, there are limited conclusions that can be drawn. However, the test confirmed the functionality of the newly installed power supply and indicated that the lighting procedure and primary blower speed adjustments were effective. Further testing is required to reach a steady state and gather more comprehensive data.</t>
+  </si>
+  <si>
+    <t>The experiment was conducted using Douglas Fir wood chips from Williams Lake, Canada as the feedstock. The purpose of the test was to check the functionality of the newly installed power supply and to assess if any changes were required in the operation due to colder ambient temperatures. The test went smoothly, although it was stopped before reaching a steady state to conserve the wood chips.
+Observations:
+1. The reactor took slightly longer to light, but it did not significantly affect the lighting procedure. The procedure involved stopping the auger, lighting with charcoal lighter fluid, waiting for 2-3 minutes, running the auger for 1 minute, and then stopping it for another 5 minutes before starting at the operating speed of 6 rpm.
+2. Nine minutes after starting the auger at the operating speed, the primary blowers were lowered to 2200 rpm. This was the only change made compared to previous tests, where the primary blowers were lowered when the auger was started.
+Since the test was short, not many conclusions can be drawn from it.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 109 11/14/22  
@@ -2522,6 +2992,9 @@
   </si>
   <si>
     <t>Replace the motor breaker to see if it solves the "ghost tripping" problem.</t>
+  </si>
+  <si>
+    <t>Based on the detailed observations, it seems that the auger motor stopped working during the experiment, but the breaker did not trip. This is referred to as a "ghost trip" situation. One suggestion to address this issue is to replace the motor breaker, as it may be worn out and not functioning properly in overcurrent situations. By replacing the breaker, it can be determined if this solves the problem of the auger motor stopping unexpectedly.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 110 02/01/23 
@@ -2548,6 +3021,12 @@
 Moving forward, it is suggested to troubleshoot the blowers, scale, and thermocouples. By addressing these areas, a hot test can be run as a baseline for a variable pitch auger.</t>
   </si>
   <si>
+    <t>The experiment conducted in this hot test aimed to demonstrate the procedure for running the biomass-to-biochar reactor. However, there were several issues encountered during the test. Blowers C and D, which are responsible for removing volatiles through the chimney, were not controlled properly. Blower D was not reading in Codesys, and both blowers were running at around 8000 rpm. This uncontrolled operation of the blowers may have affected the combustion process.
+Additionally, there were problems with the thermocouple readings and the scale used to measure the input and output feed rates. The thermocouples require further troubleshooting, and the scale was found to be malfunctioning, causing inconsistent weight measurements.
+Despite these issues, the experiment ran smoothly for a short duration, with a feed rate of approximately 24.654 kg/h. The output feed rate fluctuated between 1 and 2, indicating the scale's malfunction. However, the output biomass appeared to be well-charred, suggesting successful biochar formation.
+Moving forward, it is recommended to focus on troubleshooting the blowers, scale, and thermocouples to ensure accurate measurements and controlled operation. Once these issues are resolved, a hot test can be conducted as a baseline for testing the variable pitch auger.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 111 02/02/23 
 People: Kevin, Rod, Camila and Dylan 
 Hypothesis: Run reactor at lower angle (15°) to test whether the auger will jam less, more or the same as Hot Test #110 
@@ -2576,7 +3055,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2584,11 +3063,9 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2599,7 +3076,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2607,22 +3084,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2645,44 +3136,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2709,32 +3200,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2761,24 +3234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2790,142 +3245,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -2933,39 +3412,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="209.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.6640625" customWidth="1"/>
+    <col min="9" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2996,161 +3470,146 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
       <c r="L5" t="s">
@@ -3159,39 +3618,33 @@
       <c r="M5" t="s">
         <v>44</v>
       </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>65</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" t="s">
         <v>47</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>51</v>
       </c>
       <c r="L6" t="s">
@@ -3200,614 +3653,557 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>66</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>67</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="H8" t="s">
         <v>64</v>
       </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L9" t="s">
-        <v>18</v>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>70</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>71</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>72</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
       </c>
       <c r="L13" t="s">
         <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="N13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>110</v>
       </c>
       <c r="L14" t="s">
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>74</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s">
         <v>52</v>
       </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" ht="404" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>75</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>115</v>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
       </c>
       <c r="L16" t="s">
         <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>77</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
       </c>
       <c r="L18" t="s">
         <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>78</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
       </c>
       <c r="L19" t="s">
         <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>79</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s">
+        <v>148</v>
       </c>
       <c r="L20" t="s">
         <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>140</v>
+        <v>149</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>80</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>142</v>
+      <c r="K21" t="s">
+        <v>153</v>
       </c>
       <c r="L21" t="s">
         <v>52</v>
@@ -3815,1279 +4211,1195 @@
       <c r="M21" t="s">
         <v>52</v>
       </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>81</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
       </c>
       <c r="L22" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M22" t="s">
-        <v>147</v>
+        <v>158</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>82</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>150</v>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s">
+        <v>163</v>
       </c>
       <c r="L23" t="s">
         <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>151</v>
+        <v>164</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>83</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>17</v>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s">
+        <v>169</v>
       </c>
       <c r="L24" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>84</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>159</v>
+      <c r="K25" t="s">
+        <v>176</v>
       </c>
       <c r="L25" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s">
-        <v>161</v>
+        <v>178</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>85</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
+      </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" t="s">
+        <v>185</v>
       </c>
       <c r="L26" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>86</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
+      </c>
+      <c r="K27" t="s">
+        <v>192</v>
       </c>
       <c r="L27" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s">
-        <v>173</v>
+        <v>194</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>87</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>145</v>
+      <c r="I28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>156</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>88</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>184</v>
+        <v>209</v>
+      </c>
+      <c r="N29" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>89</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s">
-        <v>192</v>
+        <v>219</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
+      <c r="B31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
       </c>
       <c r="L31" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
-        <v>199</v>
+        <v>228</v>
+      </c>
+      <c r="N31" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>91</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
+      <c r="B32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>204</v>
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
       </c>
       <c r="L32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s">
-        <v>206</v>
+        <v>237</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>92</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L33" t="s">
-        <v>18</v>
+        <v>241</v>
+      </c>
+      <c r="K33" t="s">
+        <v>242</v>
       </c>
       <c r="M33" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>145</v>
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>156</v>
       </c>
       <c r="L34" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>214</v>
+        <v>249</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>94</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
+      <c r="B35" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>220</v>
+        <v>253</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
       </c>
       <c r="L35" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s">
-        <v>222</v>
+        <v>257</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>95</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>225</v>
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>96</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>230</v>
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>267</v>
+      </c>
+      <c r="I37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" t="s">
+        <v>269</v>
       </c>
       <c r="L37" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="N37" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>97</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>237</v>
+        <v>273</v>
+      </c>
+      <c r="G38" t="s">
+        <v>274</v>
+      </c>
+      <c r="H38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
       </c>
       <c r="L38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>238</v>
+        <v>278</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>98</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
+      <c r="B39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>145</v>
+        <v>282</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>156</v>
       </c>
       <c r="L39" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s">
-        <v>243</v>
+        <v>285</v>
+      </c>
+      <c r="N39" t="s">
+        <v>286</v>
+      </c>
+      <c r="O39" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>99</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
+      <c r="B40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>249</v>
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H40" t="s">
+        <v>290</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s">
+        <v>292</v>
       </c>
       <c r="L40" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s">
-        <v>251</v>
+        <v>294</v>
+      </c>
+      <c r="N40" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>25</v>
+      <c r="B41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>255</v>
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>300</v>
       </c>
       <c r="L41" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s">
-        <v>257</v>
+        <v>302</v>
+      </c>
+      <c r="N41" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>101</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
+      <c r="B42" t="s">
+        <v>304</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>263</v>
+        <v>305</v>
+      </c>
+      <c r="G42" t="s">
+        <v>306</v>
+      </c>
+      <c r="H42" t="s">
+        <v>307</v>
+      </c>
+      <c r="I42" t="s">
+        <v>308</v>
+      </c>
+      <c r="K42" t="s">
+        <v>309</v>
       </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s">
-        <v>265</v>
+        <v>311</v>
+      </c>
+      <c r="N42" t="s">
+        <v>312</v>
+      </c>
+      <c r="O42" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>102</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
+      <c r="B43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>269</v>
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>315</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="K43" t="s">
+        <v>317</v>
       </c>
       <c r="L43" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" t="s">
+        <v>319</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>103</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>25</v>
+      <c r="B44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>145</v>
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>315</v>
+      </c>
+      <c r="I44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>156</v>
       </c>
       <c r="L44" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="N44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>104</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
+      <c r="B45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>280</v>
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" t="s">
+        <v>327</v>
+      </c>
+      <c r="I45" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" t="s">
+        <v>329</v>
+      </c>
+      <c r="K45" t="s">
+        <v>330</v>
       </c>
       <c r="L45" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s">
-        <v>282</v>
+        <v>332</v>
+      </c>
+      <c r="N45" t="s">
+        <v>333</v>
+      </c>
+      <c r="O45" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>105</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
+      <c r="B46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>284</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
+      </c>
+      <c r="K46" t="s">
+        <v>337</v>
       </c>
       <c r="L46" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s">
-        <v>287</v>
+        <v>339</v>
+      </c>
+      <c r="N46" t="s">
+        <v>340</v>
+      </c>
+      <c r="O46" t="s">
+        <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="340" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>106</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
+      <c r="B47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>289</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>290</v>
+        <v>343</v>
+      </c>
+      <c r="K47" t="s">
+        <v>344</v>
       </c>
       <c r="L47" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s">
-        <v>292</v>
+        <v>346</v>
+      </c>
+      <c r="N47" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>107</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
+      <c r="B48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>296</v>
+        <v>350</v>
+      </c>
+      <c r="I48" t="s">
+        <v>351</v>
+      </c>
+      <c r="K48" t="s">
+        <v>352</v>
       </c>
       <c r="L48" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s">
-        <v>298</v>
+        <v>354</v>
+      </c>
+      <c r="N48" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>108</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" t="s">
-        <v>300</v>
-      </c>
-      <c r="D49" t="s">
-        <v>300</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
+      <c r="B49" t="s">
+        <v>357</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>301</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>302</v>
+        <v>358</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" t="s">
+        <v>359</v>
       </c>
       <c r="L49" t="s">
-        <v>303</v>
-      </c>
-      <c r="M49" t="s">
-        <v>18</v>
+        <v>360</v>
+      </c>
+      <c r="N49" t="s">
+        <v>361</v>
+      </c>
+      <c r="O49" t="s">
+        <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>109</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" t="s">
-        <v>25</v>
+      <c r="B50" t="s">
+        <v>363</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>305</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>306</v>
+        <v>364</v>
+      </c>
+      <c r="K50" t="s">
+        <v>365</v>
       </c>
       <c r="L50" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s">
-        <v>308</v>
+        <v>367</v>
+      </c>
+      <c r="N50" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>110</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>18</v>
+      <c r="B51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>370</v>
       </c>
       <c r="L51" t="s">
-        <v>311</v>
-      </c>
-      <c r="M51" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>111</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="B52" t="s">
+        <v>373</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" t="s">
         <v>17</v>
       </c>
-      <c r="F52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>314</v>
+      <c r="J52" t="s">
+        <v>374</v>
+      </c>
+      <c r="K52" t="s">
+        <v>375</v>
       </c>
       <c r="L52" t="s">
-        <v>315</v>
-      </c>
-      <c r="M52" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>